--- a/HICP_europe_optimized.xlsx
+++ b/HICP_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,17 +516,17 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01171074697799845</v>
+        <v>0.01170964251622131</v>
       </c>
       <c r="C2" t="n">
-        <v>8.358186</v>
+        <v>8.356973999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02084488560741704</v>
+        <v>0.02084540857326811</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>0.01554487129062032</v>
+        <v>0.01554463490029168</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -547,17 +547,17 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01192772214179794</v>
+        <v>0.01192651117976506</v>
       </c>
       <c r="C3" t="n">
-        <v>8.753531000000001</v>
+        <v>8.753622999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554487129062032</v>
+        <v>0.01554463490029168</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.01171074697799845</v>
+        <v>0.01170964251622131</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -578,17 +578,17 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006140286589663368</v>
+        <v>0.006157931133335737</v>
       </c>
       <c r="C4" t="n">
-        <v>9.05551</v>
+        <v>9.057007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01171074697799845</v>
+        <v>0.01170964251622131</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.01192772214179794</v>
+        <v>0.01192651117976506</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -609,17 +609,17 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005473237570729594</v>
+        <v>0.005455497307171875</v>
       </c>
       <c r="C5" t="n">
-        <v>9.340729</v>
+        <v>9.341023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01192772214179794</v>
+        <v>0.01192651117976506</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.006140286589663368</v>
+        <v>0.006157931133335737</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -640,17 +640,17 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003640018497081954</v>
+        <v>0.0003652029993350681</v>
       </c>
       <c r="C6" t="n">
-        <v>9.508599999999999</v>
+        <v>9.509734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006140286589663368</v>
+        <v>0.006157931133335737</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.005473237570729594</v>
+        <v>0.005455497307171875</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -671,17 +671,17 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00158771394318169</v>
+        <v>-0.001586621497206231</v>
       </c>
       <c r="C7" t="n">
-        <v>9.619567999999999</v>
+        <v>9.620914000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005473237570729594</v>
+        <v>0.005455497307171875</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.0003640018497081954</v>
+        <v>0.0003652029993350681</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -702,17 +702,17 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006191526244977652</v>
+        <v>-0.006191299865061062</v>
       </c>
       <c r="C8" t="n">
-        <v>9.695499999999999</v>
+        <v>9.697734000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003640018497081954</v>
+        <v>0.0003652029993350681</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-0.00158771394318169</v>
+        <v>-0.001586621497206231</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -733,17 +733,17 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001699971641405007</v>
+        <v>-0.001700405668793259</v>
       </c>
       <c r="C9" t="n">
-        <v>9.793303999999999</v>
+        <v>9.792828999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00158771394318169</v>
+        <v>-0.001586621497206231</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.006191526244977652</v>
+        <v>-0.006191299865061062</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -764,17 +764,17 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.003289745158780555</v>
+        <v>-0.003289199734495263</v>
       </c>
       <c r="C10" t="n">
-        <v>9.860996999999999</v>
+        <v>9.859114999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006191526244977652</v>
+        <v>-0.006191299865061062</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.001699971641405007</v>
+        <v>-0.001700405668793259</v>
       </c>
       <c r="G10" t="n">
         <v>0.001388888888888889</v>
@@ -797,19 +797,19 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001693195941614434</v>
+        <v>-0.001692759879672323</v>
       </c>
       <c r="C11" t="n">
-        <v>9.996441000000001</v>
+        <v>9.995138000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001699971641405007</v>
+        <v>-0.001700405668793259</v>
       </c>
       <c r="E11" t="n">
         <v>0.001388888888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.003289745158780555</v>
+        <v>-0.003289199734495263</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004515960670169683</v>
+        <v>0.004515409784227487</v>
       </c>
       <c r="C12" t="n">
-        <v>10.080858</v>
+        <v>10.079256</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003289745158780555</v>
+        <v>-0.003289199734495263</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.001693195941614434</v>
+        <v>-0.001692759879672323</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -869,19 +869,19 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008841244849996599</v>
+        <v>0.008841345775994824</v>
       </c>
       <c r="C13" t="n">
-        <v>10.15045</v>
+        <v>10.147698</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001693195941614434</v>
+        <v>-0.001692759879672323</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004515960670169683</v>
+        <v>0.004515409784227487</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -908,19 +908,19 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0110692768605789</v>
+        <v>0.0110701471746566</v>
       </c>
       <c r="C14" t="n">
-        <v>10.144886</v>
+        <v>10.142776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004515960670169683</v>
+        <v>0.004515409784227487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008841244849996599</v>
+        <v>0.008841345775994824</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009891269512698919</v>
+        <v>0.009892141256346854</v>
       </c>
       <c r="C15" t="n">
-        <v>10.249764</v>
+        <v>10.251156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008841244849996599</v>
+        <v>0.008841345775994824</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0110692768605789</v>
+        <v>0.0110701471746566</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0144243986798811</v>
+        <v>0.01442504570911751</v>
       </c>
       <c r="C16" t="n">
-        <v>10.282061</v>
+        <v>10.283775</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0110692768605789</v>
+        <v>0.0110701471746566</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009891269512698919</v>
+        <v>0.009892141256346854</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01627483381694095</v>
+        <v>0.01627428729733182</v>
       </c>
       <c r="C17" t="n">
-        <v>10.266014</v>
+        <v>10.267484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009891269512698919</v>
+        <v>0.009892141256346854</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0144243986798811</v>
+        <v>0.01442504570911751</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1084,19 +1084,19 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620542202402664</v>
+        <v>0.0162044053426591</v>
       </c>
       <c r="C18" t="n">
-        <v>10.357075</v>
+        <v>10.358565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0144243986798811</v>
+        <v>0.01442504570911751</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01627483381694095</v>
+        <v>0.01627428729733182</v>
       </c>
       <c r="G18" t="n">
         <v>-0.01039426523297491</v>
@@ -1131,19 +1131,19 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425169426039208</v>
+        <v>0.01425090218717262</v>
       </c>
       <c r="C19" t="n">
-        <v>10.355908</v>
+        <v>10.356725</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01627483381694095</v>
+        <v>0.01627428729733182</v>
       </c>
       <c r="E19" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01620542202402664</v>
+        <v>0.0162044053426591</v>
       </c>
       <c r="G19" t="n">
         <v>-0.01111111111111111</v>
@@ -1178,19 +1178,19 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01735143621757818</v>
+        <v>0.0173513026619041</v>
       </c>
       <c r="C20" t="n">
-        <v>10.308132</v>
+        <v>10.309896</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620542202402664</v>
+        <v>0.0162044053426591</v>
       </c>
       <c r="E20" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01425169426039208</v>
+        <v>0.01425090218717262</v>
       </c>
       <c r="G20" t="n">
         <v>-0.01111111111111111</v>
@@ -1225,19 +1225,19 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01577174138523052</v>
+        <v>0.01577216326242414</v>
       </c>
       <c r="C21" t="n">
-        <v>10.255133</v>
+        <v>10.254268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425169426039208</v>
+        <v>0.01425090218717262</v>
       </c>
       <c r="E21" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01735143621757818</v>
+        <v>0.0173513026619041</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1272,19 +1272,19 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01749485643421433</v>
+        <v>0.01749505731350709</v>
       </c>
       <c r="C22" t="n">
-        <v>10.223829</v>
+        <v>10.222633</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01735143621757818</v>
+        <v>0.0173513026619041</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01577174138523052</v>
+        <v>0.01577216326242414</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1319,19 +1319,19 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01901964430221881</v>
+        <v>0.01901984573200277</v>
       </c>
       <c r="C23" t="n">
-        <v>10.230386</v>
+        <v>10.230037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01577174138523052</v>
+        <v>0.01577216326242414</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01749485643421433</v>
+        <v>0.01749505731350709</v>
       </c>
       <c r="G23" t="n">
         <v>-0.001792114695340502</v>
@@ -1366,19 +1366,19 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01887841163313642</v>
+        <v>0.01887839130456204</v>
       </c>
       <c r="C24" t="n">
-        <v>10.264465</v>
+        <v>10.266673</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01749485643421433</v>
+        <v>0.01749505731350709</v>
       </c>
       <c r="E24" t="n">
         <v>-0.001792114695340502</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01901964430221881</v>
+        <v>0.01901984573200277</v>
       </c>
       <c r="G24" t="n">
         <v>-0.01111111111111111</v>
@@ -1413,19 +1413,19 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175180429415313</v>
+        <v>0.02175157064128186</v>
       </c>
       <c r="C25" t="n">
-        <v>10.207407</v>
+        <v>10.207471</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01901964430221881</v>
+        <v>0.01901984573200277</v>
       </c>
       <c r="E25" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01887841163313642</v>
+        <v>0.01887839130456204</v>
       </c>
       <c r="G25" t="n">
         <v>-0.01111111111111111</v>
@@ -1460,19 +1460,19 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388929831230868</v>
+        <v>0.02388917974558868</v>
       </c>
       <c r="C26" t="n">
-        <v>10.197585</v>
+        <v>10.197349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01887841163313642</v>
+        <v>0.01887839130456204</v>
       </c>
       <c r="E26" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02175180429415313</v>
+        <v>0.02175157064128186</v>
       </c>
       <c r="G26" t="n">
         <v>-0.003942652329749104</v>
@@ -1507,19 +1507,19 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02576826301582091</v>
+        <v>0.02576857137150146</v>
       </c>
       <c r="C27" t="n">
-        <v>10.143906</v>
+        <v>10.143257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175180429415313</v>
+        <v>0.02175157064128186</v>
       </c>
       <c r="E27" t="n">
         <v>-0.003942652329749104</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02388929831230868</v>
+        <v>0.02388917974558868</v>
       </c>
       <c r="G27" t="n">
         <v>0.01111111111111111</v>
@@ -1554,19 +1554,19 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0258883584491798</v>
+        <v>0.02588837642790764</v>
       </c>
       <c r="C28" t="n">
-        <v>10.119294</v>
+        <v>10.124177</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388929831230868</v>
+        <v>0.02388917974558868</v>
       </c>
       <c r="E28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02576826301582091</v>
+        <v>0.02576857137150146</v>
       </c>
       <c r="G28" t="n">
         <v>0.02867383512544803</v>
@@ -1601,19 +1601,19 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02626945000997605</v>
+        <v>0.0262696910820992</v>
       </c>
       <c r="C29" t="n">
-        <v>10.101179</v>
+        <v>10.103363</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02576826301582091</v>
+        <v>0.02576857137150146</v>
       </c>
       <c r="E29" t="n">
         <v>0.02867383512544803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0258883584491798</v>
+        <v>0.02588837642790764</v>
       </c>
       <c r="G29" t="n">
         <v>0.04814814814814815</v>
@@ -1648,19 +1648,19 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02615834796382366</v>
+        <v>0.02615819050273593</v>
       </c>
       <c r="C30" t="n">
-        <v>10.025562</v>
+        <v>10.025315</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0258883584491798</v>
+        <v>0.02588837642790764</v>
       </c>
       <c r="E30" t="n">
         <v>0.04814814814814815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02626945000997605</v>
+        <v>0.0262696910820992</v>
       </c>
       <c r="G30" t="n">
         <v>0.05197132616487456</v>
@@ -1695,19 +1695,19 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560142148902589</v>
+        <v>0.02560105576512051</v>
       </c>
       <c r="C31" t="n">
-        <v>10.099641</v>
+        <v>10.09494</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02626945000997605</v>
+        <v>0.0262696910820992</v>
       </c>
       <c r="E31" t="n">
         <v>0.05197132616487456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02615834796382366</v>
+        <v>0.02615819050273593</v>
       </c>
       <c r="G31" t="n">
         <v>0.02555555555555556</v>
@@ -1742,19 +1742,19 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644664431892707</v>
+        <v>0.02644650345169097</v>
       </c>
       <c r="C32" t="n">
-        <v>10.124182</v>
+        <v>10.117833</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02615834796382366</v>
+        <v>0.02615819050273593</v>
       </c>
       <c r="E32" t="n">
         <v>0.02555555555555556</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02560142148902589</v>
+        <v>0.02560105576512051</v>
       </c>
       <c r="G32" t="n">
         <v>-0.006451612903225806</v>
@@ -1789,19 +1789,19 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0271323905373464</v>
+        <v>0.02713257619564047</v>
       </c>
       <c r="C33" t="n">
-        <v>10.242645</v>
+        <v>10.236223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560142148902589</v>
+        <v>0.02560105576512051</v>
       </c>
       <c r="E33" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02644664431892707</v>
+        <v>0.02644650345169097</v>
       </c>
       <c r="G33" t="n">
         <v>-0.01899641577060932</v>
@@ -1836,19 +1836,19 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832293637504435</v>
+        <v>0.02832322165801227</v>
       </c>
       <c r="C34" t="n">
-        <v>10.343643</v>
+        <v>10.340222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644664431892707</v>
+        <v>0.02644650345169097</v>
       </c>
       <c r="E34" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0271323905373464</v>
+        <v>0.02713257619564047</v>
       </c>
       <c r="G34" t="n">
         <v>-0.01111111111111111</v>
@@ -1883,19 +1883,19 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0290877832249592</v>
+        <v>0.02908796632864252</v>
       </c>
       <c r="C35" t="n">
-        <v>10.458801</v>
+        <v>10.459443</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271323905373464</v>
+        <v>0.02713257619564047</v>
       </c>
       <c r="E35" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02832293637504435</v>
+        <v>0.02832322165801227</v>
       </c>
       <c r="G35" t="n">
         <v>0.001075268817204301</v>
@@ -1930,19 +1930,19 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02931061396802281</v>
+        <v>0.02931006522036572</v>
       </c>
       <c r="C36" t="n">
-        <v>10.568896</v>
+        <v>10.569939</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832293637504435</v>
+        <v>0.02832322165801227</v>
       </c>
       <c r="E36" t="n">
         <v>0.001075268817204301</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0290877832249592</v>
+        <v>0.02908796632864252</v>
       </c>
       <c r="G36" t="n">
         <v>0.01111111111111111</v>
@@ -1977,19 +1977,19 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687834042299908</v>
       </c>
       <c r="C37" t="n">
-        <v>10.720057</v>
+        <v>10.721885</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0290877832249592</v>
+        <v>0.02908796632864252</v>
       </c>
       <c r="E37" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02931061396802281</v>
+        <v>0.02931006522036572</v>
       </c>
       <c r="G37" t="n">
         <v>0.005376344086021506</v>
@@ -2024,19 +2024,19 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02645006669154792</v>
+        <v>0.02644964357307344</v>
       </c>
       <c r="C38" t="n">
-        <v>10.819535</v>
+        <v>10.819911</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02931061396802281</v>
+        <v>0.02931006522036572</v>
       </c>
       <c r="E38" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687834042299908</v>
       </c>
       <c r="G38" t="n">
         <v>-0.01577060931899642</v>
@@ -2071,19 +2071,19 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702078920702355</v>
+        <v>0.02702077232545985</v>
       </c>
       <c r="C39" t="n">
-        <v>10.873793</v>
+        <v>10.877323</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687834042299908</v>
       </c>
       <c r="E39" t="n">
         <v>-0.01577060931899642</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02645006669154792</v>
+        <v>0.02644964357307344</v>
       </c>
       <c r="G39" t="n">
         <v>-0.03333333333333333</v>
@@ -2118,19 +2118,19 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02667144926986076</v>
+        <v>0.02666796201672916</v>
       </c>
       <c r="C40" t="n">
-        <v>11.045553</v>
+        <v>11.047452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02645006669154792</v>
+        <v>0.02644964357307344</v>
       </c>
       <c r="E40" t="n">
         <v>-0.03333333333333333</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02702078920702355</v>
+        <v>0.02702077232545985</v>
       </c>
       <c r="G40" t="n">
         <v>-0.006810035842293906</v>
@@ -2165,19 +2165,19 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02566511727994847</v>
+        <v>0.02567024939667473</v>
       </c>
       <c r="C41" t="n">
-        <v>11.218704</v>
+        <v>11.222122</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702078920702355</v>
+        <v>0.02702077232545985</v>
       </c>
       <c r="E41" t="n">
         <v>-0.006810035842293906</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02667144926986076</v>
+        <v>0.02666796201672916</v>
       </c>
       <c r="G41" t="n">
         <v>0.02888888888888889</v>
@@ -2212,19 +2212,19 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02396521743395219</v>
+        <v>0.0239658885112437</v>
       </c>
       <c r="C42" t="n">
-        <v>11.329493</v>
+        <v>11.331096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02667144926986076</v>
+        <v>0.02666796201672916</v>
       </c>
       <c r="E42" t="n">
         <v>0.02888888888888889</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02566511727994847</v>
+        <v>0.02567024939667473</v>
       </c>
       <c r="G42" t="n">
         <v>0.06594982078853046</v>
@@ -2259,19 +2259,19 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02380247504881527</v>
+        <v>0.02380274238503777</v>
       </c>
       <c r="C43" t="n">
-        <v>11.385156</v>
+        <v>11.38442</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02566511727994847</v>
+        <v>0.02567024939667473</v>
       </c>
       <c r="E43" t="n">
         <v>0.06594982078853046</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02396521743395219</v>
+        <v>0.0239658885112437</v>
       </c>
       <c r="G43" t="n">
         <v>0.07222222222222222</v>
@@ -2306,19 +2306,19 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351085917412643</v>
+        <v>0.02351103412946198</v>
       </c>
       <c r="C44" t="n">
-        <v>11.485681</v>
+        <v>11.48338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02396521743395219</v>
+        <v>0.0239658885112437</v>
       </c>
       <c r="E44" t="n">
         <v>0.07222222222222222</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02380247504881527</v>
+        <v>0.02380274238503777</v>
       </c>
       <c r="G44" t="n">
         <v>0.05591397849462365</v>
@@ -2353,19 +2353,19 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02534546649583902</v>
+        <v>0.02534554208543849</v>
       </c>
       <c r="C45" t="n">
-        <v>11.554074</v>
+        <v>11.552009</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02380247504881527</v>
+        <v>0.02380274238503777</v>
       </c>
       <c r="E45" t="n">
         <v>0.05591397849462365</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02351085917412643</v>
+        <v>0.02351103412946198</v>
       </c>
       <c r="G45" t="n">
         <v>0.04265232974910394</v>
@@ -2400,19 +2400,19 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583794576282017</v>
+        <v>0.02583791391085644</v>
       </c>
       <c r="C46" t="n">
-        <v>11.592933</v>
+        <v>11.592689</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351085917412643</v>
+        <v>0.02351103412946198</v>
       </c>
       <c r="E46" t="n">
         <v>0.04265232974910394</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02534546649583902</v>
+        <v>0.02534554208543849</v>
       </c>
       <c r="G46" t="n">
         <v>0.03037037037037037</v>
@@ -2447,19 +2447,19 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02478410324983482</v>
+        <v>0.02478367277359883</v>
       </c>
       <c r="C47" t="n">
-        <v>11.711625</v>
+        <v>11.713657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02534546649583902</v>
+        <v>0.02534554208543849</v>
       </c>
       <c r="E47" t="n">
         <v>0.03037037037037037</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02583794576282017</v>
+        <v>0.02583791391085644</v>
       </c>
       <c r="G47" t="n">
         <v>0.04014336917562724</v>
@@ -2494,19 +2494,19 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02191187671221595</v>
+        <v>0.02191095340669413</v>
       </c>
       <c r="C48" t="n">
-        <v>11.859569</v>
+        <v>11.860563</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583794576282017</v>
+        <v>0.02583791391085644</v>
       </c>
       <c r="E48" t="n">
         <v>0.04014336917562724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02478410324983482</v>
+        <v>0.02478367277359883</v>
       </c>
       <c r="G48" t="n">
         <v>0.01851851851851852</v>
@@ -2541,19 +2541,19 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02195153839210384</v>
+        <v>0.02194961257263017</v>
       </c>
       <c r="C49" t="n">
-        <v>11.992911</v>
+        <v>11.992875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02478410324983482</v>
+        <v>0.02478367277359883</v>
       </c>
       <c r="E49" t="n">
         <v>0.01851851851851852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02191187671221595</v>
+        <v>0.02191095340669413</v>
       </c>
       <c r="G49" t="n">
         <v>0.04193548387096774</v>
@@ -2588,19 +2588,19 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973283491736844</v>
+        <v>0.01973071379919755</v>
       </c>
       <c r="C50" t="n">
-        <v>12.02458</v>
+        <v>12.02408</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02191187671221595</v>
+        <v>0.02191095340669413</v>
       </c>
       <c r="E50" t="n">
         <v>0.04193548387096774</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02195153839210384</v>
+        <v>0.02194961257263017</v>
       </c>
       <c r="G50" t="n">
         <v>0.03835125448028674</v>
@@ -2635,19 +2635,19 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820420146279833</v>
+        <v>0.0182034842298453</v>
       </c>
       <c r="C51" t="n">
-        <v>12.218847</v>
+        <v>12.217775</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02195153839210384</v>
+        <v>0.02194961257263017</v>
       </c>
       <c r="E51" t="n">
         <v>0.03835125448028674</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01973283491736844</v>
+        <v>0.01973071379919755</v>
       </c>
       <c r="G51" t="n">
         <v>0.05714285714285714</v>
@@ -2682,19 +2682,19 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01645033236759641</v>
+        <v>0.01644932602362204</v>
       </c>
       <c r="C52" t="n">
-        <v>12.228875</v>
+        <v>12.232122</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973283491736844</v>
+        <v>0.01973071379919755</v>
       </c>
       <c r="E52" t="n">
         <v>0.05714285714285714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01820420146279833</v>
+        <v>0.0182034842298453</v>
       </c>
       <c r="G52" t="n">
         <v>0.05519713261648745</v>
@@ -2729,19 +2729,19 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01291096775996614</v>
+        <v>0.0129166151429061</v>
       </c>
       <c r="C53" t="n">
-        <v>12.232626</v>
+        <v>12.232353</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820420146279833</v>
+        <v>0.0182034842298453</v>
       </c>
       <c r="E53" t="n">
         <v>0.05519713261648745</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01645033236759641</v>
+        <v>0.01644932602362204</v>
       </c>
       <c r="G53" t="n">
         <v>0.04407407407407407</v>
@@ -2776,19 +2776,19 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434571606148083</v>
+        <v>0.01434900567841968</v>
       </c>
       <c r="C54" t="n">
-        <v>12.24474</v>
+        <v>12.248195</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01645033236759641</v>
+        <v>0.01644932602362204</v>
       </c>
       <c r="E54" t="n">
         <v>0.04407407407407407</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01291096775996614</v>
+        <v>0.0129166151429061</v>
       </c>
       <c r="G54" t="n">
         <v>0.05483870967741936</v>
@@ -2823,19 +2823,19 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01581353632895777</v>
+        <v>0.01581541807599685</v>
       </c>
       <c r="C55" t="n">
-        <v>12.217237</v>
+        <v>12.216822</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01291096775996614</v>
+        <v>0.0129166151429061</v>
       </c>
       <c r="E55" t="n">
         <v>0.05483870967741936</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01434571606148083</v>
+        <v>0.01434900567841968</v>
       </c>
       <c r="G55" t="n">
         <v>0.05777777777777778</v>
@@ -2870,19 +2870,19 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01542866397402332</v>
+        <v>0.01542854162117191</v>
       </c>
       <c r="C56" t="n">
-        <v>12.162745</v>
+        <v>12.160951</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434571606148083</v>
+        <v>0.01434900567841968</v>
       </c>
       <c r="E56" t="n">
         <v>0.05777777777777778</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01581353632895777</v>
+        <v>0.01581541807599685</v>
       </c>
       <c r="G56" t="n">
         <v>0.08888888888888889</v>
@@ -2917,19 +2917,19 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262469085721118</v>
+        <v>0.01262377306128837</v>
       </c>
       <c r="C57" t="n">
-        <v>12.134235</v>
+        <v>12.130337</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01581353632895777</v>
+        <v>0.01581541807599685</v>
       </c>
       <c r="E57" t="n">
         <v>0.08888888888888889</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01542866397402332</v>
+        <v>0.01542854162117191</v>
       </c>
       <c r="G57" t="n">
         <v>0.06451612903225806</v>
@@ -2964,19 +2964,19 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056903714204083</v>
+        <v>0.01056852263647201</v>
       </c>
       <c r="C58" t="n">
-        <v>12.098685</v>
+        <v>12.098502</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01542866397402332</v>
+        <v>0.01542854162117191</v>
       </c>
       <c r="E58" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01262469085721118</v>
+        <v>0.01262377306128837</v>
       </c>
       <c r="G58" t="n">
         <v>0.03592592592592592</v>
@@ -3011,19 +3011,19 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00735981884263559</v>
+        <v>0.007357803912470651</v>
       </c>
       <c r="C59" t="n">
-        <v>12.13734</v>
+        <v>12.139212</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262469085721118</v>
+        <v>0.01262377306128837</v>
       </c>
       <c r="E59" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01056903714204083</v>
+        <v>0.01056852263647201</v>
       </c>
       <c r="G59" t="n">
         <v>0.02544802867383512</v>
@@ -3058,19 +3058,19 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008250496582268951</v>
+        <v>0.008246479521580419</v>
       </c>
       <c r="C60" t="n">
-        <v>12.068799</v>
+        <v>12.06988</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056903714204083</v>
+        <v>0.01056852263647201</v>
       </c>
       <c r="E60" t="n">
         <v>0.02544802867383512</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00735981884263559</v>
+        <v>0.007357803912470651</v>
       </c>
       <c r="G60" t="n">
         <v>-0.005925925925925926</v>
@@ -3105,19 +3105,19 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009209533873491438</v>
+        <v>0.00920543775199878</v>
       </c>
       <c r="C61" t="n">
-        <v>12.063742</v>
+        <v>12.064608</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00735981884263559</v>
+        <v>0.007357803912470651</v>
       </c>
       <c r="E61" t="n">
         <v>-0.005925925925925926</v>
       </c>
       <c r="F61" t="n">
-        <v>0.008250496582268951</v>
+        <v>0.008246479521580419</v>
       </c>
       <c r="G61" t="n">
         <v>-0.07240143369175628</v>
@@ -3152,19 +3152,19 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007656828587824016</v>
+        <v>0.007652233932321728</v>
       </c>
       <c r="C62" t="n">
-        <v>12.000007</v>
+        <v>12.000307</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008250496582268951</v>
+        <v>0.008246479521580419</v>
       </c>
       <c r="E62" t="n">
         <v>-0.07240143369175628</v>
       </c>
       <c r="F62" t="n">
-        <v>0.009209533873491438</v>
+        <v>0.00920543775199878</v>
       </c>
       <c r="G62" t="n">
         <v>-0.1379928315412186</v>
@@ -3199,19 +3199,19 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007077597627930921</v>
+        <v>0.007072990873875362</v>
       </c>
       <c r="C63" t="n">
-        <v>12.045041</v>
+        <v>12.047462</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009209533873491438</v>
+        <v>0.00920543775199878</v>
       </c>
       <c r="E63" t="n">
         <v>-0.1379928315412186</v>
       </c>
       <c r="F63" t="n">
-        <v>0.007656828587824016</v>
+        <v>0.007652233932321728</v>
       </c>
       <c r="G63" t="n">
         <v>-0.217063492063492</v>
@@ -3246,19 +3246,19 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005400374863338442</v>
+        <v>0.005390094773104259</v>
       </c>
       <c r="C64" t="n">
-        <v>12.011432</v>
+        <v>12.014937</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007656828587824016</v>
+        <v>0.007652233932321728</v>
       </c>
       <c r="E64" t="n">
         <v>-0.217063492063492</v>
       </c>
       <c r="F64" t="n">
-        <v>0.007077597627930921</v>
+        <v>0.007072990873875362</v>
       </c>
       <c r="G64" t="n">
         <v>-0.1663082437275986</v>
@@ -3293,19 +3293,19 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00655753629227096</v>
+        <v>0.006599418456890938</v>
       </c>
       <c r="C65" t="n">
-        <v>11.937065</v>
+        <v>11.938483</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007077597627930921</v>
+        <v>0.007072990873875362</v>
       </c>
       <c r="E65" t="n">
         <v>-0.1663082437275986</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005400374863338442</v>
+        <v>0.005390094773104259</v>
       </c>
       <c r="G65" t="n">
         <v>-0.07962962962962963</v>
@@ -3340,19 +3340,19 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005352866157172897</v>
+        <v>0.005352032945874718</v>
       </c>
       <c r="C66" t="n">
-        <v>11.819434</v>
+        <v>11.822462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005400374863338442</v>
+        <v>0.005390094773104259</v>
       </c>
       <c r="E66" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00655753629227096</v>
+        <v>0.006599418456890938</v>
       </c>
       <c r="G66" t="n">
         <v>0.01254480286738351</v>
@@ -3387,19 +3387,19 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00473503242327844</v>
+        <v>0.004734213013017907</v>
       </c>
       <c r="C67" t="n">
-        <v>11.75413</v>
+        <v>11.752875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00655753629227096</v>
+        <v>0.006599418456890938</v>
       </c>
       <c r="E67" t="n">
         <v>0.01254480286738351</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005352866157172897</v>
+        <v>0.005352032945874718</v>
       </c>
       <c r="G67" t="n">
         <v>-0.02888888888888889</v>
@@ -3434,19 +3434,19 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003118175628802788</v>
+        <v>0.003116468708137532</v>
       </c>
       <c r="C68" t="n">
-        <v>11.601102</v>
+        <v>11.598164</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005352866157172897</v>
+        <v>0.005352032945874718</v>
       </c>
       <c r="E68" t="n">
         <v>-0.02888888888888889</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00473503242327844</v>
+        <v>0.004734213013017907</v>
       </c>
       <c r="G68" t="n">
         <v>-0.1028673835125448</v>
@@ -3481,19 +3481,19 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002953549552453083</v>
+        <v>0.002950445175549099</v>
       </c>
       <c r="C69" t="n">
-        <v>11.667599</v>
+        <v>11.662329</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00473503242327844</v>
+        <v>0.004734213013017907</v>
       </c>
       <c r="E69" t="n">
         <v>-0.1028673835125448</v>
       </c>
       <c r="F69" t="n">
-        <v>0.003118175628802788</v>
+        <v>0.003116468708137532</v>
       </c>
       <c r="G69" t="n">
         <v>-0.1727598566308244</v>
@@ -3528,19 +3528,19 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003281227774247775</v>
+        <v>0.003276824861616845</v>
       </c>
       <c r="C70" t="n">
-        <v>11.55541</v>
+        <v>11.549647</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003118175628802788</v>
+        <v>0.003116468708137532</v>
       </c>
       <c r="E70" t="n">
         <v>-0.1727598566308244</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002953549552453083</v>
+        <v>0.002950445175549099</v>
       </c>
       <c r="G70" t="n">
         <v>-0.1137037037037037</v>
@@ -3575,19 +3575,19 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003902646100997664</v>
+        <v>0.003898546150106874</v>
       </c>
       <c r="C71" t="n">
-        <v>11.604434</v>
+        <v>11.603705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002953549552453083</v>
+        <v>0.002950445175549099</v>
       </c>
       <c r="E71" t="n">
         <v>-0.1137037037037037</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003281227774247775</v>
+        <v>0.003276824861616845</v>
       </c>
       <c r="G71" t="n">
         <v>-0.07132616487455197</v>
@@ -3622,19 +3622,19 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003110851608778553</v>
+        <v>0.003106556830252849</v>
       </c>
       <c r="C72" t="n">
-        <v>11.624304</v>
+        <v>11.621701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003281227774247775</v>
+        <v>0.003276824861616845</v>
       </c>
       <c r="E72" t="n">
         <v>-0.07132616487455197</v>
       </c>
       <c r="F72" t="n">
-        <v>0.003902646100997664</v>
+        <v>0.003898546150106874</v>
       </c>
       <c r="G72" t="n">
         <v>-0.0262962962962963</v>
@@ -3669,19 +3669,19 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.00164416828032099</v>
+        <v>-0.001649201938669798</v>
       </c>
       <c r="C73" t="n">
-        <v>11.647906</v>
+        <v>11.648092</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003902646100997664</v>
+        <v>0.003898546150106874</v>
       </c>
       <c r="E73" t="n">
         <v>-0.0262962962962963</v>
       </c>
       <c r="F73" t="n">
-        <v>0.003110851608778553</v>
+        <v>0.003106556830252849</v>
       </c>
       <c r="G73" t="n">
         <v>-0.05412186379928315</v>
@@ -3716,19 +3716,19 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003949735384185082</v>
+        <v>-0.003954391065895457</v>
       </c>
       <c r="C74" t="n">
-        <v>11.470533</v>
+        <v>11.470141</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003110851608778553</v>
+        <v>0.003106556830252849</v>
       </c>
       <c r="E74" t="n">
         <v>-0.05412186379928315</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.00164416828032099</v>
+        <v>-0.001649201938669798</v>
       </c>
       <c r="G74" t="n">
         <v>-0.1218637992831541</v>
@@ -3763,19 +3763,19 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001008739824271743</v>
+        <v>-0.001013156184156649</v>
       </c>
       <c r="C75" t="n">
-        <v>11.379907</v>
+        <v>11.386207</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.00164416828032099</v>
+        <v>-0.001649201938669798</v>
       </c>
       <c r="E75" t="n">
         <v>-0.1218637992831541</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.003949735384185082</v>
+        <v>-0.003954391065895457</v>
       </c>
       <c r="G75" t="n">
         <v>-0.1404761904761905</v>
@@ -3810,19 +3810,19 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001142916431477126</v>
+        <v>0.001135309515783334</v>
       </c>
       <c r="C76" t="n">
-        <v>11.324341</v>
+        <v>11.330258</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003949735384185082</v>
+        <v>-0.003954391065895457</v>
       </c>
       <c r="E76" t="n">
         <v>-0.1404761904761905</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.001008739824271743</v>
+        <v>-0.001013156184156649</v>
       </c>
       <c r="G76" t="n">
         <v>-0.06415770609318996</v>
@@ -3857,19 +3857,19 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001758202665392616</v>
+        <v>0.001792326520439147</v>
       </c>
       <c r="C77" t="n">
-        <v>11.31459</v>
+        <v>11.319317</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001008739824271743</v>
+        <v>-0.001013156184156649</v>
       </c>
       <c r="E77" t="n">
         <v>-0.06415770609318996</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001142916431477126</v>
+        <v>0.001135309515783334</v>
       </c>
       <c r="G77" t="n">
         <v>0.0737037037037037</v>
@@ -3904,19 +3904,19 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004572603421280519</v>
+        <v>0.004584555655883449</v>
       </c>
       <c r="C78" t="n">
-        <v>11.190989</v>
+        <v>11.19147</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001142916431477126</v>
+        <v>0.001135309515783334</v>
       </c>
       <c r="E78" t="n">
         <v>0.0737037037037037</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001758202665392616</v>
+        <v>0.001792326520439147</v>
       </c>
       <c r="G78" t="n">
         <v>0.1698924731182796</v>
@@ -3951,19 +3951,19 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004221886429569111</v>
+        <v>0.004221375038961028</v>
       </c>
       <c r="C79" t="n">
-        <v>11.148325</v>
+        <v>11.146339</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001758202665392616</v>
+        <v>0.001792326520439147</v>
       </c>
       <c r="E79" t="n">
         <v>0.1698924731182796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.004572603421280519</v>
+        <v>0.004584555655883449</v>
       </c>
       <c r="G79" t="n">
         <v>0.1159259259259259</v>
@@ -3998,19 +3998,19 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003304582812842405</v>
+        <v>0.003298094676511987</v>
       </c>
       <c r="C80" t="n">
-        <v>11.071599</v>
+        <v>11.065753</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004572603421280519</v>
+        <v>0.004584555655883449</v>
       </c>
       <c r="E80" t="n">
         <v>0.1159259259259259</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004221886429569111</v>
+        <v>0.004221375038961028</v>
       </c>
       <c r="G80" t="n">
         <v>0.08422939068100359</v>
@@ -4045,19 +4045,19 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002119636437906358</v>
+        <v>0.00211404759672007</v>
       </c>
       <c r="C81" t="n">
-        <v>10.844709</v>
+        <v>10.839815</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004221886429569111</v>
+        <v>0.004221375038961028</v>
       </c>
       <c r="E81" t="n">
         <v>0.08422939068100359</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003304582812842405</v>
+        <v>0.003298094676511987</v>
       </c>
       <c r="G81" t="n">
         <v>0.02795698924731183</v>
@@ -4092,19 +4092,19 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0004564585843098712</v>
+        <v>0.0004516617745089491</v>
       </c>
       <c r="C82" t="n">
-        <v>10.756265</v>
+        <v>10.751783</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003304582812842405</v>
+        <v>0.003298094676511987</v>
       </c>
       <c r="E82" t="n">
         <v>0.02795698924731183</v>
       </c>
       <c r="F82" t="n">
-        <v>0.002119636437906358</v>
+        <v>0.00211404759672007</v>
       </c>
       <c r="G82" t="n">
         <v>0.01703703703703703</v>
@@ -4139,19 +4139,19 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002395393982153493</v>
+        <v>0.00238951344622329</v>
       </c>
       <c r="C83" t="n">
-        <v>10.70464</v>
+        <v>10.705382</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002119636437906358</v>
+        <v>0.00211404759672007</v>
       </c>
       <c r="E83" t="n">
         <v>0.01703703703703703</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0004564585843098712</v>
+        <v>0.0004516617745089491</v>
       </c>
       <c r="G83" t="n">
         <v>-0.03369175627240144</v>
@@ -4186,19 +4186,19 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003465925412959869</v>
+        <v>0.003459365349924859</v>
       </c>
       <c r="C84" t="n">
-        <v>10.715805</v>
+        <v>10.716318</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0004564585843098712</v>
+        <v>0.0004516617745089491</v>
       </c>
       <c r="E84" t="n">
         <v>-0.03369175627240144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.002395393982153493</v>
+        <v>0.00238951344622329</v>
       </c>
       <c r="G84" t="n">
         <v>-0.01</v>
@@ -4233,19 +4233,19 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004254700305253323</v>
+        <v>0.004249944295160013</v>
       </c>
       <c r="C85" t="n">
-        <v>10.604863</v>
+        <v>10.604992</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002395393982153493</v>
+        <v>0.00238951344622329</v>
       </c>
       <c r="E85" t="n">
         <v>-0.01</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003465925412959869</v>
+        <v>0.003459365349924859</v>
       </c>
       <c r="G85" t="n">
         <v>0.02401433691756272</v>
@@ -4280,19 +4280,19 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003249348056920454</v>
+        <v>0.00324507176005806</v>
       </c>
       <c r="C86" t="n">
-        <v>10.568256</v>
+        <v>10.568219</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003465925412959869</v>
+        <v>0.003459365349924859</v>
       </c>
       <c r="E86" t="n">
         <v>0.02401433691756272</v>
       </c>
       <c r="F86" t="n">
-        <v>0.004254700305253323</v>
+        <v>0.004249944295160013</v>
       </c>
       <c r="G86" t="n">
         <v>-0.007885304659498209</v>
@@ -4327,19 +4327,19 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001151583408810275</v>
+        <v>-0.001159222799533843</v>
       </c>
       <c r="C87" t="n">
-        <v>10.468119</v>
+        <v>10.473702</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004254700305253323</v>
+        <v>0.004249944295160013</v>
       </c>
       <c r="E87" t="n">
         <v>-0.007885304659498209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003249348056920454</v>
+        <v>0.00324507176005806</v>
       </c>
       <c r="G87" t="n">
         <v>-0.08199233716475096</v>
@@ -4374,19 +4374,19 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0007929134778219549</v>
+        <v>-0.0008102458036898241</v>
       </c>
       <c r="C88" t="n">
-        <v>10.445426</v>
+        <v>10.450092</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003249348056920454</v>
+        <v>0.00324507176005806</v>
       </c>
       <c r="E88" t="n">
         <v>-0.08199233716475096</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.001151583408810275</v>
+        <v>-0.001159222799533843</v>
       </c>
       <c r="G88" t="n">
         <v>-0.1315412186379928</v>
@@ -4421,19 +4421,19 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001860172955866268</v>
+        <v>-0.001794229528238489</v>
       </c>
       <c r="C89" t="n">
-        <v>10.358164</v>
+        <v>10.361325</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.001151583408810275</v>
+        <v>-0.001159222799533843</v>
       </c>
       <c r="E89" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.0007929134778219549</v>
+        <v>-0.0008102458036898241</v>
       </c>
       <c r="G89" t="n">
         <v>-0.1125925925925926</v>
@@ -4468,19 +4468,19 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001229414430614639</v>
+        <v>-0.001212208383447155</v>
       </c>
       <c r="C90" t="n">
-        <v>10.316095</v>
+        <v>10.316564</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0007929134778219549</v>
+        <v>-0.0008102458036898241</v>
       </c>
       <c r="E90" t="n">
         <v>-0.1125925925925926</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.001860172955866268</v>
+        <v>-0.001794229528238489</v>
       </c>
       <c r="G90" t="n">
         <v>-0.01899641577060932</v>
@@ -4515,19 +4515,19 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003943193335578243</v>
+        <v>0.0003875382662750226</v>
       </c>
       <c r="C91" t="n">
-        <v>10.216393</v>
+        <v>10.211779</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001860172955866268</v>
+        <v>-0.001794229528238489</v>
       </c>
       <c r="E91" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.001229414430614639</v>
+        <v>-0.001212208383447155</v>
       </c>
       <c r="G91" t="n">
         <v>0.03592592592592592</v>
@@ -4562,19 +4562,19 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001393458414672644</v>
+        <v>0.001383697445988652</v>
       </c>
       <c r="C92" t="n">
-        <v>10.174756</v>
+        <v>10.168059</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001229414430614639</v>
+        <v>-0.001212208383447155</v>
       </c>
       <c r="E92" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0003943193335578243</v>
+        <v>0.0003875382662750226</v>
       </c>
       <c r="G92" t="n">
         <v>0.1290322580645161</v>
@@ -4609,19 +4609,19 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002142769280712997</v>
+        <v>0.002134711973675429</v>
       </c>
       <c r="C93" t="n">
-        <v>10.023866</v>
+        <v>10.019811</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003943193335578243</v>
+        <v>0.0003875382662750226</v>
       </c>
       <c r="E93" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001393458414672644</v>
+        <v>0.001383697445988652</v>
       </c>
       <c r="G93" t="n">
         <v>0.1175627240143369</v>
@@ -4656,19 +4656,19 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004021218700486884</v>
+        <v>0.00401229166250161</v>
       </c>
       <c r="C94" t="n">
-        <v>9.980115</v>
+        <v>9.977694</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001393458414672644</v>
+        <v>0.001383697445988652</v>
       </c>
       <c r="E94" t="n">
         <v>0.1175627240143369</v>
       </c>
       <c r="F94" t="n">
-        <v>0.002142769280712997</v>
+        <v>0.002134711973675429</v>
       </c>
       <c r="G94" t="n">
         <v>0.08111111111111111</v>
@@ -4703,19 +4703,19 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005280142725474946</v>
+        <v>0.005272650726435124</v>
       </c>
       <c r="C95" t="n">
-        <v>9.924440000000001</v>
+        <v>9.928568</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002142769280712997</v>
+        <v>0.002134711973675429</v>
       </c>
       <c r="E95" t="n">
         <v>0.08111111111111111</v>
       </c>
       <c r="F95" t="n">
-        <v>0.004021218700486884</v>
+        <v>0.00401229166250161</v>
       </c>
       <c r="G95" t="n">
         <v>0.09749103942652329</v>
@@ -4750,19 +4750,19 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006038772156473193</v>
+        <v>0.006034000822747743</v>
       </c>
       <c r="C96" t="n">
-        <v>9.840197999999999</v>
+        <v>9.845136</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004021218700486884</v>
+        <v>0.00401229166250161</v>
       </c>
       <c r="E96" t="n">
         <v>0.09749103942652329</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005280142725474946</v>
+        <v>0.005272650726435124</v>
       </c>
       <c r="G96" t="n">
         <v>0.1696296296296296</v>
@@ -4797,19 +4797,19 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0111521929607985</v>
+        <v>0.01115108091050754</v>
       </c>
       <c r="C97" t="n">
-        <v>9.870939999999999</v>
+        <v>9.874658999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005280142725474946</v>
+        <v>0.005272650726435124</v>
       </c>
       <c r="E97" t="n">
         <v>0.1696296296296296</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006038772156473193</v>
+        <v>0.006034000822747743</v>
       </c>
       <c r="G97" t="n">
         <v>0.2150537634408602</v>
@@ -4844,19 +4844,19 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01710498576323793</v>
+        <v>0.01710702604486425</v>
       </c>
       <c r="C98" t="n">
-        <v>9.744999</v>
+        <v>9.749845000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006038772156473193</v>
+        <v>0.006034000822747743</v>
       </c>
       <c r="E98" t="n">
         <v>0.2150537634408602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0111521929607985</v>
+        <v>0.01115108091050754</v>
       </c>
       <c r="G98" t="n">
         <v>0.2505376344086022</v>
@@ -4891,19 +4891,19 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01948042678843276</v>
+        <v>0.01948065174486757</v>
       </c>
       <c r="C99" t="n">
-        <v>9.641487</v>
+        <v>9.646224</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0111521929607985</v>
+        <v>0.01115108091050754</v>
       </c>
       <c r="E99" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01710498576323793</v>
+        <v>0.01710702604486425</v>
       </c>
       <c r="G99" t="n">
         <v>0.301984126984127</v>
@@ -4938,19 +4938,19 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01635219245489594</v>
+        <v>0.01632972080493555</v>
       </c>
       <c r="C100" t="n">
-        <v>9.541747000000001</v>
+        <v>9.547666</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01710498576323793</v>
+        <v>0.01710702604486425</v>
       </c>
       <c r="E100" t="n">
         <v>0.301984126984127</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01948042678843276</v>
+        <v>0.01948065174486757</v>
       </c>
       <c r="G100" t="n">
         <v>0.2867383512544803</v>
@@ -4985,19 +4985,19 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01800598208713566</v>
+        <v>0.01805011749817531</v>
       </c>
       <c r="C101" t="n">
-        <v>9.483768</v>
+        <v>9.482782</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01948042678843276</v>
+        <v>0.01948065174486757</v>
       </c>
       <c r="E101" t="n">
         <v>0.2867383512544803</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01635219245489594</v>
+        <v>0.01632972080493555</v>
       </c>
       <c r="G101" t="n">
         <v>0.2062962962962963</v>
@@ -5032,19 +5032,19 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01427115179796878</v>
+        <v>0.01429046536702039</v>
       </c>
       <c r="C102" t="n">
-        <v>9.297798999999999</v>
+        <v>9.295411</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01635219245489594</v>
+        <v>0.01632972080493555</v>
       </c>
       <c r="E102" t="n">
         <v>0.2062962962962963</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01800598208713566</v>
+        <v>0.01805011749817531</v>
       </c>
       <c r="G102" t="n">
         <v>0.1075268817204301</v>
@@ -5079,19 +5079,19 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01201343686403966</v>
+        <v>0.01200659186344488</v>
       </c>
       <c r="C103" t="n">
-        <v>9.272256</v>
+        <v>9.265488</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01800598208713566</v>
+        <v>0.01805011749817531</v>
       </c>
       <c r="E103" t="n">
         <v>0.1075268817204301</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01427115179796878</v>
+        <v>0.01429046536702039</v>
       </c>
       <c r="G103" t="n">
         <v>0.09222222222222222</v>
@@ -5126,19 +5126,19 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0125191021907689</v>
+        <v>0.01250906947255093</v>
       </c>
       <c r="C104" t="n">
-        <v>9.124226999999999</v>
+        <v>9.112888999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01427115179796878</v>
+        <v>0.01429046536702039</v>
       </c>
       <c r="E104" t="n">
         <v>0.09222222222222222</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01201343686403966</v>
+        <v>0.01200659186344488</v>
       </c>
       <c r="G104" t="n">
         <v>0.09247311827956989</v>
@@ -5173,19 +5173,19 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01439135945599723</v>
+        <v>0.01438383231094953</v>
       </c>
       <c r="C105" t="n">
-        <v>9.090384999999999</v>
+        <v>9.082070999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01201343686403966</v>
+        <v>0.01200659186344488</v>
       </c>
       <c r="E105" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0125191021907689</v>
+        <v>0.01250906947255093</v>
       </c>
       <c r="G105" t="n">
         <v>0.1379928315412186</v>
@@ -5220,19 +5220,19 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01537274955920864</v>
+        <v>0.01536595577064492</v>
       </c>
       <c r="C106" t="n">
-        <v>9.019489999999999</v>
+        <v>9.014260999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0125191021907689</v>
+        <v>0.01250906947255093</v>
       </c>
       <c r="E106" t="n">
         <v>0.1379928315412186</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01439135945599723</v>
+        <v>0.01438383231094953</v>
       </c>
       <c r="G106" t="n">
         <v>0.1518518518518518</v>
@@ -5267,19 +5267,19 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01372380262037343</v>
+        <v>0.01371690490956645</v>
       </c>
       <c r="C107" t="n">
-        <v>8.922706</v>
+        <v>8.923859</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01439135945599723</v>
+        <v>0.01438383231094953</v>
       </c>
       <c r="E107" t="n">
         <v>0.1518518518518518</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01537274955920864</v>
+        <v>0.01536595577064492</v>
       </c>
       <c r="G107" t="n">
         <v>0.1935483870967742</v>
@@ -5314,19 +5314,19 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01557117466756353</v>
+        <v>0.01556405783806092</v>
       </c>
       <c r="C108" t="n">
-        <v>8.810824</v>
+        <v>8.813770999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01537274955920864</v>
+        <v>0.01536595577064492</v>
       </c>
       <c r="E108" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01372380262037343</v>
+        <v>0.01371690490956645</v>
       </c>
       <c r="G108" t="n">
         <v>0.1766666666666667</v>
@@ -5361,19 +5361,19 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01353810625380625</v>
+        <v>0.01353003533548236</v>
       </c>
       <c r="C109" t="n">
-        <v>8.745214000000001</v>
+        <v>8.750355000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01372380262037343</v>
+        <v>0.01371690490956645</v>
       </c>
       <c r="E109" t="n">
         <v>0.1766666666666667</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01557117466756353</v>
+        <v>0.01556405783806092</v>
       </c>
       <c r="G109" t="n">
         <v>0.2376344086021505</v>
@@ -5408,19 +5408,19 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01295192450458149</v>
+        <v>0.01298295484384493</v>
       </c>
       <c r="C110" t="n">
-        <v>8.717701</v>
+        <v>8.722479</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01557117466756353</v>
+        <v>0.01556405783806092</v>
       </c>
       <c r="E110" t="n">
         <v>0.2376344086021505</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01353810625380625</v>
+        <v>0.01353003533548236</v>
       </c>
       <c r="G110" t="n">
         <v>0.2261648745519713</v>
@@ -5455,19 +5455,19 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0112885916116765</v>
+        <v>0.01127699920204428</v>
       </c>
       <c r="C111" t="n">
-        <v>8.685691</v>
+        <v>8.69341</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01353810625380625</v>
+        <v>0.01353003533548236</v>
       </c>
       <c r="E111" t="n">
         <v>0.2261648745519713</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01295192450458149</v>
+        <v>0.01298295484384493</v>
       </c>
       <c r="G111" t="n">
         <v>0.2333333333333333</v>
@@ -5502,19 +5502,19 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01370496597207449</v>
+        <v>0.01369636421800191</v>
       </c>
       <c r="C112" t="n">
-        <v>8.599389</v>
+        <v>8.607544000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01295192450458149</v>
+        <v>0.01298295484384493</v>
       </c>
       <c r="E112" t="n">
         <v>0.2333333333333333</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0112885916116765</v>
+        <v>0.01127699920204428</v>
       </c>
       <c r="G112" t="n">
         <v>0.2064516129032258</v>
@@ -5549,19 +5549,19 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01321626882842697</v>
+        <v>0.01324113416720873</v>
       </c>
       <c r="C113" t="n">
-        <v>8.54196</v>
+        <v>8.543172999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0112885916116765</v>
+        <v>0.01127699920204428</v>
       </c>
       <c r="E113" t="n">
         <v>0.2064516129032258</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01370496597207449</v>
+        <v>0.01369636421800191</v>
       </c>
       <c r="G113" t="n">
         <v>0.1688888888888889</v>
@@ -5596,19 +5596,19 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01862828617833756</v>
+        <v>0.01863522663584494</v>
       </c>
       <c r="C114" t="n">
-        <v>8.446982999999999</v>
+        <v>8.446137</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01370496597207449</v>
+        <v>0.01369636421800191</v>
       </c>
       <c r="E114" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01321626882842697</v>
+        <v>0.01324113416720873</v>
       </c>
       <c r="G114" t="n">
         <v>0.1523297491039426</v>
@@ -5643,19 +5643,19 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01995454925121631</v>
+        <v>0.01994907148414615</v>
       </c>
       <c r="C115" t="n">
-        <v>8.303444000000001</v>
+        <v>8.296453</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01321626882842697</v>
+        <v>0.01324113416720873</v>
       </c>
       <c r="E115" t="n">
         <v>0.1523297491039426</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01862828617833756</v>
+        <v>0.01863522663584494</v>
       </c>
       <c r="G115" t="n">
         <v>0.1503703703703704</v>
@@ -5690,19 +5690,19 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02095169272832376</v>
+        <v>0.02094443597803952</v>
       </c>
       <c r="C116" t="n">
-        <v>8.237215000000001</v>
+        <v>8.226794999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01862828617833756</v>
+        <v>0.01863522663584494</v>
       </c>
       <c r="E116" t="n">
         <v>0.1503703703703704</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01995454925121631</v>
+        <v>0.01994907148414615</v>
       </c>
       <c r="G116" t="n">
         <v>0.2584229390681004</v>
@@ -5737,19 +5737,19 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02017603015076919</v>
+        <v>0.02016976926965075</v>
       </c>
       <c r="C117" t="n">
-        <v>8.102544</v>
+        <v>8.095818</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01995454925121631</v>
+        <v>0.01994907148414615</v>
       </c>
       <c r="E117" t="n">
         <v>0.2584229390681004</v>
       </c>
       <c r="F117" t="n">
-        <v>0.02095169272832376</v>
+        <v>0.02094443597803952</v>
       </c>
       <c r="G117" t="n">
         <v>0.2853046594982079</v>
@@ -5784,19 +5784,19 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077574158011952</v>
+        <v>0.02077009333241442</v>
       </c>
       <c r="C118" t="n">
-        <v>8.040315</v>
+        <v>8.035240999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02095169272832376</v>
+        <v>0.02094443597803952</v>
       </c>
       <c r="E118" t="n">
         <v>0.2853046594982079</v>
       </c>
       <c r="F118" t="n">
-        <v>0.02017603015076919</v>
+        <v>0.02016976926965075</v>
       </c>
       <c r="G118" t="n">
         <v>0.3266666666666667</v>
@@ -5831,19 +5831,19 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02255218592298114</v>
+        <v>0.02254825679416417</v>
       </c>
       <c r="C119" t="n">
-        <v>8.009434000000001</v>
+        <v>8.011447</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02017603015076919</v>
+        <v>0.02016976926965075</v>
       </c>
       <c r="E119" t="n">
         <v>0.3266666666666667</v>
       </c>
       <c r="F119" t="n">
-        <v>0.02077574158011952</v>
+        <v>0.02077009333241442</v>
       </c>
       <c r="G119" t="n">
         <v>0.2505376344086022</v>
@@ -5878,19 +5878,19 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01949001732551991</v>
+        <v>0.01948680418399196</v>
       </c>
       <c r="C120" t="n">
-        <v>8.019835</v>
+        <v>8.021515000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077574158011952</v>
+        <v>0.02077009333241442</v>
       </c>
       <c r="E120" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02255218592298114</v>
+        <v>0.02254825679416417</v>
       </c>
       <c r="G120" t="n">
         <v>0.1974074074074074</v>
@@ -5925,19 +5925,19 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.015491276284191</v>
+        <v>0.01548714160076248</v>
       </c>
       <c r="C121" t="n">
-        <v>7.937762</v>
+        <v>7.941965</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02255218592298114</v>
+        <v>0.02254825679416417</v>
       </c>
       <c r="E121" t="n">
         <v>0.1974074074074074</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01949001732551991</v>
+        <v>0.01948680418399196</v>
       </c>
       <c r="G121" t="n">
         <v>0.1017921146953405</v>
@@ -5972,19 +5972,19 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01245769948499476</v>
+        <v>0.01249564611161791</v>
       </c>
       <c r="C122" t="n">
-        <v>7.866841</v>
+        <v>7.872282</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01949001732551991</v>
+        <v>0.01948680418399196</v>
       </c>
       <c r="E122" t="n">
         <v>0.1017921146953405</v>
       </c>
       <c r="F122" t="n">
-        <v>0.015491276284191</v>
+        <v>0.01548714160076248</v>
       </c>
       <c r="G122" t="n">
         <v>0.07813620071684588</v>
@@ -6019,19 +6019,19 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01376313116019379</v>
+        <v>0.01376207554080366</v>
       </c>
       <c r="C123" t="n">
-        <v>7.854131</v>
+        <v>7.860552</v>
       </c>
       <c r="D123" t="n">
-        <v>0.015491276284191</v>
+        <v>0.01548714160076248</v>
       </c>
       <c r="E123" t="n">
         <v>0.07813620071684588</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01245769948499476</v>
+        <v>0.01249564611161791</v>
       </c>
       <c r="G123" t="n">
         <v>0.08293650793650795</v>
@@ -6055,10 +6055,10 @@
         <v>0.2584229390681004</v>
       </c>
       <c r="N123" t="n">
-        <v>0.01243418765229754</v>
+        <v>0.01247130273081478</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0126637954155684</v>
+        <v>0.01270029591523783</v>
       </c>
     </row>
     <row r="124">
@@ -6066,19 +6066,19 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430399020931183</v>
+        <v>0.01430937058090898</v>
       </c>
       <c r="C124" t="n">
-        <v>7.820494</v>
+        <v>7.829241</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01245769948499476</v>
+        <v>0.01249564611161791</v>
       </c>
       <c r="E124" t="n">
         <v>0.08293650793650795</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01376313116019379</v>
+        <v>0.01376207554080366</v>
       </c>
       <c r="G124" t="n">
         <v>0.09247311827956989</v>
@@ -6102,10 +6102,10 @@
         <v>0.2853046594982079</v>
       </c>
       <c r="N124" t="n">
-        <v>0.01371112505890771</v>
+        <v>0.01371011478072068</v>
       </c>
       <c r="O124" t="n">
-        <v>0.01392709632506909</v>
+        <v>0.0139259400414703</v>
       </c>
     </row>
     <row r="125">
@@ -6113,19 +6113,19 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0160695909878763</v>
+        <v>0.01603435940740283</v>
       </c>
       <c r="C125" t="n">
-        <v>7.740624</v>
+        <v>7.742081</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01376313116019379</v>
+        <v>0.01376207554080366</v>
       </c>
       <c r="E125" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01430399020931183</v>
+        <v>0.01430937058090898</v>
       </c>
       <c r="G125" t="n">
         <v>0.122962962962963</v>
@@ -6149,10 +6149,10 @@
         <v>0.3266666666666667</v>
       </c>
       <c r="N125" t="n">
-        <v>0.01424060757605192</v>
+        <v>0.01424589841564119</v>
       </c>
       <c r="O125" t="n">
-        <v>0.01445806885427023</v>
+        <v>0.01446309199441914</v>
       </c>
     </row>
     <row r="126">
@@ -6160,19 +6160,19 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0127130569639462</v>
+        <v>0.0127180209856812</v>
       </c>
       <c r="C126" t="n">
-        <v>7.72632</v>
+        <v>7.726555</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430399020931183</v>
+        <v>0.01430937058090898</v>
       </c>
       <c r="E126" t="n">
         <v>0.122962962962963</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0160695909878763</v>
+        <v>0.01603435940740283</v>
       </c>
       <c r="G126" t="n">
         <v>0.1344086021505376</v>
@@ -6196,10 +6196,10 @@
         <v>0.2505376344086022</v>
       </c>
       <c r="N126" t="n">
-        <v>0.01596888023404882</v>
+        <v>0.01593444307625121</v>
       </c>
       <c r="O126" t="n">
-        <v>0.01619689100729755</v>
+        <v>0.01616255369419533</v>
       </c>
     </row>
     <row r="127">
@@ -6207,19 +6207,19 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01207063090450244</v>
+        <v>0.01207273845284007</v>
       </c>
       <c r="C127" t="n">
-        <v>7.619004</v>
+        <v>7.613996</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0160695909878763</v>
+        <v>0.01603435940740283</v>
       </c>
       <c r="E127" t="n">
         <v>0.1344086021505376</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0127130569639462</v>
+        <v>0.0127180209856812</v>
       </c>
       <c r="G127" t="n">
         <v>0.1455555555555555</v>
@@ -6243,10 +6243,10 @@
         <v>0.1974074074074074</v>
       </c>
       <c r="N127" t="n">
-        <v>0.01268617243114553</v>
+        <v>0.012691028353673</v>
       </c>
       <c r="O127" t="n">
-        <v>0.01295730762197809</v>
+        <v>0.01296176794187365</v>
       </c>
     </row>
     <row r="128">
@@ -6254,19 +6254,19 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01106484952745301</v>
+        <v>0.01106207614710364</v>
       </c>
       <c r="C128" t="n">
-        <v>7.533237</v>
+        <v>7.52625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0127130569639462</v>
+        <v>0.0127180209856812</v>
       </c>
       <c r="E128" t="n">
         <v>0.1455555555555555</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01207063090450244</v>
+        <v>0.01207273845284007</v>
       </c>
       <c r="G128" t="n">
         <v>0.1290322580645161</v>
@@ -6290,10 +6290,10 @@
         <v>0.1017921146953405</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01205870037478623</v>
+        <v>0.0120607475775402</v>
       </c>
       <c r="O128" t="n">
-        <v>0.01234059246489387</v>
+        <v>0.01234223410260389</v>
       </c>
     </row>
     <row r="129">
@@ -6301,19 +6301,19 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0108833531911019</v>
+        <v>0.01088253835172459</v>
       </c>
       <c r="C129" t="n">
-        <v>7.5293</v>
+        <v>7.523045</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01207063090450244</v>
+        <v>0.01207273845284007</v>
       </c>
       <c r="E129" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01106484952745301</v>
+        <v>0.01106207614710364</v>
       </c>
       <c r="G129" t="n">
         <v>0.0989247311827957</v>
@@ -6337,10 +6337,10 @@
         <v>0.07813620071684588</v>
       </c>
       <c r="N129" t="n">
-        <v>0.01107608408013395</v>
+        <v>0.01107333386860614</v>
       </c>
       <c r="O129" t="n">
-        <v>0.01097085988678029</v>
+        <v>0.01096820269585831</v>
       </c>
     </row>
     <row r="130">
@@ -6348,19 +6348,19 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008994312771748447</v>
+        <v>0.008995436773213683</v>
       </c>
       <c r="C130" t="n">
-        <v>7.458862</v>
+        <v>7.45696</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01106484952745301</v>
+        <v>0.01106207614710364</v>
       </c>
       <c r="E130" t="n">
         <v>0.0989247311827957</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0108833531911019</v>
+        <v>0.01088253835172459</v>
       </c>
       <c r="G130" t="n">
         <v>0.112962962962963</v>
@@ -6384,10 +6384,10 @@
         <v>0.08293650793650795</v>
       </c>
       <c r="N130" t="n">
-        <v>0.01089863287589103</v>
+        <v>0.01089779110916048</v>
       </c>
       <c r="O130" t="n">
-        <v>0.01081070317880481</v>
+        <v>0.01080998446697466</v>
       </c>
     </row>
     <row r="131">
@@ -6395,19 +6395,19 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007940580361059268</v>
+        <v>0.007940149818513653</v>
       </c>
       <c r="C131" t="n">
-        <v>7.458301</v>
+        <v>7.461843</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0108833531911019</v>
+        <v>0.01088253835172459</v>
       </c>
       <c r="E131" t="n">
         <v>0.112962962962963</v>
       </c>
       <c r="F131" t="n">
-        <v>0.008994312771748447</v>
+        <v>0.008995436773213683</v>
       </c>
       <c r="G131" t="n">
         <v>0.0910394265232975</v>
@@ -6431,10 +6431,10 @@
         <v>0.09247311827956989</v>
       </c>
       <c r="N131" t="n">
-        <v>0.009051963169883165</v>
+        <v>0.009052962639998729</v>
       </c>
       <c r="O131" t="n">
-        <v>0.008911100830675096</v>
+        <v>0.008912073536788806</v>
       </c>
     </row>
     <row r="132">
@@ -6442,19 +6442,19 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.009003116001547795</v>
+        <v>0.009000729005097519</v>
       </c>
       <c r="C132" t="n">
-        <v>7.428826</v>
+        <v>7.432551</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008994312771748447</v>
+        <v>0.008995436773213683</v>
       </c>
       <c r="E132" t="n">
         <v>0.0910394265232975</v>
       </c>
       <c r="F132" t="n">
-        <v>0.007940580361059268</v>
+        <v>0.007940149818513653</v>
       </c>
       <c r="G132" t="n">
         <v>0.1081481481481481</v>
@@ -6478,10 +6478,10 @@
         <v>0.122962962962963</v>
       </c>
       <c r="N132" t="n">
-        <v>0.008020133023488068</v>
+        <v>0.008019582430685054</v>
       </c>
       <c r="O132" t="n">
-        <v>0.008312117280935361</v>
+        <v>0.008311752456141415</v>
       </c>
     </row>
     <row r="133">
@@ -6489,19 +6489,19 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01335891261423683</v>
+        <v>0.01335484040927692</v>
       </c>
       <c r="C133" t="n">
-        <v>7.475206</v>
+        <v>7.479107</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007940580361059268</v>
+        <v>0.007940149818513653</v>
       </c>
       <c r="E133" t="n">
         <v>0.1081481481481481</v>
       </c>
       <c r="F133" t="n">
-        <v>0.009003116001547795</v>
+        <v>0.009000729005097519</v>
       </c>
       <c r="G133" t="n">
         <v>0.1082437275985663</v>
@@ -6525,10 +6525,10 @@
         <v>0.1344086021505376</v>
       </c>
       <c r="N133" t="n">
-        <v>0.009059617159219964</v>
+        <v>0.009057184141888792</v>
       </c>
       <c r="O133" t="n">
-        <v>0.009657495111003332</v>
+        <v>0.009656312567801752</v>
       </c>
     </row>
     <row r="134">
@@ -6536,19 +6536,19 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01340935948840549</v>
+        <v>0.01344409325912999</v>
       </c>
       <c r="C134" t="n">
-        <v>7.480154</v>
+        <v>7.481005</v>
       </c>
       <c r="D134" t="n">
-        <v>0.009003116001547795</v>
+        <v>0.009000729005097519</v>
       </c>
       <c r="E134" t="n">
         <v>0.1082437275985663</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01335891261423683</v>
+        <v>0.01335484040927692</v>
       </c>
       <c r="G134" t="n">
         <v>0.1275985663082437</v>
@@ -6572,10 +6572,10 @@
         <v>0.1455555555555555</v>
       </c>
       <c r="N134" t="n">
-        <v>0.01331361257011012</v>
+        <v>0.01330966731734908</v>
       </c>
       <c r="O134" t="n">
-        <v>0.01338716133716604</v>
+        <v>0.01343788420863973</v>
       </c>
     </row>
     <row r="135">
@@ -6583,19 +6583,19 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01212252649207279</v>
+        <v>0.01211576420607674</v>
       </c>
       <c r="C135" t="n">
-        <v>7.483654</v>
+        <v>7.482006</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01335891261423683</v>
+        <v>0.01335484040927692</v>
       </c>
       <c r="E135" t="n">
         <v>0.1275985663082437</v>
       </c>
       <c r="F135" t="n">
-        <v>0.01340935948840549</v>
+        <v>0.01344409325912999</v>
       </c>
       <c r="G135" t="n">
         <v>0.09578544061302682</v>
@@ -6619,10 +6619,10 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0133631746534248</v>
+        <v>0.01339709195714573</v>
       </c>
       <c r="O135" t="n">
-        <v>0.01333512111886046</v>
+        <v>0.01336965367352509</v>
       </c>
     </row>
     <row r="136">
@@ -6630,19 +6630,19 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007829928015126164</v>
+        <v>0.007848377597731826</v>
       </c>
       <c r="C136" t="n">
-        <v>7.332305</v>
+        <v>7.327844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01340935948840549</v>
+        <v>0.01344409325912999</v>
       </c>
       <c r="E136" t="n">
         <v>0.09578544061302682</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01212252649207279</v>
+        <v>0.01211576420607674</v>
       </c>
       <c r="G136" t="n">
         <v>0.06057347670250896</v>
@@ -6666,10 +6666,10 @@
         <v>0.0989247311827957</v>
       </c>
       <c r="N136" t="n">
-        <v>0.01210823833795536</v>
+        <v>0.01210164261489292</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0120684318233371</v>
+        <v>0.01206182062424969</v>
       </c>
     </row>
     <row r="137">
@@ -6677,19 +6677,19 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003166512770859775</v>
+        <v>0.003120254707912551</v>
       </c>
       <c r="C137" t="n">
-        <v>7.190655</v>
+        <v>7.182479</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01212252649207279</v>
+        <v>0.01211576420607674</v>
       </c>
       <c r="E137" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="F137" t="n">
-        <v>0.007829928015126164</v>
+        <v>0.007848377597731826</v>
       </c>
       <c r="G137" t="n">
         <v>-0.01222222222222222</v>
@@ -6713,10 +6713,10 @@
         <v>0.112962962962963</v>
       </c>
       <c r="N137" t="n">
-        <v>0.00792092366815548</v>
+        <v>0.007938806055785888</v>
       </c>
       <c r="O137" t="n">
-        <v>0.007812561439434675</v>
+        <v>0.007830935695007653</v>
       </c>
     </row>
     <row r="138">
@@ -6724,19 +6724,19 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006325175486852075</v>
+        <v>0.0006244630145619823</v>
       </c>
       <c r="C138" t="n">
-        <v>7.380897</v>
+        <v>7.376592</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007829928015126164</v>
+        <v>0.007848377597731826</v>
       </c>
       <c r="E138" t="n">
         <v>-0.01222222222222222</v>
       </c>
       <c r="F138" t="n">
-        <v>0.003166512770859775</v>
+        <v>0.003120254707912551</v>
       </c>
       <c r="G138" t="n">
         <v>0.01935483870967742</v>
@@ -6760,10 +6760,10 @@
         <v>0.0910394265232975</v>
       </c>
       <c r="N138" t="n">
-        <v>0.003352321344200273</v>
+        <v>0.003306685449792643</v>
       </c>
       <c r="O138" t="n">
-        <v>0.003181677353809809</v>
+        <v>0.003135371244325758</v>
       </c>
     </row>
     <row r="139">
@@ -6771,19 +6771,19 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002495230603931198</v>
+        <v>0.002494219821453925</v>
       </c>
       <c r="C139" t="n">
-        <v>7.619268</v>
+        <v>7.617445</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003166512770859775</v>
+        <v>0.003120254707912551</v>
       </c>
       <c r="E139" t="n">
         <v>0.01935483870967742</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0006325175486852075</v>
+        <v>0.0006244630145619823</v>
       </c>
       <c r="G139" t="n">
         <v>0.07518518518518519</v>
@@ -6807,10 +6807,10 @@
         <v>0.1081481481481481</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0008467457229268483</v>
+        <v>0.0008385561654276448</v>
       </c>
       <c r="O139" t="n">
-        <v>0.001784239320552509</v>
+        <v>0.001777581573923202</v>
       </c>
     </row>
     <row r="140">
@@ -6818,19 +6818,19 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003137615600383725</v>
+        <v>0.00317489856784281</v>
       </c>
       <c r="C140" t="n">
-        <v>8.070249</v>
+        <v>8.068472999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006325175486852075</v>
+        <v>0.0006244630145619823</v>
       </c>
       <c r="E140" t="n">
         <v>0.07518518518518519</v>
       </c>
       <c r="F140" t="n">
-        <v>0.002495230603931198</v>
+        <v>0.002494219821453925</v>
       </c>
       <c r="G140" t="n">
         <v>0.2014336917562724</v>
@@ -6854,10 +6854,10 @@
         <v>0.1082437275985663</v>
       </c>
       <c r="N140" t="n">
-        <v>0.002687443358208633</v>
+        <v>0.002686291735476733</v>
       </c>
       <c r="O140" t="n">
-        <v>0.003115571692658886</v>
+        <v>0.003186266889100962</v>
       </c>
     </row>
     <row r="141">
@@ -6865,19 +6865,19 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002192096031040869</v>
+        <v>-0.002195792578748801</v>
       </c>
       <c r="C141" t="n">
-        <v>8.474546</v>
+        <v>8.474776</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002495230603931198</v>
+        <v>0.002494219821453925</v>
       </c>
       <c r="E141" t="n">
         <v>0.2014336917562724</v>
       </c>
       <c r="F141" t="n">
-        <v>0.003137615600383725</v>
+        <v>0.00317489856784281</v>
       </c>
       <c r="G141" t="n">
         <v>0.185663082437276</v>
@@ -6901,10 +6901,10 @@
         <v>0.1275985663082437</v>
       </c>
       <c r="N141" t="n">
-        <v>0.003317872436259941</v>
+        <v>0.003354474032240106</v>
       </c>
       <c r="O141" t="n">
-        <v>0.003129833019676076</v>
+        <v>0.003167466232071882</v>
       </c>
     </row>
     <row r="142">
@@ -6912,19 +6912,19 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003060847261807886</v>
+        <v>-0.003063035642284717</v>
       </c>
       <c r="C142" t="n">
-        <v>8.614315</v>
+        <v>8.617470000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003137615600383725</v>
+        <v>0.00317489856784281</v>
       </c>
       <c r="E142" t="n">
         <v>0.185663082437276</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.002192096031040869</v>
+        <v>-0.002195792578748801</v>
       </c>
       <c r="G142" t="n">
         <v>0.1507407407407407</v>
@@ -6948,10 +6948,10 @@
         <v>0.09578544061302682</v>
       </c>
       <c r="N142" t="n">
-        <v>-0.001957448576444802</v>
+        <v>-0.001961027027240988</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.002279644395834373</v>
+        <v>-0.002282960208701548</v>
       </c>
     </row>
     <row r="143">
@@ -6959,19 +6959,19 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002624768241525466</v>
+        <v>-0.002624942771141114</v>
       </c>
       <c r="C143" t="n">
-        <v>8.563420000000001</v>
+        <v>8.572729000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002192096031040869</v>
+        <v>-0.002195792578748801</v>
       </c>
       <c r="E143" t="n">
         <v>0.1507407407407407</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.003060847261807886</v>
+        <v>-0.003063035642284717</v>
       </c>
       <c r="G143" t="n">
         <v>0.1444444444444445</v>
@@ -6995,10 +6995,10 @@
         <v>0.06057347670250896</v>
       </c>
       <c r="N143" t="n">
-        <v>-0.002833254167564018</v>
+        <v>-0.002835332700071475</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.002629726918146703</v>
+        <v>-0.002617672073372811</v>
       </c>
     </row>
     <row r="144">
@@ -7006,19 +7006,19 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.00245783144904177</v>
+        <v>-0.002458102497597814</v>
       </c>
       <c r="C144" t="n">
-        <v>8.374573</v>
+        <v>8.385078</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003060847261807886</v>
+        <v>-0.003063035642284717</v>
       </c>
       <c r="E144" t="n">
         <v>0.1444444444444445</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.002624768241525466</v>
+        <v>-0.002624942771141114</v>
       </c>
       <c r="G144" t="n">
         <v>0.1655555555555556</v>
@@ -7042,10 +7042,10 @@
         <v>-0.01222222222222222</v>
       </c>
       <c r="N144" t="n">
-        <v>-0.002402112175040957</v>
+        <v>-0.002402176298052839</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.002482132538893141</v>
+        <v>-0.002482032443670887</v>
       </c>
     </row>
     <row r="145">
@@ -7053,19 +7053,19 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.002569154465298595</v>
+        <v>-0.002567433050440826</v>
       </c>
       <c r="C145" t="n">
-        <v>8.193674</v>
+        <v>8.202026999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002624768241525466</v>
+        <v>-0.002624942771141114</v>
       </c>
       <c r="E145" t="n">
         <v>0.1655555555555556</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.00245783144904177</v>
+        <v>-0.002458102497597814</v>
       </c>
       <c r="G145" t="n">
         <v>0.1655913978494624</v>
@@ -7089,10 +7089,10 @@
         <v>0.01935483870967742</v>
       </c>
       <c r="N145" t="n">
-        <v>-0.002240570118867361</v>
+        <v>-0.002240734789871916</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.002574273597159127</v>
+        <v>-0.002574101795469161</v>
       </c>
     </row>
     <row r="146">
@@ -7100,19 +7100,19 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007329059357942036</v>
+        <v>0.007320775349302977</v>
       </c>
       <c r="C146" t="n">
-        <v>8.201620999999999</v>
+        <v>8.206045</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.00245783144904177</v>
+        <v>-0.002458102497597814</v>
       </c>
       <c r="E146" t="n">
         <v>0.1655913978494624</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.002569154465298595</v>
+        <v>-0.002567433050440826</v>
       </c>
       <c r="G146" t="n">
         <v>0.1577060931899641</v>
@@ -7136,10 +7136,10 @@
         <v>0.07518518518518519</v>
       </c>
       <c r="N146" t="n">
-        <v>-0.002357121599133511</v>
+        <v>-0.002355295155041034</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.001836097584923157</v>
+        <v>-0.001833294405705952</v>
       </c>
     </row>
     <row r="147">
@@ -7147,19 +7147,19 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007836910682607723</v>
+        <v>0.007846414323045892</v>
       </c>
       <c r="C147" t="n">
-        <v>8.252316</v>
+        <v>8.252783000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002569154465298595</v>
+        <v>-0.002567433050440826</v>
       </c>
       <c r="E147" t="n">
         <v>0.1577060931899641</v>
       </c>
       <c r="F147" t="n">
-        <v>0.007329059357942036</v>
+        <v>0.007320775349302977</v>
       </c>
       <c r="G147" t="n">
         <v>0.2051587301587302</v>
@@ -7183,10 +7183,10 @@
         <v>0.2014336917562724</v>
       </c>
       <c r="N147" t="n">
-        <v>0.007423313974937474</v>
+        <v>0.007415252130560326</v>
       </c>
       <c r="O147" t="n">
-        <v>0.007874367755554461</v>
+        <v>0.007866622744035904</v>
       </c>
     </row>
     <row r="148">
@@ -7194,19 +7194,19 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01258312533820405</v>
+        <v>0.0125982536790703</v>
       </c>
       <c r="C148" t="n">
-        <v>8.257250000000001</v>
+        <v>8.252224</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007329059357942036</v>
+        <v>0.007320775349302977</v>
       </c>
       <c r="E148" t="n">
         <v>0.2051587301587302</v>
       </c>
       <c r="F148" t="n">
-        <v>0.007836910682607723</v>
+        <v>0.007846414323045892</v>
       </c>
       <c r="G148" t="n">
         <v>0.2275985663082437</v>
@@ -7230,10 +7230,10 @@
         <v>0.185663082437276</v>
       </c>
       <c r="N148" t="n">
-        <v>0.007916775465484747</v>
+        <v>0.007926024212084938</v>
       </c>
       <c r="O148" t="n">
-        <v>0.008490072375530086</v>
+        <v>0.008500178203355937</v>
       </c>
     </row>
     <row r="149">
@@ -7241,19 +7241,19 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01586510945573494</v>
+        <v>0.01579627494328761</v>
       </c>
       <c r="C149" t="n">
-        <v>8.222293000000001</v>
+        <v>8.213331999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007836910682607723</v>
+        <v>0.007846414323045892</v>
       </c>
       <c r="E149" t="n">
         <v>0.2275985663082437</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01258312533820405</v>
+        <v>0.0125982536790703</v>
       </c>
       <c r="G149" t="n">
         <v>0.2496296296296296</v>
@@ -7277,10 +7277,10 @@
         <v>0.1507407407407407</v>
       </c>
       <c r="N149" t="n">
-        <v>0.01252647912280021</v>
+        <v>0.01254116266437935</v>
       </c>
       <c r="O149" t="n">
-        <v>0.01313809771937674</v>
+        <v>0.01315415956801576</v>
       </c>
     </row>
     <row r="150">
@@ -7288,19 +7288,19 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01937365187359674</v>
+        <v>0.01934906667378034</v>
       </c>
       <c r="C150" t="n">
-        <v>8.270562999999999</v>
+        <v>8.265986</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01258312533820405</v>
+        <v>0.0125982536790703</v>
       </c>
       <c r="E150" t="n">
         <v>0.2496296296296296</v>
       </c>
       <c r="F150" t="n">
-        <v>0.01586510945573494</v>
+        <v>0.01579627494328761</v>
       </c>
       <c r="G150" t="n">
         <v>0.2663082437275986</v>
@@ -7324,10 +7324,10 @@
         <v>0.1444444444444445</v>
       </c>
       <c r="N150" t="n">
-        <v>0.01571209788946202</v>
+        <v>0.01564529312180015</v>
       </c>
       <c r="O150" t="n">
-        <v>0.01647644037448067</v>
+        <v>0.01641163811266021</v>
       </c>
     </row>
     <row r="151">
@@ -7335,19 +7335,19 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01989160503323539</v>
+        <v>0.01989275027790871</v>
       </c>
       <c r="C151" t="n">
-        <v>8.091683</v>
+        <v>8.088763999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01586510945573494</v>
+        <v>0.01579627494328761</v>
       </c>
       <c r="E151" t="n">
         <v>0.2663082437275986</v>
       </c>
       <c r="F151" t="n">
-        <v>0.01937365187359674</v>
+        <v>0.01934906667378034</v>
       </c>
       <c r="G151" t="n">
         <v>0.3296296296296297</v>
@@ -7371,10 +7371,10 @@
         <v>0.1655555555555556</v>
       </c>
       <c r="N151" t="n">
-        <v>0.01912771989085848</v>
+        <v>0.01910374946349831</v>
       </c>
       <c r="O151" t="n">
-        <v>0.01987134333800329</v>
+        <v>0.01984850390640815</v>
       </c>
     </row>
     <row r="152">
@@ -7382,19 +7382,19 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02357856414720771</v>
+        <v>0.02361169484991699</v>
       </c>
       <c r="C152" t="n">
-        <v>7.883594</v>
+        <v>7.879927</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01937365187359674</v>
+        <v>0.01934906667378034</v>
       </c>
       <c r="E152" t="n">
         <v>0.3296296296296297</v>
       </c>
       <c r="F152" t="n">
-        <v>0.01989160503323539</v>
+        <v>0.01989275027790871</v>
       </c>
       <c r="G152" t="n">
         <v>0.3612903225806451</v>
@@ -7418,10 +7418,10 @@
         <v>0.1655913978494624</v>
       </c>
       <c r="N152" t="n">
-        <v>0.01963658263474006</v>
+        <v>0.01963772189638547</v>
       </c>
       <c r="O152" t="n">
-        <v>0.02063845508745945</v>
+        <v>0.02064255232690239</v>
       </c>
     </row>
     <row r="153">
@@ -7429,19 +7429,19 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03119951069377702</v>
+        <v>0.0311989153773311</v>
       </c>
       <c r="C153" t="n">
-        <v>7.680876</v>
+        <v>7.674218</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01989160503323539</v>
+        <v>0.01989275027790871</v>
       </c>
       <c r="E153" t="n">
         <v>0.3612903225806451</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02357856414720771</v>
+        <v>0.02361169484991699</v>
       </c>
       <c r="G153" t="n">
         <v>0.5200716845878136</v>
@@ -7465,10 +7465,10 @@
         <v>0.1577060931899641</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02325335174405551</v>
+        <v>0.02328594999651282</v>
       </c>
       <c r="O153" t="n">
-        <v>0.02456450058853045</v>
+        <v>0.02460188882967247</v>
       </c>
     </row>
     <row r="154">
@@ -7476,19 +7476,19 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0341698169523692</v>
+        <v>0.03416873403698784</v>
       </c>
       <c r="C154" t="n">
-        <v>7.562988</v>
+        <v>7.561752</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02357856414720771</v>
+        <v>0.02361169484991699</v>
       </c>
       <c r="E154" t="n">
         <v>0.5200716845878136</v>
       </c>
       <c r="F154" t="n">
-        <v>0.03119951069377702</v>
+        <v>0.0311989153773311</v>
       </c>
       <c r="G154" t="n">
         <v>0.7100000000000001</v>
@@ -7512,10 +7512,10 @@
         <v>0.2051587301587302</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03082954297411723</v>
+        <v>0.03082927714349029</v>
       </c>
       <c r="O154" t="n">
-        <v>0.03395090695842015</v>
+        <v>0.03395732007588908</v>
       </c>
     </row>
     <row r="155">
@@ -7523,19 +7523,19 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04053964806802846</v>
+        <v>0.04054057773481556</v>
       </c>
       <c r="C155" t="n">
-        <v>7.398974</v>
+        <v>7.401293</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03119951069377702</v>
+        <v>0.0311989153773311</v>
       </c>
       <c r="E155" t="n">
         <v>0.7100000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0341698169523692</v>
+        <v>0.03416873403698784</v>
       </c>
       <c r="G155" t="n">
         <v>1.146594982078853</v>
@@ -7559,10 +7559,10 @@
         <v>0.2275985663082437</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03386127592966872</v>
+        <v>0.03386054674309063</v>
       </c>
       <c r="O155" t="n">
-        <v>0.03927330121269219</v>
+        <v>0.03928219379988844</v>
       </c>
     </row>
     <row r="156">
@@ -7570,19 +7570,19 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04672694788144316</v>
+        <v>0.04672663886514439</v>
       </c>
       <c r="C156" t="n">
-        <v>7.256813</v>
+        <v>7.263537</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0341698169523692</v>
+        <v>0.03416873403698784</v>
       </c>
       <c r="E156" t="n">
         <v>1.146594982078853</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04053964806802846</v>
+        <v>0.04054057773481556</v>
       </c>
       <c r="G156" t="n">
         <v>1.172592592592593</v>
@@ -7606,10 +7606,10 @@
         <v>0.2496296296296296</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04046779037066212</v>
+        <v>0.04046923052350168</v>
       </c>
       <c r="O156" t="n">
-        <v>0.04685781882635481</v>
+        <v>0.04686354525033304</v>
       </c>
     </row>
     <row r="157">
@@ -7617,19 +7617,19 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04884879903129136</v>
+        <v>0.04884440923656541</v>
       </c>
       <c r="C157" t="n">
-        <v>7.122679</v>
+        <v>7.127014</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04053964806802846</v>
+        <v>0.04054057773481556</v>
       </c>
       <c r="E157" t="n">
         <v>1.172592592592593</v>
       </c>
       <c r="F157" t="n">
-        <v>0.04672694788144316</v>
+        <v>0.04672663886514439</v>
       </c>
       <c r="G157" t="n">
         <v>1.312186379928315</v>
@@ -7653,10 +7653,10 @@
         <v>0.2663082437275986</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04707813484647074</v>
+        <v>0.04707835038242654</v>
       </c>
       <c r="O157" t="n">
-        <v>0.04888716962575256</v>
+        <v>0.04888882490179943</v>
       </c>
     </row>
     <row r="158">
@@ -7664,19 +7664,19 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04965147944945869</v>
+        <v>0.04964214098618402</v>
       </c>
       <c r="C158" t="n">
-        <v>7.017993</v>
+        <v>7.023834</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04672694788144316</v>
+        <v>0.04672663886514439</v>
       </c>
       <c r="E158" t="n">
         <v>1.312186379928315</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04884879903129136</v>
+        <v>0.04884440923656541</v>
       </c>
       <c r="G158" t="n">
         <v>1.216487455197133</v>
@@ -7700,10 +7700,10 @@
         <v>0.3296296296296297</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04936516278137414</v>
+        <v>0.04936089233915267</v>
       </c>
       <c r="O158" t="n">
-        <v>0.05126086433519245</v>
+        <v>0.05125557261315128</v>
       </c>
     </row>
     <row r="159">
@@ -7711,19 +7711,19 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05658997781504027</v>
+        <v>0.05660157121463527</v>
       </c>
       <c r="C159" t="n">
-        <v>6.91067</v>
+        <v>6.913776</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04884879903129136</v>
+        <v>0.04884440923656541</v>
       </c>
       <c r="E159" t="n">
         <v>1.216487455197133</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04965147944945869</v>
+        <v>0.04964214098618402</v>
       </c>
       <c r="G159" t="n">
         <v>1.365873015873016</v>
@@ -7747,10 +7747,10 @@
         <v>0.3612903225806451</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05019942210916543</v>
+        <v>0.0501897177557188</v>
       </c>
       <c r="O159" t="n">
-        <v>0.05429831670259656</v>
+        <v>0.05428631303998135</v>
       </c>
     </row>
     <row r="160">
@@ -7758,19 +7758,19 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07203691679926738</v>
+        <v>0.07205139697127372</v>
       </c>
       <c r="C160" t="n">
-        <v>6.842086</v>
+        <v>6.842598</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04965147944945869</v>
+        <v>0.04964214098618402</v>
       </c>
       <c r="E160" t="n">
         <v>1.365873015873016</v>
       </c>
       <c r="F160" t="n">
-        <v>0.05658997781504027</v>
+        <v>0.05660157121463527</v>
       </c>
       <c r="G160" t="n">
         <v>1.363440860215054</v>
@@ -7794,10 +7794,10 @@
         <v>0.5200716845878136</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05781170408545452</v>
+        <v>0.0578251705969334</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06226581270030367</v>
+        <v>0.06228044713833134</v>
       </c>
     </row>
     <row r="161">
@@ -7805,19 +7805,19 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07199533395819291</v>
+        <v>0.07197758896617756</v>
       </c>
       <c r="C161" t="n">
-        <v>6.828388</v>
+        <v>6.821777</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05658997781504027</v>
+        <v>0.05660157121463527</v>
       </c>
       <c r="E161" t="n">
         <v>1.363440860215054</v>
       </c>
       <c r="F161" t="n">
-        <v>0.07203691679926738</v>
+        <v>0.07205139697127372</v>
       </c>
       <c r="G161" t="n">
         <v>1.36</v>
@@ -7841,10 +7841,10 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07551982888294827</v>
+        <v>0.07553790707927023</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0766161204985331</v>
+        <v>0.07663356530931312</v>
       </c>
     </row>
     <row r="162">
@@ -7852,19 +7852,19 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07778849596269133</v>
+        <v>0.07777487810334005</v>
       </c>
       <c r="C162" t="n">
-        <v>6.769818</v>
+        <v>6.766222</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07203691679926738</v>
+        <v>0.07205139697127372</v>
       </c>
       <c r="E162" t="n">
         <v>1.36</v>
       </c>
       <c r="F162" t="n">
-        <v>0.07199533395819291</v>
+        <v>0.07197758896617756</v>
       </c>
       <c r="G162" t="n">
         <v>1.419354838709677</v>
@@ -7888,10 +7888,10 @@
         <v>1.146594982078853</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07493655890522252</v>
+        <v>0.07491527144152016</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0778154977398928</v>
+        <v>0.0777933052667254</v>
       </c>
     </row>
     <row r="163">
@@ -7899,19 +7899,19 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08267995120038485</v>
+        <v>0.08268134907285773</v>
       </c>
       <c r="C163" t="n">
-        <v>6.738576</v>
+        <v>6.732991</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07199533395819291</v>
+        <v>0.07197758896617756</v>
       </c>
       <c r="E163" t="n">
         <v>1.419354838709677</v>
       </c>
       <c r="F163" t="n">
-        <v>0.07778849596269133</v>
+        <v>0.07777487810334005</v>
       </c>
       <c r="G163" t="n">
         <v>1.414444444444444</v>
@@ -7935,10 +7935,10 @@
         <v>1.172592592592593</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08140080928733953</v>
+        <v>0.08138448855988345</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0828178432720507</v>
+        <v>0.08280275355784417</v>
       </c>
     </row>
     <row r="164">
@@ -7946,19 +7946,19 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0841153478075336</v>
+        <v>0.08414634141493238</v>
       </c>
       <c r="C164" t="n">
-        <v>6.741028</v>
+        <v>6.735765</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07778849596269133</v>
+        <v>0.07777487810334005</v>
       </c>
       <c r="E164" t="n">
         <v>1.414444444444444</v>
       </c>
       <c r="F164" t="n">
-        <v>0.08267995120038485</v>
+        <v>0.08268134907285773</v>
       </c>
       <c r="G164" t="n">
         <v>1.525448028673835</v>
@@ -7982,10 +7982,10 @@
         <v>1.312186379928315</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0867280067678288</v>
+        <v>0.08672990333233413</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08678850913662683</v>
+        <v>0.08678977415644781</v>
       </c>
     </row>
     <row r="165">
@@ -7993,19 +7993,19 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.08703612409936756</v>
+        <v>0.08702762636013617</v>
       </c>
       <c r="C165" t="n">
-        <v>6.678933</v>
+        <v>6.673605</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08267995120038485</v>
+        <v>0.08268134907285773</v>
       </c>
       <c r="E165" t="n">
         <v>1.525448028673835</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0841153478075336</v>
+        <v>0.08414634141493238</v>
       </c>
       <c r="G165" t="n">
         <v>1.572401433691756</v>
@@ -8029,10 +8029,10 @@
         <v>1.216487455197133</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0878754315177859</v>
+        <v>0.08791237908059009</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08884527183215674</v>
+        <v>0.08887839390986557</v>
       </c>
     </row>
     <row r="166">
@@ -8040,19 +8040,19 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.09476072226916976</v>
+        <v>0.09475027351380394</v>
       </c>
       <c r="C166" t="n">
-        <v>6.716895</v>
+        <v>6.718003</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0841153478075336</v>
+        <v>0.08414634141493238</v>
       </c>
       <c r="E166" t="n">
         <v>1.572401433691756</v>
       </c>
       <c r="F166" t="n">
-        <v>0.08703612409936756</v>
+        <v>0.08702762636013617</v>
       </c>
       <c r="G166" t="n">
         <v>2.065925925925926</v>
@@ -8076,10 +8076,10 @@
         <v>1.365873015873016</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09082811267123701</v>
+        <v>0.09081792595815856</v>
       </c>
       <c r="O166" t="n">
-        <v>0.09473085372269271</v>
+        <v>0.09472336420084217</v>
       </c>
     </row>
     <row r="167">
@@ -8087,19 +8087,19 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009960432218318</v>
+        <v>0.1009943977798198</v>
       </c>
       <c r="C167" t="n">
-        <v>6.703674</v>
+        <v>6.705878</v>
       </c>
       <c r="D167" t="n">
-        <v>0.08703612409936756</v>
+        <v>0.08702762636013617</v>
       </c>
       <c r="E167" t="n">
         <v>2.065925925925926</v>
       </c>
       <c r="F167" t="n">
-        <v>0.09476072226916976</v>
+        <v>0.09475027351380394</v>
       </c>
       <c r="G167" t="n">
         <v>1.940860215053763</v>
@@ -8123,10 +8123,10 @@
         <v>1.363440860215054</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09942858194809497</v>
+        <v>0.09941605243907999</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1014656606265078</v>
+        <v>0.1014537459293753</v>
       </c>
     </row>
     <row r="168">
@@ -8134,19 +8134,19 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0960022740078692</v>
+        <v>0.09600458355225605</v>
       </c>
       <c r="C168" t="n">
-        <v>6.665398</v>
+        <v>6.670935</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09476072226916976</v>
+        <v>0.09475027351380394</v>
       </c>
       <c r="E168" t="n">
         <v>1.940860215053763</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1009960432218318</v>
+        <v>0.1009943977798198</v>
       </c>
       <c r="G168" t="n">
         <v>1.679259259259259</v>
@@ -8170,10 +8170,10 @@
         <v>1.36</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1062066749706763</v>
+        <v>0.1062047484371221</v>
       </c>
       <c r="O168" t="n">
-        <v>0.100052115208185</v>
+        <v>0.1000467413279559</v>
       </c>
     </row>
     <row r="169">
@@ -8181,19 +8181,19 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.08825928944275496</v>
+        <v>0.08826504660062096</v>
       </c>
       <c r="C169" t="n">
-        <v>6.692545</v>
+        <v>6.6972</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009960432218318</v>
+        <v>0.1009943977798198</v>
       </c>
       <c r="E169" t="n">
         <v>1.679259259259259</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0960022740078692</v>
+        <v>0.09600458355225605</v>
       </c>
       <c r="G169" t="n">
         <v>1.139426523297491</v>
@@ -8217,10 +8217,10 @@
         <v>1.419354838709677</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09970955629493897</v>
+        <v>0.09971229010535582</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09539329372775036</v>
+        <v>0.0953938721130423</v>
       </c>
     </row>
     <row r="170">
@@ -8228,19 +8228,19 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08368854390048774</v>
+        <v>0.08376800327721146</v>
       </c>
       <c r="C170" t="n">
-        <v>6.712986</v>
+        <v>6.720236</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0960022740078692</v>
+        <v>0.09600458355225605</v>
       </c>
       <c r="E170" t="n">
         <v>1.139426523297491</v>
       </c>
       <c r="F170" t="n">
-        <v>0.08825928944275496</v>
+        <v>0.08826504660062096</v>
       </c>
       <c r="G170" t="n">
         <v>0.7870967741935483</v>
@@ -8264,10 +8264,10 @@
         <v>1.414444444444444</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09059274525592376</v>
+        <v>0.09059919527697066</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08705935221263121</v>
+        <v>0.08706391718139396</v>
       </c>
     </row>
     <row r="171">
@@ -8275,19 +8275,19 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08188696718750599</v>
+        <v>0.08192295905211644</v>
       </c>
       <c r="C171" t="n">
-        <v>6.659088</v>
+        <v>6.665238</v>
       </c>
       <c r="D171" t="n">
-        <v>0.08825928944275496</v>
+        <v>0.08826504660062096</v>
       </c>
       <c r="E171" t="n">
         <v>0.7870967741935483</v>
       </c>
       <c r="F171" t="n">
-        <v>0.08368854390048774</v>
+        <v>0.08376800327721146</v>
       </c>
       <c r="G171" t="n">
         <v>0.4984126984126984</v>
@@ -8311,10 +8311,10 @@
         <v>1.525448028673835</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08539676472362534</v>
+        <v>0.08548358847709649</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08164089260942577</v>
+        <v>0.08172233283743637</v>
       </c>
     </row>
     <row r="172">
@@ -8322,19 +8322,19 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06684429067344411</v>
+        <v>0.06685166369249007</v>
       </c>
       <c r="C172" t="n">
-        <v>6.602948</v>
+        <v>6.60461</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08368854390048774</v>
+        <v>0.08376800327721146</v>
       </c>
       <c r="E172" t="n">
         <v>0.4984126984126984</v>
       </c>
       <c r="F172" t="n">
-        <v>0.08188696718750599</v>
+        <v>0.08192295905211644</v>
       </c>
       <c r="G172" t="n">
         <v>0.1942652329749104</v>
@@ -8358,10 +8358,10 @@
         <v>1.572401433691756</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08334008812972557</v>
+        <v>0.08337893315704493</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07617289543256023</v>
+        <v>0.07620638290196308</v>
       </c>
     </row>
     <row r="173">
@@ -8369,19 +8369,19 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06750848527453801</v>
+        <v>0.06751089255029186</v>
       </c>
       <c r="C173" t="n">
-        <v>6.567142</v>
+        <v>6.560345</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08188696718750599</v>
+        <v>0.08192295905211644</v>
       </c>
       <c r="E173" t="n">
         <v>0.1942652329749104</v>
       </c>
       <c r="F173" t="n">
-        <v>0.06684429067344411</v>
+        <v>0.06685166369249007</v>
       </c>
       <c r="G173" t="n">
         <v>0.1629629629629629</v>
@@ -8405,10 +8405,10 @@
         <v>2.065925925925926</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06730050548919039</v>
+        <v>0.06730802196579673</v>
       </c>
       <c r="O173" t="n">
-        <v>0.06750766536840323</v>
+        <v>0.06751777743920753</v>
       </c>
     </row>
     <row r="174">
@@ -8416,19 +8416,19 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05925371345161778</v>
+        <v>0.05925554987693538</v>
       </c>
       <c r="C174" t="n">
-        <v>6.517979</v>
+        <v>6.51141</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06684429067344411</v>
+        <v>0.06685166369249007</v>
       </c>
       <c r="E174" t="n">
         <v>0.1629629629629629</v>
       </c>
       <c r="F174" t="n">
-        <v>0.06750848527453801</v>
+        <v>0.06751089255029186</v>
       </c>
       <c r="G174" t="n">
         <v>0.2247311827956989</v>
@@ -8452,10 +8452,10 @@
         <v>1.940860215053763</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06797413861244569</v>
+        <v>0.06797649490394274</v>
       </c>
       <c r="O174" t="n">
-        <v>0.06289242078121876</v>
+        <v>0.06289408820317834</v>
       </c>
     </row>
     <row r="175">
@@ -8463,19 +8463,19 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05360945202123979</v>
+        <v>0.05361322273146119</v>
       </c>
       <c r="C175" t="n">
-        <v>6.490987</v>
+        <v>6.482653</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06750848527453801</v>
+        <v>0.06751089255029186</v>
       </c>
       <c r="E175" t="n">
         <v>0.2247311827956989</v>
       </c>
       <c r="F175" t="n">
-        <v>0.05925371345161778</v>
+        <v>0.05925554987693538</v>
       </c>
       <c r="G175" t="n">
         <v>0.03185185185185185</v>
@@ -8499,10 +8499,10 @@
         <v>1.679259259259259</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0594348796507116</v>
+        <v>0.05943668627194863</v>
       </c>
       <c r="O175" t="n">
-        <v>0.05448124434743559</v>
+        <v>0.0544805695430284</v>
       </c>
     </row>
     <row r="176">
@@ -8510,19 +8510,19 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05009203032057385</v>
+        <v>0.0501072153426172</v>
       </c>
       <c r="C176" t="n">
-        <v>6.464028</v>
+        <v>6.4557</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05925371345161778</v>
+        <v>0.05925554987693538</v>
       </c>
       <c r="E176" t="n">
         <v>0.03185185185185185</v>
       </c>
       <c r="F176" t="n">
-        <v>0.05360945202123979</v>
+        <v>0.05361322273146119</v>
       </c>
       <c r="G176" t="n">
         <v>0.007885304659498207</v>
@@ -8546,10 +8546,10 @@
         <v>1.139426523297491</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05367164620429895</v>
+        <v>0.05367543934136796</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0503574654032995</v>
+        <v>0.05035730677310394</v>
       </c>
     </row>
     <row r="177">
@@ -8557,19 +8557,19 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04954411481262966</v>
+        <v>0.04953445199989037</v>
       </c>
       <c r="C177" t="n">
-        <v>6.563702</v>
+        <v>6.557959</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05360945202123979</v>
+        <v>0.05361322273146119</v>
       </c>
       <c r="E177" t="n">
         <v>0.007885304659498207</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05009203032057385</v>
+        <v>0.0501072153426172</v>
       </c>
       <c r="G177" t="n">
         <v>0.02043010752688172</v>
@@ -8593,10 +8593,10 @@
         <v>0.7870967741935483</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05010558070733939</v>
+        <v>0.0501209241923325</v>
       </c>
       <c r="O177" t="n">
-        <v>0.04940502561100683</v>
+        <v>0.04941800815711353</v>
       </c>
     </row>
     <row r="178">
@@ -8604,19 +8604,19 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04186673441774236</v>
+        <v>0.04185374782148088</v>
       </c>
       <c r="C178" t="n">
-        <v>6.540969</v>
+        <v>6.540176</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05009203032057385</v>
+        <v>0.0501072153426172</v>
       </c>
       <c r="E178" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04954411481262966</v>
+        <v>0.04953445199989037</v>
       </c>
       <c r="G178" t="n">
         <v>0.1274074074074074</v>
@@ -8640,10 +8640,10 @@
         <v>0.4984126984126984</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04955177531036824</v>
+        <v>0.04954200882325391</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0457332091272559</v>
+        <v>0.04572303344172694</v>
       </c>
     </row>
     <row r="179">
@@ -8651,19 +8651,19 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02803531875401788</v>
+        <v>0.02803303885085384</v>
       </c>
       <c r="C179" t="n">
-        <v>6.581612</v>
+        <v>6.584322</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04954411481262966</v>
+        <v>0.04953445199989037</v>
       </c>
       <c r="E179" t="n">
         <v>0.1274074074074074</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04186673441774236</v>
+        <v>0.04185374782148088</v>
       </c>
       <c r="G179" t="n">
         <v>0.1383512544802867</v>
@@ -8687,10 +8687,10 @@
         <v>0.1942652329749104</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04181991404622121</v>
+        <v>0.04180689765882383</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0379321630044375</v>
+        <v>0.03791828509430586</v>
       </c>
     </row>
     <row r="180">
@@ -8698,19 +8698,19 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02433807418732314</v>
+        <v>0.02434204280658214</v>
       </c>
       <c r="C180" t="n">
-        <v>6.593569</v>
+        <v>6.599897</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04186673441774236</v>
+        <v>0.04185374782148088</v>
       </c>
       <c r="E180" t="n">
         <v>0.1383512544802867</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02803531875401788</v>
+        <v>0.02803303885085384</v>
       </c>
       <c r="G180" t="n">
         <v>0.1781481481481481</v>
@@ -8734,10 +8734,10 @@
         <v>0.1629629629629629</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02800382972404911</v>
+        <v>0.02800158938627056</v>
       </c>
       <c r="O180" t="n">
-        <v>0.02608758306114077</v>
+        <v>0.02608528017446579</v>
       </c>
     </row>
     <row r="181">
@@ -8745,19 +8745,19 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02894006649794179</v>
+        <v>0.02894776796541976</v>
       </c>
       <c r="C181" t="n">
-        <v>6.528483</v>
+        <v>6.535242</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02803531875401788</v>
+        <v>0.02803303885085384</v>
       </c>
       <c r="E181" t="n">
         <v>0.1781481481481481</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02433807418732314</v>
+        <v>0.02434204280658214</v>
       </c>
       <c r="G181" t="n">
         <v>0.325089605734767</v>
@@ -8781,10 +8781,10 @@
         <v>0.2247311827956989</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02432980232501419</v>
+        <v>0.02433376375883589</v>
       </c>
       <c r="O181" t="n">
-        <v>0.02570536812636531</v>
+        <v>0.02570959181603585</v>
       </c>
     </row>
     <row r="182">
@@ -8792,19 +8792,19 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02716985336138045</v>
+        <v>0.02712665111704737</v>
       </c>
       <c r="C182" t="n">
-        <v>6.49251</v>
+        <v>6.503335</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02433807418732314</v>
+        <v>0.02434204280658214</v>
       </c>
       <c r="E182" t="n">
         <v>0.325089605734767</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02894006649794179</v>
+        <v>0.02894776796541976</v>
       </c>
       <c r="G182" t="n">
         <v>0.2777777777777778</v>
@@ -8828,10 +8828,10 @@
         <v>0.03185185185185185</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02890165763348064</v>
+        <v>0.02890934293254386</v>
       </c>
       <c r="O182" t="n">
-        <v>0.02785503155263141</v>
+        <v>0.02786112353163749</v>
       </c>
     </row>
     <row r="183">
@@ -8839,19 +8839,19 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02510756804598113</v>
+        <v>0.02524798842222964</v>
       </c>
       <c r="C183" t="n">
-        <v>6.538205</v>
+        <v>6.546021</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02894006649794179</v>
+        <v>0.02894776796541976</v>
       </c>
       <c r="E183" t="n">
         <v>0.2777777777777778</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02716985336138045</v>
+        <v>0.02712665111704737</v>
       </c>
       <c r="G183" t="n">
         <v>0.1264367816091954</v>
@@ -8875,10 +8875,10 @@
         <v>0.007885304659498207</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02714243195127006</v>
+        <v>0.02709952433775709</v>
       </c>
       <c r="O183" t="n">
-        <v>0.02492272796339496</v>
+        <v>0.02558986613266362</v>
       </c>
     </row>
     <row r="184">
@@ -8886,19 +8886,19 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02404242146195212</v>
+        <v>0.02403949207515677</v>
       </c>
       <c r="C184" t="n">
-        <v>6.536575</v>
+        <v>6.544735</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02716985336138045</v>
+        <v>0.02712665111704737</v>
       </c>
       <c r="E184" t="n">
         <v>0.1264367816091954</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02510756804598113</v>
+        <v>0.02524798842222964</v>
       </c>
       <c r="G184" t="n">
         <v>-0.03763440860215054</v>
@@ -8922,10 +8922,10 @@
         <v>0.02043010752688172</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02509392453275065</v>
+        <v>0.02523341349358511</v>
       </c>
       <c r="O184" t="n">
-        <v>0.02396573316654231</v>
+        <v>0.02406722256680901</v>
       </c>
     </row>
     <row r="185">
@@ -8933,19 +8933,19 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02338319916671061</v>
+        <v>0.02341255221201077</v>
       </c>
       <c r="C185" t="n">
-        <v>6.485437</v>
+        <v>6.471359</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02510756804598113</v>
+        <v>0.02524798842222964</v>
       </c>
       <c r="E185" t="n">
         <v>-0.03763440860215054</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02404242146195212</v>
+        <v>0.02403949207515677</v>
       </c>
       <c r="G185" t="n">
         <v>-0.03962962962962963</v>
@@ -8969,10 +8969,10 @@
         <v>0.1274074074074074</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02403629790815595</v>
+        <v>0.02403342001177896</v>
       </c>
       <c r="O185" t="n">
-        <v>0.02337465851891152</v>
+        <v>0.0233717706411959</v>
       </c>
     </row>
     <row r="186">
@@ -8980,19 +8980,19 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02535873946018707</v>
+        <v>0.0252609290214858</v>
       </c>
       <c r="C186" t="n">
-        <v>6.435822</v>
+        <v>6.429945</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02404242146195212</v>
+        <v>0.02403949207515677</v>
       </c>
       <c r="E186" t="n">
         <v>-0.03962962962962963</v>
       </c>
       <c r="F186" t="n">
-        <v>0.02338319916671061</v>
+        <v>0.02341255221201077</v>
       </c>
       <c r="G186" t="n">
         <v>0.07240143369175628</v>
@@ -9016,10 +9016,10 @@
         <v>0.1383512544802867</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02338183022287838</v>
+        <v>0.02341100041356104</v>
       </c>
       <c r="O186" t="n">
-        <v>0.02382977375805822</v>
+        <v>0.02386038208706953</v>
       </c>
     </row>
     <row r="187">
@@ -9027,19 +9027,19 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02470179024967933</v>
+        <v>0.02469709027552192</v>
       </c>
       <c r="C187" t="n">
-        <v>6.44303</v>
+        <v>6.434787</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02338319916671061</v>
+        <v>0.02341255221201077</v>
       </c>
       <c r="E187" t="n">
         <v>0.07240143369175628</v>
       </c>
       <c r="F187" t="n">
-        <v>0.02535873946018707</v>
+        <v>0.0252609290214858</v>
       </c>
       <c r="G187" t="n">
         <v>0.1688888888888889</v>
@@ -9063,10 +9063,10 @@
         <v>0.1781481481481481</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02534321190737706</v>
+        <v>0.02524613678398188</v>
       </c>
       <c r="O187" t="n">
-        <v>0.02477494834014941</v>
+        <v>0.02468358291794186</v>
       </c>
     </row>
     <row r="188">
@@ -9074,19 +9074,19 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02497248025623389</v>
+        <v>0.02498784906467666</v>
       </c>
       <c r="C188" t="n">
-        <v>6.42456</v>
+        <v>6.415546</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02535873946018707</v>
+        <v>0.0252609290214858</v>
       </c>
       <c r="E188" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="F188" t="n">
-        <v>0.02470179024967933</v>
+        <v>0.02469709027552192</v>
       </c>
       <c r="G188" t="n">
         <v>0.2010752688172043</v>
@@ -9110,10 +9110,10 @@
         <v>0.325089605734767</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02469097983592379</v>
+        <v>0.02468635758981301</v>
       </c>
       <c r="O188" t="n">
-        <v>0.02489208553185671</v>
+        <v>0.02488691300494363</v>
       </c>
     </row>
     <row r="189">
@@ -9121,19 +9121,19 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0206824262051386</v>
+        <v>0.02066573040189024</v>
       </c>
       <c r="C189" t="n">
-        <v>6.384478</v>
+        <v>6.378762</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02470179024967933</v>
+        <v>0.02469709027552192</v>
       </c>
       <c r="E189" t="n">
         <v>0.2010752688172043</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02497248025623389</v>
+        <v>0.02498784906467666</v>
       </c>
       <c r="G189" t="n">
         <v>0.1136200716845878</v>
@@ -9157,10 +9157,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02495979842638865</v>
+        <v>0.02497510342673509</v>
       </c>
       <c r="O189" t="n">
-        <v>0.02363932447180738</v>
+        <v>0.02365204899164951</v>
       </c>
     </row>
     <row r="190">
@@ -9168,19 +9168,19 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01714456823863308</v>
+        <v>0.01712446687886793</v>
       </c>
       <c r="C190" t="n">
-        <v>6.310571</v>
+        <v>6.30991</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02497248025623389</v>
+        <v>0.02498784906467666</v>
       </c>
       <c r="E190" t="n">
         <v>0.1136200716845878</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0206824262051386</v>
+        <v>0.02066573040189024</v>
       </c>
       <c r="G190" t="n">
         <v>-0.04148148148148148</v>
@@ -9204,10 +9204,10 @@
         <v>0.1264367816091954</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02070146276219844</v>
+        <v>0.02068490942248406</v>
       </c>
       <c r="O190" t="n">
-        <v>0.01808890592166914</v>
+        <v>0.01807354216430617</v>
       </c>
     </row>
     <row r="191">
@@ -9215,19 +9215,19 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01984368187567132</v>
+        <v>0.01983723770031975</v>
       </c>
       <c r="C191" t="n">
-        <v>6.298247</v>
+        <v>6.300885</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0206824262051386</v>
+        <v>0.02066573040189024</v>
       </c>
       <c r="E191" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="F191" t="n">
-        <v>0.01714456823863308</v>
+        <v>0.01712446687886793</v>
       </c>
       <c r="G191" t="n">
         <v>-0.1125448028673835</v>
@@ -9251,10 +9251,10 @@
         <v>-0.03763440860215054</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01719074649467988</v>
+        <v>0.01717079201912908</v>
       </c>
       <c r="O191" t="n">
-        <v>0.01748381906542742</v>
+        <v>0.01746241216289951</v>
       </c>
     </row>
     <row r="192">
@@ -9262,19 +9262,19 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02243740483171131</v>
+        <v>0.02243997468866432</v>
       </c>
       <c r="C192" t="n">
-        <v>6.23775</v>
+        <v>6.239086</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01714456823863308</v>
+        <v>0.01712446687886793</v>
       </c>
       <c r="E192" t="n">
         <v>-0.1125448028673835</v>
       </c>
       <c r="F192" t="n">
-        <v>0.01984368187567132</v>
+        <v>0.01983723770031975</v>
       </c>
       <c r="G192" t="n">
         <v>0.002962962962962963</v>
@@ -9298,10 +9298,10 @@
         <v>-0.03962962962962963</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01986876188641719</v>
+        <v>0.01986237582274335</v>
       </c>
       <c r="O192" t="n">
-        <v>0.02030000707948155</v>
+        <v>0.02029290378512988</v>
       </c>
     </row>
     <row r="193">
@@ -9309,19 +9309,19 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02427682755342886</v>
+        <v>0.02428726647991652</v>
       </c>
       <c r="C193" t="n">
-        <v>6.173563</v>
+        <v>6.183025</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01984368187567132</v>
+        <v>0.01983723770031975</v>
       </c>
       <c r="E193" t="n">
         <v>0.002962962962962963</v>
       </c>
       <c r="F193" t="n">
-        <v>0.02243740483171131</v>
+        <v>0.02243997468866432</v>
       </c>
       <c r="G193" t="n">
         <v>0.1684587813620072</v>
@@ -9345,10 +9345,10 @@
         <v>0.07240143369175628</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02244198839916968</v>
+        <v>0.02244455818384</v>
       </c>
       <c r="O193" t="n">
-        <v>0.02353580158734026</v>
+        <v>0.02353829718883733</v>
       </c>
     </row>
     <row r="194">
@@ -9356,19 +9356,19 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02468785567180554</v>
+        <v>0.02455189021022264</v>
       </c>
       <c r="C194" t="n">
-        <v>6.196374</v>
+        <v>6.218815</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02243740483171131</v>
+        <v>0.02243997468866432</v>
       </c>
       <c r="E194" t="n">
         <v>0.1684587813620072</v>
       </c>
       <c r="F194" t="n">
-        <v>0.02427682755342886</v>
+        <v>0.02428726647991652</v>
       </c>
       <c r="G194" t="n">
         <v>0.2562724014336917</v>
@@ -9392,10 +9392,10 @@
         <v>0.1688888888888889</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02426710370131743</v>
+        <v>0.02427749118304102</v>
       </c>
       <c r="O194" t="n">
-        <v>0.02464783866283017</v>
+        <v>0.02456886432271015</v>
       </c>
     </row>
     <row r="195">
@@ -9403,22 +9403,22 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02308275176617602</v>
+        <v>0.02272596105361213</v>
       </c>
       <c r="C195" t="n">
-        <v>6.155136</v>
+        <v>6.223253</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02427682755342886</v>
+        <v>0.02428726647991652</v>
       </c>
       <c r="E195" t="n">
         <v>0.2562724014336917</v>
       </c>
       <c r="F195" t="n">
-        <v>0.02468785567180554</v>
+        <v>0.02455189021022264</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2218106995884774</v>
+        <v>0.2202380952380953</v>
       </c>
       <c r="H195" t="n">
         <v>0.1684587813620072</v>
@@ -9439,28 +9439,34 @@
         <v>0.2010752688172043</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02467504529021193</v>
+        <v>0.02454014647476825</v>
       </c>
       <c r="O195" t="n">
-        <v>0.02350245180621166</v>
+        <v>0.02338011342693468</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
         <v>45747</v>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>0.02145040919093866</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.204791</v>
+      </c>
       <c r="D196" t="n">
-        <v>0.02468785567180554</v>
+        <v>0.02455189021022264</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2218106995884774</v>
+        <v>0.2202380952380953</v>
       </c>
       <c r="F196" t="n">
-        <v>0.02308275176617602</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
+        <v>0.02272596105361213</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.1637992831541218</v>
+      </c>
       <c r="H196" t="n">
         <v>0.2562724014336917</v>
       </c>
@@ -9480,10 +9486,98 @@
         <v>0.1136200716845878</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02308238178240309</v>
+        <v>0.02272839835675788</v>
       </c>
       <c r="O196" t="n">
-        <v>0.02253669523194864</v>
+        <v>0.02183936427816394</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.02120190744101613</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.244244</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.02272596105361213</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.02145040919093866</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.2562724014336917</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.1684587813620072</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.002962962962962963</v>
+      </c>
+      <c r="L197" t="n">
+        <v>-0.1125448028673835</v>
+      </c>
+      <c r="M197" t="n">
+        <v>-0.04148148148148148</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.02146296572168313</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0.02119666216830447</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>0.02145040919093866</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.02120190744101613</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.2562724014336917</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.1684587813620072</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.002962962962962963</v>
+      </c>
+      <c r="M198" t="n">
+        <v>-0.1125448028673835</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.02121639527709766</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.02127978714427354</v>
       </c>
     </row>
   </sheetData>

--- a/HICP_europe_optimized.xlsx
+++ b/HICP_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="C2" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02084541087333491</v>
+        <v>0.02086130791970842</v>
       </c>
       <c r="E2" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554463833458897</v>
+        <v>0.01554499178460667</v>
       </c>
       <c r="H2" t="n">
-        <v>8.3649</v>
+        <v>8.363549000000001</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="C3" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554463833458897</v>
+        <v>0.01554499178460667</v>
       </c>
       <c r="E3" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="H3" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="C4" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="E4" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="H4" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="C5" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="E5" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="H5" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="C6" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="E6" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="H6" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="C7" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="E7" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="H7" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="C8" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="E8" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="H8" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,23 +785,23 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="C9" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="E9" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="H9" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="C10" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="E10" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="H10" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0.001388888888888889</v>
@@ -861,25 +861,25 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="C11" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="E11" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="F11" t="n">
         <v>0.001388888888888889</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="H11" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -902,25 +902,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="C12" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="E12" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="H12" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -945,25 +945,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="C13" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="E13" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="H13" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -990,25 +990,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="C14" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="E14" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="H14" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1037,25 +1037,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="C15" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="E15" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="H15" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="C16" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="E16" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="H16" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="C17" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="E17" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="H17" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1190,25 +1190,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="C18" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="E18" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="H18" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="I18" t="n">
         <v>-0.01039426523297491</v>
@@ -1243,25 +1243,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="F19" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="H19" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="I19" t="n">
         <v>-0.01111111111111111</v>
@@ -1296,25 +1296,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="C20" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="E20" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="F20" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="H20" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="I20" t="n">
         <v>-0.01111111111111111</v>
@@ -1349,25 +1349,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="C21" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="E21" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="F21" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="H21" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1402,25 +1402,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="C22" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="E22" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="H22" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="C23" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="E23" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="H23" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="I23" t="n">
         <v>-0.001792114695340502</v>
@@ -1508,25 +1508,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="C24" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="E24" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="F24" t="n">
         <v>-0.001792114695340502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="H24" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="I24" t="n">
         <v>-0.01111111111111111</v>
@@ -1561,25 +1561,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="C25" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="E25" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="F25" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="H25" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="I25" t="n">
         <v>-0.01111111111111111</v>
@@ -1614,25 +1614,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="E26" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="F26" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="H26" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="I26" t="n">
         <v>-0.003942652329749104</v>
@@ -1667,25 +1667,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="C27" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="E27" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="F27" t="n">
         <v>-0.003942652329749104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="H27" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1720,25 +1720,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="C28" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="E28" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="H28" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="I28" t="n">
         <v>0.02867383512544803</v>
@@ -1773,25 +1773,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="C29" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="E29" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="F29" t="n">
         <v>0.02867383512544803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="H29" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="I29" t="n">
         <v>0.04814814814814815</v>
@@ -1826,25 +1826,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="C30" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="E30" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="F30" t="n">
         <v>0.04814814814814815</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="H30" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="I30" t="n">
         <v>0.05197132616487456</v>
@@ -1879,25 +1879,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="C31" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="E31" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="F31" t="n">
         <v>0.05197132616487456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="H31" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="I31" t="n">
         <v>0.02555555555555556</v>
@@ -1932,25 +1932,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="C32" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="E32" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="F32" t="n">
         <v>0.02555555555555556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="H32" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="I32" t="n">
         <v>-0.006451612903225806</v>
@@ -1985,25 +1985,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="C33" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="E33" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="F33" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="H33" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01899641577060932</v>
@@ -2038,25 +2038,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="C34" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="E34" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="H34" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01111111111111111</v>
@@ -2091,25 +2091,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="C35" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="E35" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="F35" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="H35" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="I35" t="n">
         <v>0.001075268817204301</v>
@@ -2144,25 +2144,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="C36" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="E36" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="F36" t="n">
         <v>0.001075268817204301</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="H36" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="I36" t="n">
         <v>0.01111111111111111</v>
@@ -2197,25 +2197,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="C37" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="E37" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="F37" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="H37" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="I37" t="n">
         <v>0.005376344086021506</v>
@@ -2250,25 +2250,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="C38" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="E38" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="F38" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="H38" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="I38" t="n">
         <v>-0.01577060931899642</v>
@@ -2303,25 +2303,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="C39" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="E39" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="F39" t="n">
         <v>-0.01577060931899642</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="H39" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="I39" t="n">
         <v>-0.03333333333333333</v>
@@ -2356,25 +2356,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="C40" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="E40" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="F40" t="n">
         <v>-0.03333333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="H40" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="I40" t="n">
         <v>-0.006810035842293906</v>
@@ -2409,25 +2409,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="C41" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="E41" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="F41" t="n">
         <v>-0.006810035842293906</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="H41" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="I41" t="n">
         <v>0.02888888888888889</v>
@@ -2462,25 +2462,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="C42" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="E42" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="F42" t="n">
         <v>0.02888888888888889</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="H42" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="I42" t="n">
         <v>0.06594982078853046</v>
@@ -2515,25 +2515,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="C43" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="E43" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="F43" t="n">
         <v>0.06594982078853046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="H43" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="I43" t="n">
         <v>0.07222222222222222</v>
@@ -2568,25 +2568,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="C44" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="E44" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="F44" t="n">
         <v>0.07222222222222222</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="H44" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="I44" t="n">
         <v>0.05591397849462365</v>
@@ -2621,25 +2621,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="C45" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="E45" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="F45" t="n">
         <v>0.05591397849462365</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="H45" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="I45" t="n">
         <v>0.04265232974910394</v>
@@ -2674,25 +2674,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="C46" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="E46" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="F46" t="n">
         <v>0.04265232974910394</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="H46" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="I46" t="n">
         <v>0.03037037037037037</v>
@@ -2727,25 +2727,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="C47" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="E47" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="F47" t="n">
         <v>0.03037037037037037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="H47" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="I47" t="n">
         <v>0.04014336917562724</v>
@@ -2780,25 +2780,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="C48" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="E48" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="F48" t="n">
         <v>0.04014336917562724</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="H48" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="I48" t="n">
         <v>0.01851851851851852</v>
@@ -2833,25 +2833,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="C49" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="E49" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="F49" t="n">
         <v>0.01851851851851852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="H49" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="I49" t="n">
         <v>0.04193548387096774</v>
@@ -2886,25 +2886,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="C50" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="E50" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="F50" t="n">
         <v>0.04193548387096774</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="H50" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="I50" t="n">
         <v>0.03835125448028674</v>
@@ -2939,25 +2939,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="C51" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="E51" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="F51" t="n">
         <v>0.03835125448028674</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="H51" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="I51" t="n">
         <v>0.05714285714285714</v>
@@ -2992,25 +2992,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="C52" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="E52" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="F52" t="n">
         <v>0.05714285714285714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="H52" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="I52" t="n">
         <v>0.05519713261648745</v>
@@ -3045,25 +3045,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="C53" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="E53" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="F53" t="n">
         <v>0.05519713261648745</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="H53" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="I53" t="n">
         <v>0.04407407407407407</v>
@@ -3098,25 +3098,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="C54" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="E54" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="F54" t="n">
         <v>0.04407407407407407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="H54" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="I54" t="n">
         <v>0.05483870967741936</v>
@@ -3151,25 +3151,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="C55" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="E55" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="F55" t="n">
         <v>0.05483870967741936</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="H55" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="I55" t="n">
         <v>0.05777777777777778</v>
@@ -3204,25 +3204,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="C56" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="E56" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="F56" t="n">
         <v>0.05777777777777778</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="H56" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="I56" t="n">
         <v>0.08888888888888889</v>
@@ -3257,25 +3257,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="C57" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="E57" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="F57" t="n">
         <v>0.08888888888888889</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="H57" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="I57" t="n">
         <v>0.06451612903225806</v>
@@ -3310,25 +3310,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="C58" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="E58" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="F58" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="H58" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="I58" t="n">
         <v>0.03592592592592592</v>
@@ -3363,25 +3363,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="C59" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="E59" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="F59" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="H59" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="I59" t="n">
         <v>0.02544802867383512</v>
@@ -3416,25 +3416,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="C60" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="E60" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="F60" t="n">
         <v>0.02544802867383512</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="H60" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="I60" t="n">
         <v>-0.005925925925925926</v>
@@ -3469,25 +3469,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="F61" t="n">
         <v>-0.005925925925925926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="H61" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="I61" t="n">
         <v>-0.07240143369175628</v>
@@ -3522,25 +3522,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="C62" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="E62" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="F62" t="n">
         <v>-0.07240143369175628</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="I62" t="n">
         <v>-0.1379928315412186</v>
@@ -3575,25 +3575,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="C63" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="E63" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="F63" t="n">
         <v>-0.1379928315412186</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="H63" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="I63" t="n">
         <v>-0.217063492063492</v>
@@ -3628,25 +3628,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="C64" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="E64" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="F64" t="n">
         <v>-0.217063492063492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="H64" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="I64" t="n">
         <v>-0.1663082437275986</v>
@@ -3681,25 +3681,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="C65" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="E65" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="F65" t="n">
         <v>-0.1663082437275986</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="H65" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="I65" t="n">
         <v>-0.07962962962962963</v>
@@ -3734,25 +3734,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="C66" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="E66" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="F66" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="H66" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="I66" t="n">
         <v>0.01254480286738351</v>
@@ -3787,25 +3787,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="C67" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="E67" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="F67" t="n">
         <v>0.01254480286738351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="H67" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="I67" t="n">
         <v>-0.02888888888888889</v>
@@ -3840,25 +3840,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="C68" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="E68" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="F68" t="n">
         <v>-0.02888888888888889</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="H68" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="I68" t="n">
         <v>-0.1028673835125448</v>
@@ -3893,25 +3893,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="C69" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="E69" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="F69" t="n">
         <v>-0.1028673835125448</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="H69" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="I69" t="n">
         <v>-0.1727598566308244</v>
@@ -3946,25 +3946,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="C70" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="E70" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="F70" t="n">
         <v>-0.1727598566308244</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="H70" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="I70" t="n">
         <v>-0.1137037037037037</v>
@@ -3999,25 +3999,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="C71" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="E71" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="F71" t="n">
         <v>-0.1137037037037037</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="H71" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="I71" t="n">
         <v>-0.07132616487455197</v>
@@ -4052,25 +4052,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="C72" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="E72" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="F72" t="n">
         <v>-0.07132616487455197</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="H72" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="I72" t="n">
         <v>-0.0262962962962963</v>
@@ -4105,25 +4105,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="C73" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="E73" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="F73" t="n">
         <v>-0.0262962962962963</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="H73" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="I73" t="n">
         <v>-0.05412186379928315</v>
@@ -4158,25 +4158,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="C74" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="E74" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="F74" t="n">
         <v>-0.05412186379928315</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="H74" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="I74" t="n">
         <v>-0.1218637992831541</v>
@@ -4211,25 +4211,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="C75" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="E75" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="F75" t="n">
         <v>-0.1218637992831541</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="H75" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="I75" t="n">
         <v>-0.1404761904761905</v>
@@ -4264,25 +4264,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="C76" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="E76" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="F76" t="n">
         <v>-0.1404761904761905</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="H76" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="I76" t="n">
         <v>-0.06415770609318996</v>
@@ -4317,25 +4317,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="C77" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="E77" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="F77" t="n">
         <v>-0.06415770609318996</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="H77" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="I77" t="n">
         <v>0.0737037037037037</v>
@@ -4370,25 +4370,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="C78" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="E78" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="F78" t="n">
         <v>0.0737037037037037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="H78" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="I78" t="n">
         <v>0.1698924731182796</v>
@@ -4423,25 +4423,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="C79" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="E79" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="F79" t="n">
         <v>0.1698924731182796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="H79" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="I79" t="n">
         <v>0.1159259259259259</v>
@@ -4476,25 +4476,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="C80" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="E80" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="F80" t="n">
         <v>0.1159259259259259</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="H80" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="I80" t="n">
         <v>0.08422939068100359</v>
@@ -4529,25 +4529,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="C81" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="E81" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="F81" t="n">
         <v>0.08422939068100359</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="H81" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="I81" t="n">
         <v>0.02795698924731183</v>
@@ -4582,25 +4582,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="C82" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="E82" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="F82" t="n">
         <v>0.02795698924731183</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="H82" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="I82" t="n">
         <v>0.01703703703703703</v>
@@ -4635,25 +4635,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="C83" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="E83" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="F83" t="n">
         <v>0.01703703703703703</v>
       </c>
       <c r="G83" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="H83" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="I83" t="n">
         <v>-0.03369175627240144</v>
@@ -4688,25 +4688,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="C84" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="E84" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="F84" t="n">
         <v>-0.03369175627240144</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="H84" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="I84" t="n">
         <v>-0.01</v>
@@ -4741,25 +4741,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="C85" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="E85" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="F85" t="n">
         <v>-0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="H85" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="I85" t="n">
         <v>0.02401433691756272</v>
@@ -4794,25 +4794,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="C86" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="E86" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="F86" t="n">
         <v>0.02401433691756272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="H86" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="I86" t="n">
         <v>-0.007885304659498209</v>
@@ -4847,25 +4847,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="C87" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="E87" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="F87" t="n">
         <v>-0.007885304659498209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="H87" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="I87" t="n">
         <v>-0.08199233716475096</v>
@@ -4900,25 +4900,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="C88" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="E88" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="F88" t="n">
         <v>-0.08199233716475096</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="H88" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="I88" t="n">
         <v>-0.1315412186379928</v>
@@ -4953,25 +4953,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="C89" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="E89" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="F89" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="H89" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="I89" t="n">
         <v>-0.1125925925925926</v>
@@ -5006,25 +5006,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="C90" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="E90" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="F90" t="n">
         <v>-0.1125925925925926</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="H90" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="I90" t="n">
         <v>-0.01899641577060932</v>
@@ -5059,25 +5059,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="C91" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="E91" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="F91" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="H91" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="I91" t="n">
         <v>0.03592592592592592</v>
@@ -5112,25 +5112,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="C92" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="E92" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="F92" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="H92" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="I92" t="n">
         <v>0.1290322580645161</v>
@@ -5165,25 +5165,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="C93" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="E93" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="F93" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="H93" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="I93" t="n">
         <v>0.1175627240143369</v>
@@ -5218,25 +5218,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="C94" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="E94" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="F94" t="n">
         <v>0.1175627240143369</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="H94" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="I94" t="n">
         <v>0.08111111111111111</v>
@@ -5271,25 +5271,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="C95" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="E95" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="F95" t="n">
         <v>0.08111111111111111</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="H95" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="I95" t="n">
         <v>0.09749103942652329</v>
@@ -5324,25 +5324,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="C96" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="E96" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="F96" t="n">
         <v>0.09749103942652329</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="H96" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="I96" t="n">
         <v>0.1696296296296296</v>
@@ -5377,25 +5377,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="C97" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="E97" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="F97" t="n">
         <v>0.1696296296296296</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="H97" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="I97" t="n">
         <v>0.2150537634408602</v>
@@ -5430,25 +5430,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="C98" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="E98" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="F98" t="n">
         <v>0.2150537634408602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="H98" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="I98" t="n">
         <v>0.2505376344086022</v>
@@ -5483,25 +5483,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="C99" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="E99" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="F99" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="H99" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="I99" t="n">
         <v>0.301984126984127</v>
@@ -5536,25 +5536,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="C100" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="E100" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="F100" t="n">
         <v>0.301984126984127</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="H100" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.2867383512544803</v>
@@ -5589,25 +5589,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="C101" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="E101" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="F101" t="n">
         <v>0.2867383512544803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="H101" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="I101" t="n">
         <v>0.2062962962962963</v>
@@ -5642,25 +5642,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="C102" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="E102" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="F102" t="n">
         <v>0.2062962962962963</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="H102" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="I102" t="n">
         <v>0.1075268817204301</v>
@@ -5695,25 +5695,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="C103" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="E103" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="F103" t="n">
         <v>0.1075268817204301</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="H103" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="I103" t="n">
         <v>0.09222222222222222</v>
@@ -5748,25 +5748,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="C104" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="E104" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="F104" t="n">
         <v>0.09222222222222222</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="H104" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="I104" t="n">
         <v>0.09247311827956989</v>
@@ -5801,25 +5801,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="C105" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="E105" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="F105" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="H105" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="I105" t="n">
         <v>0.1379928315412186</v>
@@ -5854,25 +5854,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="C106" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="E106" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="F106" t="n">
         <v>0.1379928315412186</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="H106" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="I106" t="n">
         <v>0.1518518518518518</v>
@@ -5907,25 +5907,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="C107" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="E107" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="F107" t="n">
         <v>0.1518518518518518</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="H107" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="I107" t="n">
         <v>0.1935483870967742</v>
@@ -5960,25 +5960,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="C108" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="E108" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="F108" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="H108" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="I108" t="n">
         <v>0.1766666666666667</v>
@@ -6013,25 +6013,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="C109" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="E109" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="F109" t="n">
         <v>0.1766666666666667</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="H109" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="I109" t="n">
         <v>0.2376344086021505</v>
@@ -6066,25 +6066,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="C110" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="E110" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="F110" t="n">
         <v>0.2376344086021505</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="H110" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="I110" t="n">
         <v>0.2261648745519713</v>
@@ -6119,25 +6119,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="C111" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="E111" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="F111" t="n">
         <v>0.2261648745519713</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="H111" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="I111" t="n">
         <v>0.2333333333333333</v>
@@ -6172,25 +6172,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="C112" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="E112" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="F112" t="n">
         <v>0.2333333333333333</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="H112" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="I112" t="n">
         <v>0.2064516129032258</v>
@@ -6225,25 +6225,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="C113" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="E113" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="F113" t="n">
         <v>0.2064516129032258</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="H113" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="I113" t="n">
         <v>0.1688888888888889</v>
@@ -6278,25 +6278,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="C114" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="E114" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="F114" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G114" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="H114" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="I114" t="n">
         <v>0.1523297491039426</v>
@@ -6331,25 +6331,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="C115" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="E115" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="F115" t="n">
         <v>0.1523297491039426</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="H115" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="I115" t="n">
         <v>0.1503703703703704</v>
@@ -6384,25 +6384,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="C116" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="E116" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="F116" t="n">
         <v>0.1503703703703704</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="H116" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="I116" t="n">
         <v>0.2584229390681004</v>
@@ -6437,25 +6437,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="C117" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="E117" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="F117" t="n">
         <v>0.2584229390681004</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="H117" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="I117" t="n">
         <v>0.2853046594982079</v>
@@ -6490,25 +6490,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="C118" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="E118" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="F118" t="n">
         <v>0.2853046594982079</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="H118" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="I118" t="n">
         <v>0.3266666666666667</v>
@@ -6543,25 +6543,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="C119" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="E119" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="F119" t="n">
         <v>0.3266666666666667</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="H119" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="I119" t="n">
         <v>0.2505376344086022</v>
@@ -6596,25 +6596,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="C120" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="E120" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="F120" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="H120" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="I120" t="n">
         <v>0.1974074074074074</v>
@@ -6649,25 +6649,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="C121" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="E121" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="F121" t="n">
         <v>0.1974074074074074</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="H121" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="I121" t="n">
         <v>0.1017921146953405</v>
@@ -6702,25 +6702,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="C122" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="E122" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="F122" t="n">
         <v>0.1017921146953405</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="H122" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="I122" t="n">
         <v>0.07813620071684588</v>
@@ -6755,25 +6755,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="C123" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="E123" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="F123" t="n">
         <v>0.07813620071684588</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="H123" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="I123" t="n">
         <v>0.08293650793650795</v>
@@ -6797,10 +6797,10 @@
         <v>0.2584229390681004</v>
       </c>
       <c r="P123" t="n">
-        <v>0.01247176566753351</v>
+        <v>0.01247645698981842</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.0127007569017995</v>
+        <v>0.01270545536656372</v>
       </c>
     </row>
     <row r="124">
@@ -6808,25 +6808,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="C124" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="E124" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="F124" t="n">
         <v>0.08293650793650795</v>
       </c>
       <c r="G124" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="H124" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="I124" t="n">
         <v>0.09247311827956989</v>
@@ -6850,10 +6850,10 @@
         <v>0.2853046594982079</v>
       </c>
       <c r="P124" t="n">
-        <v>0.01371050525728585</v>
+        <v>0.01371173760009231</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01392632990942799</v>
+        <v>0.01392758971806846</v>
       </c>
     </row>
     <row r="125">
@@ -6861,25 +6861,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="F125" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="H125" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="I125" t="n">
         <v>0.122962962962963</v>
@@ -6903,10 +6903,10 @@
         <v>0.3266666666666667</v>
       </c>
       <c r="P125" t="n">
-        <v>0.01424491788054484</v>
+        <v>0.01424192510565493</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.01446213119182524</v>
+        <v>0.01445920496039294</v>
       </c>
     </row>
     <row r="126">
@@ -6914,25 +6914,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="C126" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="E126" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="F126" t="n">
         <v>0.122962962962963</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="I126" t="n">
         <v>0.1344086021505376</v>
@@ -6956,10 +6956,10 @@
         <v>0.2505376344086022</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01593581406590723</v>
+        <v>0.01593069203444438</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.01616392242178989</v>
+        <v>0.01615884101532655</v>
       </c>
     </row>
     <row r="127">
@@ -6967,25 +6967,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="C127" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="E127" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="F127" t="n">
         <v>0.1344086021505376</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="H127" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="I127" t="n">
         <v>0.1455555555555555</v>
@@ -7009,10 +7009,10 @@
         <v>0.1974074074074074</v>
       </c>
       <c r="P127" t="n">
-        <v>0.01269324353245199</v>
+        <v>0.01267189319969631</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.01296398258751318</v>
+        <v>0.01294284860639577</v>
       </c>
     </row>
     <row r="128">
@@ -7020,25 +7020,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="C128" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="E128" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="F128" t="n">
         <v>0.1455555555555555</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="H128" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="I128" t="n">
         <v>0.1290322580645161</v>
@@ -7062,10 +7062,10 @@
         <v>0.1017921146953405</v>
       </c>
       <c r="P128" t="n">
-        <v>0.01206351623592815</v>
+        <v>0.0120573452303374</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.01234500587508924</v>
+        <v>0.01233892315101507</v>
       </c>
     </row>
     <row r="129">
@@ -7073,25 +7073,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="C129" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="E129" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="F129" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="H129" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="I129" t="n">
         <v>0.0989247311827957</v>
@@ -7115,10 +7115,10 @@
         <v>0.07813620071684588</v>
       </c>
       <c r="P129" t="n">
-        <v>0.01106498270713461</v>
+        <v>0.01109800475241357</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.01095961241957026</v>
+        <v>0.01099344092745072</v>
       </c>
     </row>
     <row r="130">
@@ -7126,25 +7126,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="C130" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="E130" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="F130" t="n">
         <v>0.0989247311827957</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="H130" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="I130" t="n">
         <v>0.112962962962963</v>
@@ -7168,10 +7168,10 @@
         <v>0.08293650793650795</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01089936738234928</v>
+        <v>0.01089924120454946</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.01081158963674895</v>
+        <v>0.01081138284414558</v>
       </c>
     </row>
     <row r="131">
@@ -7179,25 +7179,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="C131" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="E131" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="F131" t="n">
         <v>0.112962962962963</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="H131" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="I131" t="n">
         <v>0.0910394265232975</v>
@@ -7221,10 +7221,10 @@
         <v>0.09247311827956989</v>
       </c>
       <c r="P131" t="n">
-        <v>0.009054444816226937</v>
+        <v>0.00905630722508795</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.008913609926862982</v>
+        <v>0.008915473625449848</v>
       </c>
     </row>
     <row r="132">
@@ -7232,25 +7232,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="C132" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="E132" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="F132" t="n">
         <v>0.0910394265232975</v>
       </c>
       <c r="G132" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="H132" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="I132" t="n">
         <v>0.1081481481481481</v>
@@ -7274,10 +7274,10 @@
         <v>0.122962962962963</v>
       </c>
       <c r="P132" t="n">
-        <v>0.008020690737576497</v>
+        <v>0.008019291122938138</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.00831285111795307</v>
+        <v>0.008311270955283816</v>
       </c>
     </row>
     <row r="133">
@@ -7285,25 +7285,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="C133" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="E133" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="F133" t="n">
         <v>0.1081481481481481</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="H133" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="I133" t="n">
         <v>0.1082437275985663</v>
@@ -7327,10 +7327,10 @@
         <v>0.1344086021505376</v>
       </c>
       <c r="P133" t="n">
-        <v>0.009056536378434402</v>
+        <v>0.009059491976499646</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.009655680037746929</v>
+        <v>0.009658128455313997</v>
       </c>
     </row>
     <row r="134">
@@ -7338,25 +7338,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="C134" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="D134" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="E134" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="F134" t="n">
         <v>0.1082437275985663</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="H134" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="I134" t="n">
         <v>0.1275985663082437</v>
@@ -7380,10 +7380,10 @@
         <v>0.1455555555555555</v>
       </c>
       <c r="P134" t="n">
-        <v>0.0133084002646276</v>
+        <v>0.01330295915854881</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01343660873204094</v>
+        <v>0.01343096725343687</v>
       </c>
     </row>
     <row r="135">
@@ -7391,25 +7391,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="C135" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="E135" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="F135" t="n">
         <v>0.1275985663082437</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="H135" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="I135" t="n">
         <v>0.09578544061302682</v>
@@ -7433,10 +7433,10 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="P135" t="n">
-        <v>0.01339615364799236</v>
+        <v>0.01339475443397515</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.013368693987725</v>
+        <v>0.01336718867711541</v>
       </c>
     </row>
     <row r="136">
@@ -7444,25 +7444,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="C136" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="E136" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="F136" t="n">
         <v>0.09578544061302682</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="H136" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="I136" t="n">
         <v>0.06057347670250896</v>
@@ -7486,10 +7486,10 @@
         <v>0.0989247311827957</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01210044605492259</v>
+        <v>0.01210410983349777</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.01206060015464995</v>
+        <v>0.01206424938928431</v>
       </c>
     </row>
     <row r="137">
@@ -7497,25 +7497,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="C137" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="E137" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="F137" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="H137" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="I137" t="n">
         <v>-0.01222222222222222</v>
@@ -7539,10 +7539,10 @@
         <v>0.112962962962963</v>
       </c>
       <c r="P137" t="n">
-        <v>0.007936184983274469</v>
+        <v>0.00793085335595301</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.007828264884744494</v>
+        <v>0.007822783978785197</v>
       </c>
     </row>
     <row r="138">
@@ -7550,25 +7550,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="C138" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="E138" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="F138" t="n">
         <v>-0.01222222222222222</v>
       </c>
       <c r="G138" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="H138" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="I138" t="n">
         <v>0.01935483870967742</v>
@@ -7592,10 +7592,10 @@
         <v>0.0910394265232975</v>
       </c>
       <c r="P138" t="n">
-        <v>0.003309669136150978</v>
+        <v>0.003299930472840484</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.003138430104972117</v>
+        <v>0.00312849335705046</v>
       </c>
     </row>
     <row r="139">
@@ -7603,25 +7603,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="C139" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="E139" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="F139" t="n">
         <v>0.01935483870967742</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="H139" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="I139" t="n">
         <v>0.07518518518518519</v>
@@ -7645,10 +7645,10 @@
         <v>0.1081481481481481</v>
       </c>
       <c r="P139" t="n">
-        <v>0.0008424021832771454</v>
+        <v>0.000837452635068401</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.001781288190169658</v>
+        <v>0.001775783137999473</v>
       </c>
     </row>
     <row r="140">
@@ -7656,25 +7656,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="C140" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="E140" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="F140" t="n">
         <v>0.07518518518518519</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="H140" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="I140" t="n">
         <v>0.2014336917562724</v>
@@ -7698,10 +7698,10 @@
         <v>0.1082437275985663</v>
       </c>
       <c r="P140" t="n">
-        <v>0.00269048072032704</v>
+        <v>0.002686748022677517</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.003190447756786494</v>
+        <v>0.003185881898811799</v>
       </c>
     </row>
     <row r="141">
@@ -7709,25 +7709,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="C141" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="E141" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="F141" t="n">
         <v>0.2014336917562724</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="H141" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="I141" t="n">
         <v>0.185663082437276</v>
@@ -7751,10 +7751,10 @@
         <v>0.1275985663082437</v>
       </c>
       <c r="P141" t="n">
-        <v>0.003348025031532886</v>
+        <v>0.00337111403605734</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.00316087041210179</v>
+        <v>0.003184447721709149</v>
       </c>
     </row>
     <row r="142">
@@ -7762,25 +7762,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="C142" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="E142" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="F142" t="n">
         <v>0.185663082437276</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="H142" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="I142" t="n">
         <v>0.1507407407407407</v>
@@ -7804,10 +7804,10 @@
         <v>0.09578544061302682</v>
       </c>
       <c r="P142" t="n">
-        <v>-0.001959217458660152</v>
+        <v>-0.001958955981435403</v>
       </c>
       <c r="Q142" t="n">
-        <v>-0.002281109260997101</v>
+        <v>-0.002280817919050741</v>
       </c>
     </row>
     <row r="143">
@@ -7815,25 +7815,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="C143" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="E143" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="F143" t="n">
         <v>0.1507407407407407</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="H143" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="I143" t="n">
         <v>0.1444444444444445</v>
@@ -7857,10 +7857,10 @@
         <v>0.06057347670250896</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.00283447455740837</v>
+        <v>-0.002829464169344568</v>
       </c>
       <c r="Q143" t="n">
-        <v>-0.002631839612979632</v>
+        <v>-0.002626768984534786</v>
       </c>
     </row>
     <row r="144">
@@ -7868,25 +7868,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="C144" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="E144" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="F144" t="n">
         <v>0.1444444444444445</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="H144" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="I144" t="n">
         <v>0.1655555555555556</v>
@@ -7910,10 +7910,10 @@
         <v>-0.01222222222222222</v>
       </c>
       <c r="P144" t="n">
-        <v>-0.002403894946467281</v>
+        <v>-0.002402645185532998</v>
       </c>
       <c r="Q144" t="n">
-        <v>-0.002483786100059448</v>
+        <v>-0.002482665245228522</v>
       </c>
     </row>
     <row r="145">
@@ -7921,25 +7921,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="C145" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="E145" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="F145" t="n">
         <v>0.1655555555555556</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="H145" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="I145" t="n">
         <v>0.1655913978494624</v>
@@ -7963,10 +7963,10 @@
         <v>0.01935483870967742</v>
       </c>
       <c r="P145" t="n">
-        <v>-0.002248077296297799</v>
+        <v>-0.002245506864464902</v>
       </c>
       <c r="Q145" t="n">
-        <v>-0.002552625641940098</v>
+        <v>-0.002579026932386204</v>
       </c>
     </row>
     <row r="146">
@@ -7974,25 +7974,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="C146" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="E146" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="F146" t="n">
         <v>0.1655913978494624</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="H146" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="I146" t="n">
         <v>0.1577060931899641</v>
@@ -8016,10 +8016,10 @@
         <v>0.07518518518518519</v>
       </c>
       <c r="P146" t="n">
-        <v>-0.002345706895335713</v>
+        <v>-0.002358418688266314</v>
       </c>
       <c r="Q146" t="n">
-        <v>-0.001823929400508741</v>
+        <v>-0.001836607763947653</v>
       </c>
     </row>
     <row r="147">
@@ -8027,25 +8027,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="C147" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="E147" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="F147" t="n">
         <v>0.1577060931899641</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="H147" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="I147" t="n">
         <v>0.2051587301587302</v>
@@ -8069,10 +8069,10 @@
         <v>0.2014336917562724</v>
       </c>
       <c r="P147" t="n">
-        <v>0.007414821624517651</v>
+        <v>0.007386889459868345</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.007866240722832197</v>
+        <v>0.007837442339569879</v>
       </c>
     </row>
     <row r="148">
@@ -8080,25 +8080,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="C148" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="E148" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="F148" t="n">
         <v>0.2051587301587302</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="H148" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="I148" t="n">
         <v>0.2275985663082437</v>
@@ -8122,10 +8122,10 @@
         <v>0.185663082437276</v>
       </c>
       <c r="P148" t="n">
-        <v>0.007916001120324005</v>
+        <v>0.007912526794405945</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.008490031085403194</v>
+        <v>0.008485976927224949</v>
       </c>
     </row>
     <row r="149">
@@ -8133,25 +8133,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="C149" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="E149" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="F149" t="n">
         <v>0.2275985663082437</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="H149" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="I149" t="n">
         <v>0.2496296296296296</v>
@@ -8175,10 +8175,10 @@
         <v>0.1507407407407407</v>
       </c>
       <c r="P149" t="n">
-        <v>0.01253389300448847</v>
+        <v>0.0125315752040141</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.01314661987694736</v>
+        <v>0.01314459617023147</v>
       </c>
     </row>
     <row r="150">
@@ -8186,25 +8186,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="C150" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="E150" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="F150" t="n">
         <v>0.2496296296296296</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="H150" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="I150" t="n">
         <v>0.2663082437275986</v>
@@ -8228,10 +8228,10 @@
         <v>0.1444444444444445</v>
       </c>
       <c r="P150" t="n">
-        <v>0.01564960676964346</v>
+        <v>0.01569199428408659</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.01641554232068738</v>
+        <v>0.01645825061071757</v>
       </c>
     </row>
     <row r="151">
@@ -8239,25 +8239,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="C151" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="E151" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="F151" t="n">
         <v>0.2663082437275986</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="H151" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="I151" t="n">
         <v>0.3296296296296297</v>
@@ -8281,10 +8281,10 @@
         <v>0.1655555555555556</v>
       </c>
       <c r="P151" t="n">
-        <v>0.0191105302083569</v>
+        <v>0.01909093619572596</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.01985535495897406</v>
+        <v>0.01996514405488438</v>
       </c>
     </row>
     <row r="152">
@@ -8292,25 +8292,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="C152" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="E152" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="F152" t="n">
         <v>0.3296296296296297</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="H152" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="I152" t="n">
         <v>0.3612903225806451</v>
@@ -8334,10 +8334,10 @@
         <v>0.1655913978494624</v>
       </c>
       <c r="P152" t="n">
-        <v>0.01964446788465896</v>
+        <v>0.01965232841944236</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0206488047395909</v>
+        <v>0.02065728118144238</v>
       </c>
     </row>
     <row r="153">
@@ -8345,25 +8345,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="C153" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="E153" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="F153" t="n">
         <v>0.3612903225806451</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="H153" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="I153" t="n">
         <v>0.5200716845878136</v>
@@ -8387,10 +8387,10 @@
         <v>0.1577060931899641</v>
       </c>
       <c r="P153" t="n">
-        <v>0.02327703887016732</v>
+        <v>0.02328541194083769</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.02459179593295167</v>
+        <v>0.02460161718081303</v>
       </c>
     </row>
     <row r="154">
@@ -8398,25 +8398,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="C154" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="E154" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="F154" t="n">
         <v>0.5200716845878136</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="H154" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="I154" t="n">
         <v>0.7100000000000001</v>
@@ -8440,10 +8440,10 @@
         <v>0.2051587301587302</v>
       </c>
       <c r="P154" t="n">
-        <v>0.03082998736073278</v>
+        <v>0.03081632060192256</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.03395675839225737</v>
+        <v>0.03394337130815146</v>
       </c>
     </row>
     <row r="155">
@@ -8451,25 +8451,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="C155" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="E155" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="F155" t="n">
         <v>0.7100000000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="H155" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="I155" t="n">
         <v>1.146594982078853</v>
@@ -8493,10 +8493,10 @@
         <v>0.2275985663082437</v>
       </c>
       <c r="P155" t="n">
-        <v>0.03385998352509445</v>
+        <v>0.0338656830342761</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.03927943517214449</v>
+        <v>0.03928998392599806</v>
       </c>
     </row>
     <row r="156">
@@ -8504,25 +8504,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="C156" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="E156" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="F156" t="n">
         <v>1.146594982078853</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="H156" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="I156" t="n">
         <v>1.172592592592593</v>
@@ -8546,10 +8546,10 @@
         <v>0.2496296296296296</v>
       </c>
       <c r="P156" t="n">
-        <v>0.04046582211271628</v>
+        <v>0.04046125641913029</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.04685875815200356</v>
+        <v>0.04684971600668107</v>
       </c>
     </row>
     <row r="157">
@@ -8557,25 +8557,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="C157" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="E157" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="F157" t="n">
         <v>1.172592592592593</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="H157" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="I157" t="n">
         <v>1.312186379928315</v>
@@ -8599,10 +8599,10 @@
         <v>0.2663082437275986</v>
       </c>
       <c r="P157" t="n">
-        <v>0.04706914542126239</v>
+        <v>0.04706472938736198</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.0488790195017473</v>
+        <v>0.04887503678749595</v>
       </c>
     </row>
     <row r="158">
@@ -8610,25 +8610,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="C158" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="E158" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="F158" t="n">
         <v>1.312186379928315</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="H158" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="I158" t="n">
         <v>1.216487455197133</v>
@@ -8652,10 +8652,10 @@
         <v>0.3296296296296297</v>
       </c>
       <c r="P158" t="n">
-        <v>0.04937048664225461</v>
+        <v>0.04935577509568922</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05126582088962541</v>
+        <v>0.05124993867455153</v>
       </c>
     </row>
     <row r="159">
@@ -8663,25 +8663,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="C159" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="E159" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="F159" t="n">
         <v>1.216487455197133</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="H159" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="I159" t="n">
         <v>1.365873015873016</v>
@@ -8705,10 +8705,10 @@
         <v>0.3612903225806451</v>
       </c>
       <c r="P159" t="n">
-        <v>0.0501926112900138</v>
+        <v>0.05016089190715644</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.0542896347692704</v>
+        <v>0.05425266902724668</v>
       </c>
     </row>
     <row r="160">
@@ -8716,25 +8716,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="C160" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="E160" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="F160" t="n">
         <v>1.365873015873016</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="H160" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="I160" t="n">
         <v>1.363440860215054</v>
@@ -8758,10 +8758,10 @@
         <v>0.5200716845878136</v>
       </c>
       <c r="P160" t="n">
-        <v>0.05780522790562893</v>
+        <v>0.05781538365772337</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06225794228673504</v>
+        <v>0.06227008054515017</v>
       </c>
     </row>
     <row r="161">
@@ -8769,25 +8769,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="C161" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="E161" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="F161" t="n">
         <v>1.363440860215054</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="H161" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="I161" t="n">
         <v>1.36</v>
@@ -8811,10 +8811,10 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="P161" t="n">
-        <v>0.07552723866072127</v>
+        <v>0.07551305115825843</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.07662293590476148</v>
+        <v>0.0766095453153048</v>
       </c>
     </row>
     <row r="162">
@@ -8822,25 +8822,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="C162" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="E162" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="F162" t="n">
         <v>1.36</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="H162" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="I162" t="n">
         <v>1.419354838709677</v>
@@ -8864,10 +8864,10 @@
         <v>1.146594982078853</v>
       </c>
       <c r="P162" t="n">
-        <v>0.07494082684444396</v>
+        <v>0.07495151100467851</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.077819289952632</v>
+        <v>0.07783026561508187</v>
       </c>
     </row>
     <row r="163">
@@ -8875,25 +8875,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="C163" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="E163" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="F163" t="n">
         <v>1.419354838709677</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="H163" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="I163" t="n">
         <v>1.414444444444444</v>
@@ -8917,10 +8917,10 @@
         <v>1.172592592592593</v>
       </c>
       <c r="P163" t="n">
-        <v>0.08139885038694822</v>
+        <v>0.08141213091418463</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.08281572231763115</v>
+        <v>0.08282802470177839</v>
       </c>
     </row>
     <row r="164">
@@ -8928,25 +8928,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="C164" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="E164" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="F164" t="n">
         <v>1.414444444444444</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="H164" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="I164" t="n">
         <v>1.525448028673835</v>
@@ -8970,10 +8970,10 @@
         <v>1.312186379928315</v>
       </c>
       <c r="P164" t="n">
-        <v>0.08673878762888136</v>
+        <v>0.08677008832374428</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.08679811076583266</v>
+        <v>0.08682734184684833</v>
       </c>
     </row>
     <row r="165">
@@ -8981,25 +8981,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="C165" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="E165" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="F165" t="n">
         <v>1.525448028673835</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="H165" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="I165" t="n">
         <v>1.572401433691756</v>
@@ -9023,10 +9023,10 @@
         <v>1.216487455197133</v>
       </c>
       <c r="P165" t="n">
-        <v>0.08791851612040422</v>
+        <v>0.08792138079244152</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.08888441382923135</v>
+        <v>0.08888702666380591</v>
       </c>
     </row>
     <row r="166">
@@ -9034,25 +9034,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="C166" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="E166" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="F166" t="n">
         <v>1.572401433691756</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="H166" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="I166" t="n">
         <v>2.065925925925926</v>
@@ -9076,10 +9076,10 @@
         <v>1.365873015873016</v>
       </c>
       <c r="P166" t="n">
-        <v>0.09081606883218052</v>
+        <v>0.09081420541156844</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.09471967877291695</v>
+        <v>0.09471699456409592</v>
       </c>
     </row>
     <row r="167">
@@ -9087,25 +9087,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="C167" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="E167" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="F167" t="n">
         <v>2.065925925925926</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="H167" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="I167" t="n">
         <v>1.940860215053763</v>
@@ -9129,10 +9129,10 @@
         <v>1.363440860215054</v>
       </c>
       <c r="P167" t="n">
-        <v>0.09941247803445898</v>
+        <v>0.09941491370548861</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.1014506442202287</v>
+        <v>0.101453156582754</v>
       </c>
     </row>
     <row r="168">
@@ -9140,25 +9140,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="C168" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="E168" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="F168" t="n">
         <v>1.940860215053763</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="H168" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="I168" t="n">
         <v>1.679259259259259</v>
@@ -9182,10 +9182,10 @@
         <v>1.36</v>
       </c>
       <c r="P168" t="n">
-        <v>0.1061998707906216</v>
+        <v>0.1061958873999436</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.1000456356574447</v>
+        <v>0.1000442120240249</v>
       </c>
     </row>
     <row r="169">
@@ -9193,25 +9193,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="C169" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="E169" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="F169" t="n">
         <v>1.679259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="H169" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="I169" t="n">
         <v>1.139426523297491</v>
@@ -9235,10 +9235,10 @@
         <v>1.419354838709677</v>
       </c>
       <c r="P169" t="n">
-        <v>0.09970378911242148</v>
+        <v>0.0996904317831043</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.09538772888345924</v>
+        <v>0.09537570837471138</v>
       </c>
     </row>
     <row r="170">
@@ -9246,25 +9246,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="C170" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="E170" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="F170" t="n">
         <v>1.139426523297491</v>
       </c>
       <c r="G170" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="H170" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="I170" t="n">
         <v>0.7870967741935483</v>
@@ -9288,10 +9288,10 @@
         <v>1.414444444444444</v>
       </c>
       <c r="P170" t="n">
-        <v>0.09061178158582328</v>
+        <v>0.09059264536308184</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.08707685906685474</v>
+        <v>0.08705982401322321</v>
       </c>
     </row>
     <row r="171">
@@ -9299,25 +9299,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="C171" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="D171" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="E171" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="F171" t="n">
         <v>0.7870967741935483</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="H171" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="I171" t="n">
         <v>0.4984126984126984</v>
@@ -9341,10 +9341,10 @@
         <v>1.525448028673835</v>
       </c>
       <c r="P171" t="n">
-        <v>0.08548522597783648</v>
+        <v>0.08546597657323751</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.0817251541939987</v>
+        <v>0.08170757775616912</v>
       </c>
     </row>
     <row r="172">
@@ -9352,25 +9352,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="C172" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="E172" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="F172" t="n">
         <v>0.4984126984126984</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="H172" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="I172" t="n">
         <v>0.1942652329749104</v>
@@ -9394,10 +9394,10 @@
         <v>1.572401433691756</v>
       </c>
       <c r="P172" t="n">
-        <v>0.08334471146398706</v>
+        <v>0.0832388528181329</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.07617357604743029</v>
+        <v>0.07606861130456843</v>
       </c>
     </row>
     <row r="173">
@@ -9405,25 +9405,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="C173" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="E173" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="F173" t="n">
         <v>0.1942652329749104</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="H173" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="I173" t="n">
         <v>0.1629629629629629</v>
@@ -9447,10 +9447,10 @@
         <v>2.065925925925926</v>
       </c>
       <c r="P173" t="n">
-        <v>0.06728833541075085</v>
+        <v>0.06727797588453839</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06749574452316881</v>
+        <v>0.06748104551796547</v>
       </c>
     </row>
     <row r="174">
@@ -9458,25 +9458,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="C174" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="E174" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="F174" t="n">
         <v>0.1629629629629629</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="H174" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="I174" t="n">
         <v>0.2247311827956989</v>
@@ -9500,10 +9500,10 @@
         <v>1.940860215053763</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06800771738129782</v>
+        <v>0.06790121390926791</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.06292555770083533</v>
+        <v>0.06282689876045788</v>
       </c>
     </row>
     <row r="175">
@@ -9511,25 +9511,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="C175" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="E175" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="F175" t="n">
         <v>0.2247311827956989</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="H175" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="I175" t="n">
         <v>0.03185185185185185</v>
@@ -9553,10 +9553,10 @@
         <v>1.679259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>0.05945727134039716</v>
+        <v>0.05947497482791341</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.05450067199299327</v>
+        <v>0.05451788066057202</v>
       </c>
     </row>
     <row r="176">
@@ -9564,25 +9564,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="C176" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="E176" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="F176" t="n">
         <v>0.03185185185185185</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="H176" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="I176" t="n">
         <v>0.007885304659498207</v>
@@ -9606,10 +9606,10 @@
         <v>1.139426523297491</v>
       </c>
       <c r="P176" t="n">
-        <v>0.05368639462229616</v>
+        <v>0.05373249671968405</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.05036835928065187</v>
+        <v>0.05042225461706389</v>
       </c>
     </row>
     <row r="177">
@@ -9617,25 +9617,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="C177" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="E177" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="F177" t="n">
         <v>0.007885304659498207</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="H177" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="I177" t="n">
         <v>0.02043010752688172</v>
@@ -9659,10 +9659,10 @@
         <v>0.7870967741935483</v>
       </c>
       <c r="P177" t="n">
-        <v>0.05012633166247895</v>
+        <v>0.05013794124553292</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.04942341742712453</v>
+        <v>0.04943905678388318</v>
       </c>
     </row>
     <row r="178">
@@ -9670,25 +9670,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="C178" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="E178" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="F178" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="H178" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="I178" t="n">
         <v>0.1274074074074074</v>
@@ -9712,10 +9712,10 @@
         <v>0.4984126984126984</v>
       </c>
       <c r="P178" t="n">
-        <v>0.04954172867809827</v>
+        <v>0.04954182489536451</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.04572363449968646</v>
+        <v>0.04572720606380516</v>
       </c>
     </row>
     <row r="179">
@@ -9723,25 +9723,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="C179" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="E179" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="F179" t="n">
         <v>0.1274074074074074</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="H179" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="I179" t="n">
         <v>0.1383512544802867</v>
@@ -9765,10 +9765,10 @@
         <v>0.1942652329749104</v>
       </c>
       <c r="P179" t="n">
-        <v>0.04180498408930373</v>
+        <v>0.04180805398227733</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.03791690179206343</v>
+        <v>0.03792109569860368</v>
       </c>
     </row>
     <row r="180">
@@ -9776,25 +9776,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="C180" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="E180" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="F180" t="n">
         <v>0.1383512544802867</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="H180" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="I180" t="n">
         <v>0.1781481481481481</v>
@@ -9818,10 +9818,10 @@
         <v>0.1629629629629629</v>
       </c>
       <c r="P180" t="n">
-        <v>0.02800021873525766</v>
+        <v>0.02800340521534488</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.02608313544715982</v>
+        <v>0.02608321838133604</v>
       </c>
     </row>
     <row r="181">
@@ -9829,25 +9829,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="C181" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="E181" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="F181" t="n">
         <v>0.1781481481481481</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="H181" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="I181" t="n">
         <v>0.325089605734767</v>
@@ -9871,10 +9871,10 @@
         <v>0.2247311827956989</v>
       </c>
       <c r="P181" t="n">
-        <v>0.02433485220518542</v>
+        <v>0.02431846191851409</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.02571044854820878</v>
+        <v>0.02569492098692143</v>
       </c>
     </row>
     <row r="182">
@@ -9882,25 +9882,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="C182" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="E182" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="F182" t="n">
         <v>0.325089605734767</v>
       </c>
       <c r="G182" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="H182" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="I182" t="n">
         <v>0.2777777777777778</v>
@@ -9924,10 +9924,10 @@
         <v>0.03185185185185185</v>
       </c>
       <c r="P182" t="n">
-        <v>0.02891137063360558</v>
+        <v>0.02889659494577268</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.02786309811084101</v>
+        <v>0.02785190951160245</v>
       </c>
     </row>
     <row r="183">
@@ -9935,25 +9935,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="C183" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="E183" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="F183" t="n">
         <v>0.2777777777777778</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="H183" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="I183" t="n">
         <v>0.1264367816091954</v>
@@ -9977,10 +9977,10 @@
         <v>0.007885304659498207</v>
       </c>
       <c r="P183" t="n">
-        <v>0.02709492040490038</v>
+        <v>0.02708710888601955</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.02487889835423201</v>
+        <v>0.02557924807370969</v>
       </c>
     </row>
     <row r="184">
@@ -9988,25 +9988,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="C184" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="E184" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="F184" t="n">
         <v>0.1264367816091954</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="H184" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="I184" t="n">
         <v>-0.03763440860215054</v>
@@ -10030,10 +10030,10 @@
         <v>0.02043010752688172</v>
       </c>
       <c r="P184" t="n">
-        <v>0.02519687875756308</v>
+        <v>0.02522490956550291</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.02403483383848183</v>
+        <v>0.02406073429678326</v>
       </c>
     </row>
     <row r="185">
@@ -10041,25 +10041,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="C185" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="E185" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="F185" t="n">
         <v>-0.03763440860215054</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="H185" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="I185" t="n">
         <v>-0.03962962962962963</v>
@@ -10083,10 +10083,10 @@
         <v>0.1274074074074074</v>
       </c>
       <c r="P185" t="n">
-        <v>0.02401345829560899</v>
+        <v>0.02400224952901779</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.02335366058933604</v>
+        <v>0.02334467320328188</v>
       </c>
     </row>
     <row r="186">
@@ -10094,25 +10094,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="C186" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="E186" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="F186" t="n">
         <v>-0.03962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="H186" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="I186" t="n">
         <v>0.07240143369175628</v>
@@ -10136,10 +10136,10 @@
         <v>0.1383512544802867</v>
       </c>
       <c r="P186" t="n">
-        <v>0.02344404440385284</v>
+        <v>0.02350577859982913</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.02389586337337124</v>
+        <v>0.02396244555836423</v>
       </c>
     </row>
     <row r="187">
@@ -10147,25 +10147,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="C187" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="E187" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="F187" t="n">
         <v>0.07240143369175628</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="H187" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="I187" t="n">
         <v>0.1688888888888889</v>
@@ -10189,10 +10189,10 @@
         <v>0.1781481481481481</v>
       </c>
       <c r="P187" t="n">
-        <v>0.02526933505302696</v>
+        <v>0.02541574060230458</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.02470541799189769</v>
+        <v>0.02484432437924207</v>
       </c>
     </row>
     <row r="188">
@@ -10200,25 +10200,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="C188" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="E188" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="F188" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="H188" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="I188" t="n">
         <v>0.2010752688172043</v>
@@ -10242,10 +10242,10 @@
         <v>0.325089605734767</v>
       </c>
       <c r="P188" t="n">
-        <v>0.0246943818020312</v>
+        <v>0.02474172036425632</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.02489539364181369</v>
+        <v>0.02494582561672539</v>
       </c>
     </row>
     <row r="189">
@@ -10253,25 +10253,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="C189" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="E189" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="F189" t="n">
         <v>0.2010752688172043</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="H189" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="I189" t="n">
         <v>0.1136200716845878</v>
@@ -10295,10 +10295,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="P189" t="n">
-        <v>0.02498647368434253</v>
+        <v>0.0249766472698704</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.02366250653822875</v>
+        <v>0.02365655912386164</v>
       </c>
     </row>
     <row r="190">
@@ -10306,25 +10306,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="C190" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="E190" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="F190" t="n">
         <v>0.1136200716845878</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="H190" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="I190" t="n">
         <v>-0.04148148148148148</v>
@@ -10348,10 +10348,10 @@
         <v>0.1264367816091954</v>
       </c>
       <c r="P190" t="n">
-        <v>0.02068439333542055</v>
+        <v>0.02068490154989906</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.01807345349703826</v>
+        <v>0.01807509420008427</v>
       </c>
     </row>
     <row r="191">
@@ -10359,25 +10359,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="C191" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="D191" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="E191" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="F191" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="H191" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="I191" t="n">
         <v>-0.1125448028673835</v>
@@ -10401,10 +10401,10 @@
         <v>-0.03763440860215054</v>
       </c>
       <c r="P191" t="n">
-        <v>0.01716855579965077</v>
+        <v>0.01716934999106183</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01746013985184437</v>
+        <v>0.01746123972536253</v>
       </c>
     </row>
     <row r="192">
@@ -10412,25 +10412,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="C192" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="E192" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="F192" t="n">
         <v>-0.1125448028673835</v>
       </c>
       <c r="G192" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="H192" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="I192" t="n">
         <v>0.002962962962962963</v>
@@ -10454,10 +10454,10 @@
         <v>-0.03962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>0.01986090329282972</v>
+        <v>0.01985885384936785</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.02029148927791327</v>
+        <v>0.02028971168347547</v>
       </c>
     </row>
     <row r="193">
@@ -10465,25 +10465,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="C193" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="E193" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="F193" t="n">
         <v>0.002962962962962963</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="H193" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="I193" t="n">
         <v>0.1684587813620072</v>
@@ -10507,10 +10507,10 @@
         <v>0.07240143369175628</v>
       </c>
       <c r="P193" t="n">
-        <v>0.02244594744603627</v>
+        <v>0.02242950990000779</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.02353948614928167</v>
+        <v>0.02352386522892111</v>
       </c>
     </row>
     <row r="194">
@@ -10518,25 +10518,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="C194" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="E194" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="F194" t="n">
         <v>0.1684587813620072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="H194" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="I194" t="n">
         <v>0.2562724014336917</v>
@@ -10560,10 +10560,10 @@
         <v>0.1688888888888889</v>
       </c>
       <c r="P194" t="n">
-        <v>0.02428519162968447</v>
+        <v>0.02427021817738452</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.02457574027894257</v>
+        <v>0.02456198615196982</v>
       </c>
     </row>
     <row r="195">
@@ -10571,25 +10571,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="C195" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="E195" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="F195" t="n">
         <v>0.2562724014336917</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="H195" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="I195" t="n">
         <v>0.2202380952380953</v>
@@ -10613,10 +10613,10 @@
         <v>0.2010752688172043</v>
       </c>
       <c r="P195" t="n">
-        <v>0.02453312691636495</v>
+        <v>0.0245274338373177</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.02337419769171957</v>
+        <v>0.02337084306599755</v>
       </c>
     </row>
     <row r="196">
@@ -10624,25 +10624,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02142881055793033</v>
+        <v>0.02154516241887006</v>
       </c>
       <c r="C196" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="E196" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="F196" t="n">
         <v>0.2202380952380953</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="H196" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="I196" t="n">
         <v>0.1637992831541218</v>
@@ -10666,10 +10666,10 @@
         <v>0.1136200716845878</v>
       </c>
       <c r="P196" t="n">
-        <v>0.02268574299047624</v>
+        <v>0.02270776794719219</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.02180129072341175</v>
+        <v>0.0218229196802936</v>
       </c>
     </row>
     <row r="197">
@@ -10677,25 +10677,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02128486868366952</v>
+        <v>0.02113449834018866</v>
       </c>
       <c r="C197" t="n">
-        <v>6.198329</v>
+        <v>6.24951</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="E197" t="n">
-        <v>6.198329</v>
+        <v>6.24951</v>
       </c>
       <c r="F197" t="n">
         <v>0.1637992831541218</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02142881055793033</v>
+        <v>0.02154516241887006</v>
       </c>
       <c r="H197" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="I197" t="n">
         <v>0.1440740740740741</v>
@@ -10719,32 +10719,40 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P197" t="n">
-        <v>0.02144154166969395</v>
+        <v>0.02155699788846385</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.02128458142596111</v>
+        <v>0.02110648202136114</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.275222</v>
+      </c>
       <c r="D198" t="n">
-        <v>0.02142881055793033</v>
-      </c>
-      <c r="E198" t="inlineStr"/>
+        <v>0.02154516241887006</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.275222</v>
+      </c>
       <c r="F198" t="n">
         <v>0.1440740740740741</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02128486868366952</v>
+        <v>0.02113449834018866</v>
       </c>
       <c r="H198" t="n">
-        <v>6.198329</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>6.24951</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.1229390681003584</v>
+      </c>
       <c r="J198" t="n">
         <v>0.1637992831541218</v>
       </c>
@@ -10764,10 +10772,102 @@
         <v>-0.1125448028673835</v>
       </c>
       <c r="P198" t="n">
-        <v>0.02129869015721086</v>
+        <v>0.02114955973144682</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.0213552092741894</v>
+        <v>0.02059654828227851</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.01967408728367559</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0.02113449834018866</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6.275222</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.2562724014336917</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.1684587813620072</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0.002962962962962963</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0.01872208065335829</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.01905372331115894</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.01967408728367559</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.2562724014336917</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0.1684587813620072</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0.01970065018248565</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.01944679424637292</v>
       </c>
     </row>
   </sheetData>

--- a/HICP_europe_optimized.xlsx
+++ b/HICP_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="C2" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02086130791970842</v>
+        <v>0.0208471246778954</v>
       </c>
       <c r="E2" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554499178460667</v>
+        <v>0.01554643845067272</v>
       </c>
       <c r="H2" t="n">
-        <v>8.363549000000001</v>
+        <v>8.366698</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="C3" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554499178460667</v>
+        <v>0.01554643845067272</v>
       </c>
       <c r="E3" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="H3" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="E4" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="H4" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="C5" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="E5" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="H5" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="C6" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="E6" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="H6" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="C7" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="E7" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="H7" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="C8" t="n">
         <v>9.814273999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="E8" t="n">
         <v>9.814273999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="H8" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,20 +785,20 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="C9" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="E9" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="H9" t="n">
         <v>9.814273999999999</v>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="C10" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="E10" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="H10" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="I10" t="n">
         <v>0.001388888888888889</v>
@@ -861,25 +861,25 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="C11" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="E11" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="F11" t="n">
         <v>0.001388888888888889</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="H11" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -902,25 +902,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="C12" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="E12" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="H12" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -945,25 +945,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="C13" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="E13" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="H13" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -990,25 +990,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="C14" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="E14" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="H14" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1037,25 +1037,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="C15" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="E15" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="H15" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="C16" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="E16" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="H16" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="C17" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="E17" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="H17" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1190,25 +1190,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="C18" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="E18" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="H18" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="I18" t="n">
         <v>-0.01039426523297491</v>
@@ -1243,25 +1243,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="F19" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="H19" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="I19" t="n">
         <v>-0.01111111111111111</v>
@@ -1296,25 +1296,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="C20" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="E20" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="F20" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="H20" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="I20" t="n">
         <v>-0.01111111111111111</v>
@@ -1349,25 +1349,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="C21" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="E21" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="F21" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="H21" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1402,25 +1402,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="C22" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="E22" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="H22" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="C23" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="E23" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="H23" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="I23" t="n">
         <v>-0.001792114695340502</v>
@@ -1508,25 +1508,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="C24" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="E24" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="F24" t="n">
         <v>-0.001792114695340502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="H24" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="I24" t="n">
         <v>-0.01111111111111111</v>
@@ -1561,25 +1561,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="C25" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="E25" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="F25" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="H25" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="I25" t="n">
         <v>-0.01111111111111111</v>
@@ -1614,25 +1614,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="C26" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="E26" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="F26" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="H26" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="I26" t="n">
         <v>-0.003942652329749104</v>
@@ -1667,25 +1667,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="C27" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="E27" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="F27" t="n">
         <v>-0.003942652329749104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="H27" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1720,25 +1720,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="C28" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="E28" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="H28" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="I28" t="n">
         <v>0.02867383512544803</v>
@@ -1773,25 +1773,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="C29" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="E29" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="F29" t="n">
         <v>0.02867383512544803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="H29" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="I29" t="n">
         <v>0.04814814814814815</v>
@@ -1826,25 +1826,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="C30" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="E30" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="F30" t="n">
         <v>0.04814814814814815</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="H30" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="I30" t="n">
         <v>0.05197132616487456</v>
@@ -1879,25 +1879,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="C31" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="E31" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="F31" t="n">
         <v>0.05197132616487456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="H31" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="I31" t="n">
         <v>0.02555555555555556</v>
@@ -1932,25 +1932,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="C32" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="E32" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="F32" t="n">
         <v>0.02555555555555556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="H32" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="I32" t="n">
         <v>-0.006451612903225806</v>
@@ -1985,25 +1985,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="C33" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="E33" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="F33" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="H33" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01899641577060932</v>
@@ -2038,25 +2038,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="C34" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="E34" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="H34" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01111111111111111</v>
@@ -2091,25 +2091,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="C35" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="E35" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="F35" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="H35" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="I35" t="n">
         <v>0.001075268817204301</v>
@@ -2144,25 +2144,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="C36" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="E36" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="F36" t="n">
         <v>0.001075268817204301</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="H36" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="I36" t="n">
         <v>0.01111111111111111</v>
@@ -2197,25 +2197,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="C37" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="E37" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="F37" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="H37" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="I37" t="n">
         <v>0.005376344086021506</v>
@@ -2250,25 +2250,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="C38" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="E38" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="F38" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="H38" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="I38" t="n">
         <v>-0.01577060931899642</v>
@@ -2303,25 +2303,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="C39" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="E39" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="F39" t="n">
         <v>-0.01577060931899642</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="H39" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="I39" t="n">
         <v>-0.03333333333333333</v>
@@ -2356,25 +2356,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="C40" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="E40" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="F40" t="n">
         <v>-0.03333333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="H40" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="I40" t="n">
         <v>-0.006810035842293906</v>
@@ -2409,25 +2409,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="C41" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="E41" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="F41" t="n">
         <v>-0.006810035842293906</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="H41" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="I41" t="n">
         <v>0.02888888888888889</v>
@@ -2462,25 +2462,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="C42" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="E42" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="F42" t="n">
         <v>0.02888888888888889</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="H42" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="I42" t="n">
         <v>0.06594982078853046</v>
@@ -2515,25 +2515,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="C43" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="E43" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="F43" t="n">
         <v>0.06594982078853046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="H43" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="I43" t="n">
         <v>0.07222222222222222</v>
@@ -2568,25 +2568,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="C44" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="E44" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="F44" t="n">
         <v>0.07222222222222222</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="H44" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="I44" t="n">
         <v>0.05591397849462365</v>
@@ -2621,25 +2621,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="C45" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="E45" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="F45" t="n">
         <v>0.05591397849462365</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="H45" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="I45" t="n">
         <v>0.04265232974910394</v>
@@ -2674,25 +2674,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="C46" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="E46" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="F46" t="n">
         <v>0.04265232974910394</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="H46" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="I46" t="n">
         <v>0.03037037037037037</v>
@@ -2727,25 +2727,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="C47" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="E47" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="F47" t="n">
         <v>0.03037037037037037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="H47" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="I47" t="n">
         <v>0.04014336917562724</v>
@@ -2780,25 +2780,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="C48" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="E48" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="F48" t="n">
         <v>0.04014336917562724</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="H48" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="I48" t="n">
         <v>0.01851851851851852</v>
@@ -2833,25 +2833,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="C49" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="E49" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="F49" t="n">
         <v>0.01851851851851852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="H49" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="I49" t="n">
         <v>0.04193548387096774</v>
@@ -2886,25 +2886,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="C50" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="E50" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="F50" t="n">
         <v>0.04193548387096774</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="H50" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="I50" t="n">
         <v>0.03835125448028674</v>
@@ -2939,25 +2939,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="C51" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="E51" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="F51" t="n">
         <v>0.03835125448028674</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="H51" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="I51" t="n">
         <v>0.05714285714285714</v>
@@ -2992,25 +2992,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="C52" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="E52" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="F52" t="n">
         <v>0.05714285714285714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="H52" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="I52" t="n">
         <v>0.05519713261648745</v>
@@ -3045,25 +3045,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="C53" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="E53" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="F53" t="n">
         <v>0.05519713261648745</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="H53" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="I53" t="n">
         <v>0.04407407407407407</v>
@@ -3098,25 +3098,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="C54" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="E54" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="F54" t="n">
         <v>0.04407407407407407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="H54" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="I54" t="n">
         <v>0.05483870967741936</v>
@@ -3151,25 +3151,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="C55" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="E55" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="F55" t="n">
         <v>0.05483870967741936</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="H55" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="I55" t="n">
         <v>0.05777777777777778</v>
@@ -3204,25 +3204,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="C56" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="E56" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="F56" t="n">
         <v>0.05777777777777778</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="H56" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="I56" t="n">
         <v>0.08888888888888889</v>
@@ -3257,25 +3257,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="C57" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="E57" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="F57" t="n">
         <v>0.08888888888888889</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="H57" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="I57" t="n">
         <v>0.06451612903225806</v>
@@ -3310,25 +3310,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="C58" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="E58" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="F58" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="H58" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="I58" t="n">
         <v>0.03592592592592592</v>
@@ -3363,25 +3363,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="C59" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="E59" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="F59" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="H59" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="I59" t="n">
         <v>0.02544802867383512</v>
@@ -3416,25 +3416,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="C60" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="E60" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="F60" t="n">
         <v>0.02544802867383512</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="H60" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="I60" t="n">
         <v>-0.005925925925925926</v>
@@ -3469,25 +3469,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="F61" t="n">
         <v>-0.005925925925925926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="H61" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="I61" t="n">
         <v>-0.07240143369175628</v>
@@ -3522,25 +3522,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="C62" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="E62" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="F62" t="n">
         <v>-0.07240143369175628</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="I62" t="n">
         <v>-0.1379928315412186</v>
@@ -3575,25 +3575,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="C63" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="E63" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="F63" t="n">
         <v>-0.1379928315412186</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="H63" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="I63" t="n">
         <v>-0.217063492063492</v>
@@ -3628,25 +3628,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="C64" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="E64" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="F64" t="n">
         <v>-0.217063492063492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="H64" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="I64" t="n">
         <v>-0.1663082437275986</v>
@@ -3681,25 +3681,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="C65" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="E65" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="F65" t="n">
         <v>-0.1663082437275986</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="H65" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="I65" t="n">
         <v>-0.07962962962962963</v>
@@ -3734,25 +3734,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="C66" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="E66" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="F66" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="H66" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="I66" t="n">
         <v>0.01254480286738351</v>
@@ -3787,25 +3787,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="C67" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="E67" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="F67" t="n">
         <v>0.01254480286738351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="H67" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="I67" t="n">
         <v>-0.02888888888888889</v>
@@ -3840,25 +3840,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="C68" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="E68" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="F68" t="n">
         <v>-0.02888888888888889</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="H68" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="I68" t="n">
         <v>-0.1028673835125448</v>
@@ -3893,25 +3893,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="C69" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="E69" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="F69" t="n">
         <v>-0.1028673835125448</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="H69" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="I69" t="n">
         <v>-0.1727598566308244</v>
@@ -3946,25 +3946,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="C70" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="E70" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="F70" t="n">
         <v>-0.1727598566308244</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="H70" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="I70" t="n">
         <v>-0.1137037037037037</v>
@@ -3999,25 +3999,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="C71" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="E71" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="F71" t="n">
         <v>-0.1137037037037037</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="H71" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="I71" t="n">
         <v>-0.07132616487455197</v>
@@ -4052,25 +4052,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="C72" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="E72" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="F72" t="n">
         <v>-0.07132616487455197</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="H72" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="I72" t="n">
         <v>-0.0262962962962963</v>
@@ -4105,25 +4105,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="C73" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="E73" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="F73" t="n">
         <v>-0.0262962962962963</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="H73" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="I73" t="n">
         <v>-0.05412186379928315</v>
@@ -4158,25 +4158,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="C74" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="E74" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="F74" t="n">
         <v>-0.05412186379928315</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="H74" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="I74" t="n">
         <v>-0.1218637992831541</v>
@@ -4211,25 +4211,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="C75" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="E75" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="F75" t="n">
         <v>-0.1218637992831541</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="H75" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="I75" t="n">
         <v>-0.1404761904761905</v>
@@ -4264,25 +4264,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="C76" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="E76" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="F76" t="n">
         <v>-0.1404761904761905</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="H76" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="I76" t="n">
         <v>-0.06415770609318996</v>
@@ -4317,25 +4317,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="C77" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="E77" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="F77" t="n">
         <v>-0.06415770609318996</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="H77" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="I77" t="n">
         <v>0.0737037037037037</v>
@@ -4370,25 +4370,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="C78" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="E78" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="F78" t="n">
         <v>0.0737037037037037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="H78" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="I78" t="n">
         <v>0.1698924731182796</v>
@@ -4423,25 +4423,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="C79" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="E79" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="F79" t="n">
         <v>0.1698924731182796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="H79" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="I79" t="n">
         <v>0.1159259259259259</v>
@@ -4476,25 +4476,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="C80" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="E80" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="F80" t="n">
         <v>0.1159259259259259</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="H80" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="I80" t="n">
         <v>0.08422939068100359</v>
@@ -4529,25 +4529,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="C81" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="E81" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="F81" t="n">
         <v>0.08422939068100359</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="H81" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="I81" t="n">
         <v>0.02795698924731183</v>
@@ -4582,25 +4582,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="C82" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="E82" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="F82" t="n">
         <v>0.02795698924731183</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="H82" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="I82" t="n">
         <v>0.01703703703703703</v>
@@ -4635,25 +4635,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="C83" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="E83" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="F83" t="n">
         <v>0.01703703703703703</v>
       </c>
       <c r="G83" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="H83" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="I83" t="n">
         <v>-0.03369175627240144</v>
@@ -4688,25 +4688,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="C84" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="E84" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="F84" t="n">
         <v>-0.03369175627240144</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="H84" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="I84" t="n">
         <v>-0.01</v>
@@ -4741,25 +4741,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="C85" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="E85" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="F85" t="n">
         <v>-0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="H85" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="I85" t="n">
         <v>0.02401433691756272</v>
@@ -4794,25 +4794,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="C86" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="E86" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="F86" t="n">
         <v>0.02401433691756272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="H86" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="I86" t="n">
         <v>-0.007885304659498209</v>
@@ -4847,25 +4847,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="C87" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="E87" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="F87" t="n">
         <v>-0.007885304659498209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="H87" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="I87" t="n">
         <v>-0.08199233716475096</v>
@@ -4900,25 +4900,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="C88" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="E88" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="F88" t="n">
         <v>-0.08199233716475096</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="H88" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="I88" t="n">
         <v>-0.1315412186379928</v>
@@ -4953,25 +4953,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="C89" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="E89" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="F89" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="H89" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="I89" t="n">
         <v>-0.1125925925925926</v>
@@ -5006,25 +5006,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="C90" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="E90" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="F90" t="n">
         <v>-0.1125925925925926</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="H90" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="I90" t="n">
         <v>-0.01899641577060932</v>
@@ -5059,25 +5059,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="C91" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="E91" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="F91" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="H91" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="I91" t="n">
         <v>0.03592592592592592</v>
@@ -5112,25 +5112,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="C92" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="E92" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="F92" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="H92" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="I92" t="n">
         <v>0.1290322580645161</v>
@@ -5165,25 +5165,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="C93" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="E93" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="F93" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="H93" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="I93" t="n">
         <v>0.1175627240143369</v>
@@ -5218,25 +5218,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="C94" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="E94" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="F94" t="n">
         <v>0.1175627240143369</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="H94" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="I94" t="n">
         <v>0.08111111111111111</v>
@@ -5271,25 +5271,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="C95" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="E95" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="F95" t="n">
         <v>0.08111111111111111</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="H95" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="I95" t="n">
         <v>0.09749103942652329</v>
@@ -5324,25 +5324,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="C96" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="E96" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="F96" t="n">
         <v>0.09749103942652329</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="H96" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="I96" t="n">
         <v>0.1696296296296296</v>
@@ -5377,25 +5377,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="C97" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="E97" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="F97" t="n">
         <v>0.1696296296296296</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="H97" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="I97" t="n">
         <v>0.2150537634408602</v>
@@ -5430,25 +5430,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="C98" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="E98" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="F98" t="n">
         <v>0.2150537634408602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="H98" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="I98" t="n">
         <v>0.2505376344086022</v>
@@ -5483,25 +5483,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="C99" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="E99" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="F99" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="H99" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="I99" t="n">
         <v>0.301984126984127</v>
@@ -5536,25 +5536,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="C100" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="E100" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="F100" t="n">
         <v>0.301984126984127</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="H100" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.2867383512544803</v>
@@ -5589,25 +5589,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="C101" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="E101" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="F101" t="n">
         <v>0.2867383512544803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="H101" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="I101" t="n">
         <v>0.2062962962962963</v>
@@ -5642,25 +5642,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="C102" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="E102" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="F102" t="n">
         <v>0.2062962962962963</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="H102" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="I102" t="n">
         <v>0.1075268817204301</v>
@@ -5695,25 +5695,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="C103" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="E103" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="F103" t="n">
         <v>0.1075268817204301</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="H103" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="I103" t="n">
         <v>0.09222222222222222</v>
@@ -5748,25 +5748,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="C104" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="E104" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="F104" t="n">
         <v>0.09222222222222222</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="H104" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="I104" t="n">
         <v>0.09247311827956989</v>
@@ -5801,25 +5801,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="C105" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="E105" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="F105" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="H105" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="I105" t="n">
         <v>0.1379928315412186</v>
@@ -5854,25 +5854,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="C106" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="E106" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="F106" t="n">
         <v>0.1379928315412186</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="H106" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="I106" t="n">
         <v>0.1518518518518518</v>
@@ -5907,25 +5907,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="C107" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="E107" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="F107" t="n">
         <v>0.1518518518518518</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="H107" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="I107" t="n">
         <v>0.1935483870967742</v>
@@ -5960,25 +5960,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="C108" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="E108" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="F108" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="H108" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="I108" t="n">
         <v>0.1766666666666667</v>
@@ -6013,25 +6013,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="C109" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="E109" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="F109" t="n">
         <v>0.1766666666666667</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="H109" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="I109" t="n">
         <v>0.2376344086021505</v>
@@ -6066,25 +6066,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="C110" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="E110" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="F110" t="n">
         <v>0.2376344086021505</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="H110" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="I110" t="n">
         <v>0.2261648745519713</v>
@@ -6119,25 +6119,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="C111" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="E111" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="F111" t="n">
         <v>0.2261648745519713</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="H111" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="I111" t="n">
         <v>0.2333333333333333</v>
@@ -6172,25 +6172,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="C112" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="E112" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="F112" t="n">
         <v>0.2333333333333333</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="H112" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="I112" t="n">
         <v>0.2064516129032258</v>
@@ -6225,25 +6225,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="C113" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="E113" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="F113" t="n">
         <v>0.2064516129032258</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="H113" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="I113" t="n">
         <v>0.1688888888888889</v>
@@ -6278,25 +6278,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="C114" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="E114" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="F114" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="H114" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="I114" t="n">
         <v>0.1523297491039426</v>
@@ -6331,25 +6331,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="C115" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="E115" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="F115" t="n">
         <v>0.1523297491039426</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="H115" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="I115" t="n">
         <v>0.1503703703703704</v>
@@ -6384,25 +6384,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="C116" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="E116" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="F116" t="n">
         <v>0.1503703703703704</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="H116" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="I116" t="n">
         <v>0.2584229390681004</v>
@@ -6437,25 +6437,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="C117" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="E117" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="F117" t="n">
         <v>0.2584229390681004</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="H117" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="I117" t="n">
         <v>0.2853046594982079</v>
@@ -6490,25 +6490,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="C118" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="E118" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="F118" t="n">
         <v>0.2853046594982079</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="H118" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="I118" t="n">
         <v>0.3266666666666667</v>
@@ -6543,25 +6543,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="C119" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="E119" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="F119" t="n">
         <v>0.3266666666666667</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="H119" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="I119" t="n">
         <v>0.2505376344086022</v>
@@ -6596,25 +6596,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="C120" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="E120" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="F120" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="H120" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="I120" t="n">
         <v>0.1974074074074074</v>
@@ -6649,25 +6649,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="C121" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="E121" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="F121" t="n">
         <v>0.1974074074074074</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="H121" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="I121" t="n">
         <v>0.1017921146953405</v>
@@ -6702,25 +6702,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="C122" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="E122" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="F122" t="n">
         <v>0.1017921146953405</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="H122" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="I122" t="n">
         <v>0.07813620071684588</v>
@@ -6755,25 +6755,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="C123" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="E123" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="F123" t="n">
         <v>0.07813620071684588</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="H123" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="I123" t="n">
         <v>0.08293650793650795</v>
@@ -6797,10 +6797,10 @@
         <v>0.2584229390681004</v>
       </c>
       <c r="P123" t="n">
-        <v>0.01247645698981842</v>
+        <v>0.01247031380130571</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.01270545536656372</v>
+        <v>0.01269940833414403</v>
       </c>
     </row>
     <row r="124">
@@ -6808,25 +6808,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="C124" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="E124" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="F124" t="n">
         <v>0.08293650793650795</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="H124" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="I124" t="n">
         <v>0.09247311827956989</v>
@@ -6850,10 +6850,10 @@
         <v>0.2853046594982079</v>
       </c>
       <c r="P124" t="n">
-        <v>0.01371173760009231</v>
+        <v>0.01370737147973195</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01392758971806846</v>
+        <v>0.01392333605305902</v>
       </c>
     </row>
     <row r="125">
@@ -6861,25 +6861,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="F125" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="H125" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="I125" t="n">
         <v>0.122962962962963</v>
@@ -6903,10 +6903,10 @@
         <v>0.3266666666666667</v>
       </c>
       <c r="P125" t="n">
-        <v>0.01424192510565493</v>
+        <v>0.01424411665681632</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.01445920496039294</v>
+        <v>0.01446145936242897</v>
       </c>
     </row>
     <row r="126">
@@ -6914,25 +6914,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="C126" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="E126" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="F126" t="n">
         <v>0.122962962962963</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="I126" t="n">
         <v>0.1344086021505376</v>
@@ -6956,10 +6956,10 @@
         <v>0.2505376344086022</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01593069203444438</v>
+        <v>0.01595951368475089</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.01615884101532655</v>
+        <v>0.01618751458259053</v>
       </c>
     </row>
     <row r="127">
@@ -6967,25 +6967,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="C127" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="E127" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="F127" t="n">
         <v>0.1344086021505376</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="H127" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="I127" t="n">
         <v>0.1455555555555555</v>
@@ -7009,10 +7009,10 @@
         <v>0.1974074074074074</v>
       </c>
       <c r="P127" t="n">
-        <v>0.01267189319969631</v>
+        <v>0.01267298788079733</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.01294284860639577</v>
+        <v>0.01294410067337919</v>
       </c>
     </row>
     <row r="128">
@@ -7020,25 +7020,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="C128" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="E128" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="F128" t="n">
         <v>0.1455555555555555</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="H128" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="I128" t="n">
         <v>0.1290322580645161</v>
@@ -7062,10 +7062,10 @@
         <v>0.1017921146953405</v>
       </c>
       <c r="P128" t="n">
-        <v>0.0120573452303374</v>
+        <v>0.01206360837507913</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.01233892315101507</v>
+        <v>0.01234532895397861</v>
       </c>
     </row>
     <row r="129">
@@ -7073,25 +7073,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="C129" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="E129" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="F129" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="H129" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="I129" t="n">
         <v>0.0989247311827957</v>
@@ -7115,10 +7115,10 @@
         <v>0.07813620071684588</v>
       </c>
       <c r="P129" t="n">
-        <v>0.01109800475241357</v>
+        <v>0.01107731179705769</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.01099344092745072</v>
+        <v>0.01097224930480482</v>
       </c>
     </row>
     <row r="130">
@@ -7126,25 +7126,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="C130" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="E130" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="F130" t="n">
         <v>0.0989247311827957</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="H130" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="I130" t="n">
         <v>0.112962962962963</v>
@@ -7168,10 +7168,10 @@
         <v>0.08293650793650795</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01089924120454946</v>
+        <v>0.01089935849141978</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.01081138284414558</v>
+        <v>0.01081156275986172</v>
       </c>
     </row>
     <row r="131">
@@ -7179,25 +7179,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="C131" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="E131" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="F131" t="n">
         <v>0.112962962962963</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="H131" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="I131" t="n">
         <v>0.0910394265232975</v>
@@ -7221,10 +7221,10 @@
         <v>0.09247311827956989</v>
       </c>
       <c r="P131" t="n">
-        <v>0.00905630722508795</v>
+        <v>0.009050421097386878</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.008915473625449848</v>
+        <v>0.008909571702148258</v>
       </c>
     </row>
     <row r="132">
@@ -7232,25 +7232,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="C132" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="E132" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="F132" t="n">
         <v>0.0910394265232975</v>
       </c>
       <c r="G132" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="H132" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="I132" t="n">
         <v>0.1081481481481481</v>
@@ -7274,10 +7274,10 @@
         <v>0.122962962962963</v>
       </c>
       <c r="P132" t="n">
-        <v>0.008019291122938138</v>
+        <v>0.008015028462207816</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.008311270955283816</v>
+        <v>0.008307086091731275</v>
       </c>
     </row>
     <row r="133">
@@ -7285,25 +7285,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="C133" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="E133" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="F133" t="n">
         <v>0.1081481481481481</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="H133" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="I133" t="n">
         <v>0.1082437275985663</v>
@@ -7327,10 +7327,10 @@
         <v>0.1344086021505376</v>
       </c>
       <c r="P133" t="n">
-        <v>0.009059491976499646</v>
+        <v>0.009053962462828188</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.009658128455313997</v>
+        <v>0.009651870535891137</v>
       </c>
     </row>
     <row r="134">
@@ -7338,25 +7338,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="C134" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="D134" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="E134" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="F134" t="n">
         <v>0.1082437275985663</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="H134" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="I134" t="n">
         <v>0.1275985663082437</v>
@@ -7380,10 +7380,10 @@
         <v>0.1455555555555555</v>
       </c>
       <c r="P134" t="n">
-        <v>0.01330295915854881</v>
+        <v>0.01330317677611305</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01343096725343687</v>
+        <v>0.01343134390858706</v>
       </c>
     </row>
     <row r="135">
@@ -7391,25 +7391,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="C135" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="E135" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="F135" t="n">
         <v>0.1275985663082437</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="H135" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="I135" t="n">
         <v>0.09578544061302682</v>
@@ -7433,10 +7433,10 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="P135" t="n">
-        <v>0.01339475443397515</v>
+        <v>0.01339190035823359</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.01336718867711541</v>
+        <v>0.01336437377355901</v>
       </c>
     </row>
     <row r="136">
@@ -7444,25 +7444,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="C136" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="E136" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="F136" t="n">
         <v>0.09578544061302682</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="H136" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="I136" t="n">
         <v>0.06057347670250896</v>
@@ -7486,10 +7486,10 @@
         <v>0.0989247311827957</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01210410983349777</v>
+        <v>0.01210562842579614</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.01206424938928431</v>
+        <v>0.01206586286864805</v>
       </c>
     </row>
     <row r="137">
@@ -7497,25 +7497,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="C137" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="E137" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="F137" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="H137" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="I137" t="n">
         <v>-0.01222222222222222</v>
@@ -7539,10 +7539,10 @@
         <v>0.112962962962963</v>
       </c>
       <c r="P137" t="n">
-        <v>0.00793085335595301</v>
+        <v>0.007940058368846849</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.007822783978785197</v>
+        <v>0.007832183793724808</v>
       </c>
     </row>
     <row r="138">
@@ -7550,25 +7550,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="C138" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="E138" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="F138" t="n">
         <v>-0.01222222222222222</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="H138" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="I138" t="n">
         <v>0.01935483870967742</v>
@@ -7592,10 +7592,10 @@
         <v>0.0910394265232975</v>
       </c>
       <c r="P138" t="n">
-        <v>0.003299930472840484</v>
+        <v>0.003330660774893071</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.00312849335705046</v>
+        <v>0.003159792554154363</v>
       </c>
     </row>
     <row r="139">
@@ -7603,25 +7603,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="C139" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="E139" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="F139" t="n">
         <v>0.01935483870967742</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="H139" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="I139" t="n">
         <v>0.07518518518518519</v>
@@ -7645,10 +7645,10 @@
         <v>0.1081481481481481</v>
       </c>
       <c r="P139" t="n">
-        <v>0.000837452635068401</v>
+        <v>0.000847210946102862</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.001775783137999473</v>
+        <v>0.001784346535911061</v>
       </c>
     </row>
     <row r="140">
@@ -7656,25 +7656,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="C140" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="E140" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="F140" t="n">
         <v>0.07518518518518519</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="H140" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="I140" t="n">
         <v>0.2014336917562724</v>
@@ -7698,10 +7698,10 @@
         <v>0.1082437275985663</v>
       </c>
       <c r="P140" t="n">
-        <v>0.002686748022677517</v>
+        <v>0.002699114113636714</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.003185881898811799</v>
+        <v>0.003127117575514308</v>
       </c>
     </row>
     <row r="141">
@@ -7709,25 +7709,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="C141" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="E141" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="F141" t="n">
         <v>0.2014336917562724</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="H141" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="I141" t="n">
         <v>0.185663082437276</v>
@@ -7751,10 +7751,10 @@
         <v>0.1275985663082437</v>
       </c>
       <c r="P141" t="n">
-        <v>0.00337111403605734</v>
+        <v>0.003319087897905533</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.003184447721709149</v>
+        <v>0.003131220808316587</v>
       </c>
     </row>
     <row r="142">
@@ -7762,25 +7762,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="C142" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="E142" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="F142" t="n">
         <v>0.185663082437276</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="H142" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="I142" t="n">
         <v>0.1507407407407407</v>
@@ -7804,10 +7804,10 @@
         <v>0.09578544061302682</v>
       </c>
       <c r="P142" t="n">
-        <v>-0.001958955981435403</v>
+        <v>-0.001955701451368789</v>
       </c>
       <c r="Q142" t="n">
-        <v>-0.002280817919050741</v>
+        <v>-0.002277656508982219</v>
       </c>
     </row>
     <row r="143">
@@ -7815,25 +7815,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="C143" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="E143" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="F143" t="n">
         <v>0.1507407407407407</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="H143" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="I143" t="n">
         <v>0.1444444444444445</v>
@@ -7857,10 +7857,10 @@
         <v>0.06057347670250896</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.002829464169344568</v>
+        <v>-0.002837244419259582</v>
       </c>
       <c r="Q143" t="n">
-        <v>-0.002626768984534786</v>
+        <v>-0.002634121010389614</v>
       </c>
     </row>
     <row r="144">
@@ -7868,25 +7868,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="C144" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="E144" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="F144" t="n">
         <v>0.1444444444444445</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="H144" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="I144" t="n">
         <v>0.1655555555555556</v>
@@ -7910,10 +7910,10 @@
         <v>-0.01222222222222222</v>
       </c>
       <c r="P144" t="n">
-        <v>-0.002402645185532998</v>
+        <v>-0.002412691484867976</v>
       </c>
       <c r="Q144" t="n">
-        <v>-0.002482665245228522</v>
+        <v>-0.002492727751844713</v>
       </c>
     </row>
     <row r="145">
@@ -7921,25 +7921,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="C145" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="E145" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="F145" t="n">
         <v>0.1655555555555556</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="H145" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="I145" t="n">
         <v>0.1655913978494624</v>
@@ -7963,10 +7963,10 @@
         <v>0.01935483870967742</v>
       </c>
       <c r="P145" t="n">
-        <v>-0.002245506864464902</v>
+        <v>-0.00224961915523338</v>
       </c>
       <c r="Q145" t="n">
-        <v>-0.002579026932386204</v>
+        <v>-0.002554383377531178</v>
       </c>
     </row>
     <row r="146">
@@ -7974,25 +7974,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="C146" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="E146" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="F146" t="n">
         <v>0.1655913978494624</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="H146" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="I146" t="n">
         <v>0.1577060931899641</v>
@@ -8016,10 +8016,10 @@
         <v>0.07518518518518519</v>
       </c>
       <c r="P146" t="n">
-        <v>-0.002358418688266314</v>
+        <v>-0.002355820246769921</v>
       </c>
       <c r="Q146" t="n">
-        <v>-0.001836607763947653</v>
+        <v>-0.001834934277920112</v>
       </c>
     </row>
     <row r="147">
@@ -8027,25 +8027,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="C147" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="E147" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="F147" t="n">
         <v>0.1577060931899641</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="H147" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="I147" t="n">
         <v>0.2051587301587302</v>
@@ -8069,10 +8069,10 @@
         <v>0.2014336917562724</v>
       </c>
       <c r="P147" t="n">
-        <v>0.007386889459868345</v>
+        <v>0.007386615174105717</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.007837442339569879</v>
+        <v>0.007837448889303688</v>
       </c>
     </row>
     <row r="148">
@@ -8080,25 +8080,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="C148" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="E148" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="F148" t="n">
         <v>0.2051587301587302</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="H148" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="I148" t="n">
         <v>0.2275985663082437</v>
@@ -8122,10 +8122,10 @@
         <v>0.185663082437276</v>
       </c>
       <c r="P148" t="n">
-        <v>0.007912526794405945</v>
+        <v>0.00792577213434913</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.008485976927224949</v>
+        <v>0.008498939850503951</v>
       </c>
     </row>
     <row r="149">
@@ -8133,25 +8133,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="C149" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="E149" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="F149" t="n">
         <v>0.2275985663082437</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="H149" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="I149" t="n">
         <v>0.2496296296296296</v>
@@ -8175,10 +8175,10 @@
         <v>0.1507407407407407</v>
       </c>
       <c r="P149" t="n">
-        <v>0.0125315752040141</v>
+        <v>0.01254917806467526</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.01314459617023147</v>
+        <v>0.013160873165751</v>
       </c>
     </row>
     <row r="150">
@@ -8186,25 +8186,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="C150" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="E150" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="F150" t="n">
         <v>0.2496296296296296</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="H150" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="I150" t="n">
         <v>0.2663082437275986</v>
@@ -8228,10 +8228,10 @@
         <v>0.1444444444444445</v>
       </c>
       <c r="P150" t="n">
-        <v>0.01569199428408659</v>
+        <v>0.01572714063365951</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.01645825061071757</v>
+        <v>0.01649169789082919</v>
       </c>
     </row>
     <row r="151">
@@ -8239,25 +8239,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="C151" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="E151" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="F151" t="n">
         <v>0.2663082437275986</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="H151" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="I151" t="n">
         <v>0.3296296296296297</v>
@@ -8281,10 +8281,10 @@
         <v>0.1655555555555556</v>
       </c>
       <c r="P151" t="n">
-        <v>0.01909093619572596</v>
+        <v>0.01910192003706729</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.01996514405488438</v>
+        <v>0.01997558685358892</v>
       </c>
     </row>
     <row r="152">
@@ -8292,25 +8292,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="C152" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="E152" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="F152" t="n">
         <v>0.3296296296296297</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="H152" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="I152" t="n">
         <v>0.3612903225806451</v>
@@ -8334,10 +8334,10 @@
         <v>0.1655913978494624</v>
       </c>
       <c r="P152" t="n">
-        <v>0.01965232841944236</v>
+        <v>0.0196669347192586</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.02065728118144238</v>
+        <v>0.02066973518971283</v>
       </c>
     </row>
     <row r="153">
@@ -8345,25 +8345,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="C153" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="E153" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="F153" t="n">
         <v>0.3612903225806451</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="H153" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="I153" t="n">
         <v>0.5200716845878136</v>
@@ -8387,10 +8387,10 @@
         <v>0.1577060931899641</v>
       </c>
       <c r="P153" t="n">
-        <v>0.02328541194083769</v>
+        <v>0.02326026257765916</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.02460161718081303</v>
+        <v>0.02457229890778107</v>
       </c>
     </row>
     <row r="154">
@@ -8398,25 +8398,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="C154" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="E154" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="F154" t="n">
         <v>0.5200716845878136</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="H154" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="I154" t="n">
         <v>0.7100000000000001</v>
@@ -8440,10 +8440,10 @@
         <v>0.2051587301587302</v>
       </c>
       <c r="P154" t="n">
-        <v>0.03081632060192256</v>
+        <v>0.03082147333828256</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.03394337130815146</v>
+        <v>0.03394341509726423</v>
       </c>
     </row>
     <row r="155">
@@ -8451,25 +8451,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="C155" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="E155" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="F155" t="n">
         <v>0.7100000000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="H155" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="I155" t="n">
         <v>1.146594982078853</v>
@@ -8493,10 +8493,10 @@
         <v>0.2275985663082437</v>
       </c>
       <c r="P155" t="n">
-        <v>0.0338656830342761</v>
+        <v>0.03384066761034436</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.03928998392599806</v>
+        <v>0.0392504852907564</v>
       </c>
     </row>
     <row r="156">
@@ -8504,25 +8504,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="C156" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="E156" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="F156" t="n">
         <v>1.146594982078853</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="H156" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="I156" t="n">
         <v>1.172592592592593</v>
@@ -8546,10 +8546,10 @@
         <v>0.2496296296296296</v>
       </c>
       <c r="P156" t="n">
-        <v>0.04046125641913029</v>
+        <v>0.04044885102653685</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.04684971600668107</v>
+        <v>0.04683596308979203</v>
       </c>
     </row>
     <row r="157">
@@ -8557,25 +8557,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="C157" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="E157" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="F157" t="n">
         <v>1.172592592592593</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="H157" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="I157" t="n">
         <v>1.312186379928315</v>
@@ -8599,10 +8599,10 @@
         <v>0.2663082437275986</v>
       </c>
       <c r="P157" t="n">
-        <v>0.04706472938736198</v>
+        <v>0.04706316902301096</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.04887503678749595</v>
+        <v>0.04887324714127191</v>
       </c>
     </row>
     <row r="158">
@@ -8610,25 +8610,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="C158" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="E158" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="F158" t="n">
         <v>1.312186379928315</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="H158" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="I158" t="n">
         <v>1.216487455197133</v>
@@ -8652,10 +8652,10 @@
         <v>0.3296296296296297</v>
       </c>
       <c r="P158" t="n">
-        <v>0.04935577509568922</v>
+        <v>0.04935102024641756</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05124993867455153</v>
+        <v>0.05124627711250913</v>
       </c>
     </row>
     <row r="159">
@@ -8663,25 +8663,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="C159" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="E159" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="F159" t="n">
         <v>1.216487455197133</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="H159" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="I159" t="n">
         <v>1.365873015873016</v>
@@ -8705,10 +8705,10 @@
         <v>0.3612903225806451</v>
       </c>
       <c r="P159" t="n">
-        <v>0.05016089190715644</v>
+        <v>0.05016271926201006</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05425266902724668</v>
+        <v>0.05425770310546671</v>
       </c>
     </row>
     <row r="160">
@@ -8716,25 +8716,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="C160" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="E160" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="F160" t="n">
         <v>1.365873015873016</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="H160" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="I160" t="n">
         <v>1.363440860215054</v>
@@ -8758,10 +8758,10 @@
         <v>0.5200716845878136</v>
       </c>
       <c r="P160" t="n">
-        <v>0.05781538365772337</v>
+        <v>0.05782935080564908</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06227008054515017</v>
+        <v>0.06228804826624024</v>
       </c>
     </row>
     <row r="161">
@@ -8769,25 +8769,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="C161" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="E161" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="F161" t="n">
         <v>1.363440860215054</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="H161" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="I161" t="n">
         <v>1.36</v>
@@ -8811,10 +8811,10 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="P161" t="n">
-        <v>0.07551305115825843</v>
+        <v>0.07553639777583802</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.0766095453153048</v>
+        <v>0.07663200630420829</v>
       </c>
     </row>
     <row r="162">
@@ -8822,25 +8822,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="C162" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="E162" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="F162" t="n">
         <v>1.36</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="H162" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="I162" t="n">
         <v>1.419354838709677</v>
@@ -8864,10 +8864,10 @@
         <v>1.146594982078853</v>
       </c>
       <c r="P162" t="n">
-        <v>0.07495151100467851</v>
+        <v>0.07497321474302363</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.07783026561508187</v>
+        <v>0.07785344984560287</v>
       </c>
     </row>
     <row r="163">
@@ -8875,25 +8875,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="C163" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="E163" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="F163" t="n">
         <v>1.419354838709677</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="H163" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="I163" t="n">
         <v>1.414444444444444</v>
@@ -8917,10 +8917,10 @@
         <v>1.172592592592593</v>
       </c>
       <c r="P163" t="n">
-        <v>0.08141213091418463</v>
+        <v>0.08145522540732465</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.08282802470177839</v>
+        <v>0.08286987696461923</v>
       </c>
     </row>
     <row r="164">
@@ -8928,25 +8928,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="C164" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="E164" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="F164" t="n">
         <v>1.414444444444444</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="H164" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="I164" t="n">
         <v>1.525448028673835</v>
@@ -8970,10 +8970,10 @@
         <v>1.312186379928315</v>
       </c>
       <c r="P164" t="n">
-        <v>0.08677008832374428</v>
+        <v>0.08682979403337074</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.08682734184684833</v>
+        <v>0.08688399896962856</v>
       </c>
     </row>
     <row r="165">
@@ -8981,25 +8981,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="C165" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="E165" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="F165" t="n">
         <v>1.525448028673835</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="H165" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="I165" t="n">
         <v>1.572401433691756</v>
@@ -9023,10 +9023,10 @@
         <v>1.216487455197133</v>
       </c>
       <c r="P165" t="n">
-        <v>0.08792138079244152</v>
+        <v>0.0878318327829348</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.08888702666380591</v>
+        <v>0.08880674489191236</v>
       </c>
     </row>
     <row r="166">
@@ -9034,25 +9034,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="C166" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="E166" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="F166" t="n">
         <v>1.572401433691756</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="H166" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="I166" t="n">
         <v>2.065925925925926</v>
@@ -9076,10 +9076,10 @@
         <v>1.365873015873016</v>
       </c>
       <c r="P166" t="n">
-        <v>0.09081420541156844</v>
+        <v>0.09078248171749555</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.09471699456409592</v>
+        <v>0.09468772104480651</v>
       </c>
     </row>
     <row r="167">
@@ -9087,25 +9087,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="C167" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="D167" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="E167" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="F167" t="n">
         <v>2.065925925925926</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="H167" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="I167" t="n">
         <v>1.940860215053763</v>
@@ -9129,10 +9129,10 @@
         <v>1.363440860215054</v>
       </c>
       <c r="P167" t="n">
-        <v>0.09941491370548861</v>
+        <v>0.09937793102437104</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.101453156582754</v>
+        <v>0.1014197826876439</v>
       </c>
     </row>
     <row r="168">
@@ -9140,25 +9140,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="C168" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="E168" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="F168" t="n">
         <v>1.940860215053763</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="H168" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="I168" t="n">
         <v>1.679259259259259</v>
@@ -9182,10 +9182,10 @@
         <v>1.36</v>
       </c>
       <c r="P168" t="n">
-        <v>0.1061958873999436</v>
+        <v>0.1061698149972277</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.1000442120240249</v>
+        <v>0.1000210630695777</v>
       </c>
     </row>
     <row r="169">
@@ -9193,25 +9193,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="C169" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="E169" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="F169" t="n">
         <v>1.679259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="H169" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="I169" t="n">
         <v>1.139426523297491</v>
@@ -9235,10 +9235,10 @@
         <v>1.419354838709677</v>
       </c>
       <c r="P169" t="n">
-        <v>0.0996904317831043</v>
+        <v>0.09968781656482566</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.09537570837471138</v>
+        <v>0.09536932686946352</v>
       </c>
     </row>
     <row r="170">
@@ -9246,25 +9246,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="C170" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="D170" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="E170" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="F170" t="n">
         <v>1.139426523297491</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="H170" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="I170" t="n">
         <v>0.7870967741935483</v>
@@ -9288,10 +9288,10 @@
         <v>1.414444444444444</v>
       </c>
       <c r="P170" t="n">
-        <v>0.09059264536308184</v>
+        <v>0.09059340961901398</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.08705982401322321</v>
+        <v>0.08706237267031676</v>
       </c>
     </row>
     <row r="171">
@@ -9299,25 +9299,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="C171" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="E171" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="F171" t="n">
         <v>0.7870967741935483</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="H171" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="I171" t="n">
         <v>0.4984126984126984</v>
@@ -9341,10 +9341,10 @@
         <v>1.525448028673835</v>
       </c>
       <c r="P171" t="n">
-        <v>0.08546597657323751</v>
+        <v>0.08535866524337707</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.08170757775616912</v>
+        <v>0.08160419033036506</v>
       </c>
     </row>
     <row r="172">
@@ -9352,25 +9352,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="C172" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="E172" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="F172" t="n">
         <v>0.4984126984126984</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="H172" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="I172" t="n">
         <v>0.1942652329749104</v>
@@ -9394,10 +9394,10 @@
         <v>1.572401433691756</v>
       </c>
       <c r="P172" t="n">
-        <v>0.0832388528181329</v>
+        <v>0.08326024399995177</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.07606861130456843</v>
+        <v>0.07609630526553657</v>
       </c>
     </row>
     <row r="173">
@@ -9405,25 +9405,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="C173" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="E173" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="F173" t="n">
         <v>0.1942652329749104</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="H173" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="I173" t="n">
         <v>0.1629629629629629</v>
@@ -9447,10 +9447,10 @@
         <v>2.065925925925926</v>
       </c>
       <c r="P173" t="n">
-        <v>0.06727797588453839</v>
+        <v>0.06730323389746624</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06748104551796547</v>
+        <v>0.06750808463200508</v>
       </c>
     </row>
     <row r="174">
@@ -9458,25 +9458,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="C174" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="E174" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="F174" t="n">
         <v>0.1629629629629629</v>
       </c>
       <c r="G174" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="H174" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="I174" t="n">
         <v>0.2247311827956989</v>
@@ -9500,10 +9500,10 @@
         <v>1.940860215053763</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06790121390926791</v>
+        <v>0.06790308868925556</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.06282689876045788</v>
+        <v>0.0628263566566878</v>
       </c>
     </row>
     <row r="175">
@@ -9511,25 +9511,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="C175" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="D175" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="E175" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="F175" t="n">
         <v>0.2247311827956989</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="H175" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="I175" t="n">
         <v>0.03185185185185185</v>
@@ -9553,10 +9553,10 @@
         <v>1.679259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>0.05947497482791341</v>
+        <v>0.05952735895928946</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.05451788066057202</v>
+        <v>0.05457095760695104</v>
       </c>
     </row>
     <row r="176">
@@ -9564,25 +9564,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="C176" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="E176" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="F176" t="n">
         <v>0.03185185185185185</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="H176" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="I176" t="n">
         <v>0.007885304659498207</v>
@@ -9606,10 +9606,10 @@
         <v>1.139426523297491</v>
       </c>
       <c r="P176" t="n">
-        <v>0.05373249671968405</v>
+        <v>0.05377593950503872</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.05042225461706389</v>
+        <v>0.04983662087522087</v>
       </c>
     </row>
     <row r="177">
@@ -9617,25 +9617,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="C177" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="E177" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="F177" t="n">
         <v>0.007885304659498207</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="H177" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="I177" t="n">
         <v>0.02043010752688172</v>
@@ -9659,10 +9659,10 @@
         <v>0.7870967741935483</v>
       </c>
       <c r="P177" t="n">
-        <v>0.05013794124553292</v>
+        <v>0.05013043434605789</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.04943905678388318</v>
+        <v>0.0494304383784264</v>
       </c>
     </row>
     <row r="178">
@@ -9670,25 +9670,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="C178" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="E178" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="F178" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="H178" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="I178" t="n">
         <v>0.1274074074074074</v>
@@ -9712,10 +9712,10 @@
         <v>0.4984126984126984</v>
       </c>
       <c r="P178" t="n">
-        <v>0.04954182489536451</v>
+        <v>0.0495049155593987</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.04572720606380516</v>
+        <v>0.04569231810987178</v>
       </c>
     </row>
     <row r="179">
@@ -9723,25 +9723,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="C179" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="E179" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="F179" t="n">
         <v>0.1274074074074074</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="H179" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="I179" t="n">
         <v>0.1383512544802867</v>
@@ -9765,10 +9765,10 @@
         <v>0.1942652329749104</v>
       </c>
       <c r="P179" t="n">
-        <v>0.04180805398227733</v>
+        <v>0.04176836844368395</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.03792109569860368</v>
+        <v>0.03788680201185145</v>
       </c>
     </row>
     <row r="180">
@@ -9776,25 +9776,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="C180" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="E180" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="F180" t="n">
         <v>0.1383512544802867</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="H180" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="I180" t="n">
         <v>0.1781481481481481</v>
@@ -9818,10 +9818,10 @@
         <v>0.1629629629629629</v>
       </c>
       <c r="P180" t="n">
-        <v>0.02800340521534488</v>
+        <v>0.02797734653180713</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.02608321838133604</v>
+        <v>0.02605560748506424</v>
       </c>
     </row>
     <row r="181">
@@ -9829,25 +9829,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="C181" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="E181" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="F181" t="n">
         <v>0.1781481481481481</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="H181" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="I181" t="n">
         <v>0.325089605734767</v>
@@ -9871,10 +9871,10 @@
         <v>0.2247311827956989</v>
       </c>
       <c r="P181" t="n">
-        <v>0.02431846191851409</v>
+        <v>0.02431935344068254</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.02569492098692143</v>
+        <v>0.02569515798808231</v>
       </c>
     </row>
     <row r="182">
@@ -9882,25 +9882,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="C182" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="E182" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="F182" t="n">
         <v>0.325089605734767</v>
       </c>
       <c r="G182" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="H182" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="I182" t="n">
         <v>0.2777777777777778</v>
@@ -9924,10 +9924,10 @@
         <v>0.03185185185185185</v>
       </c>
       <c r="P182" t="n">
-        <v>0.02889659494577268</v>
+        <v>0.02890290693537229</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.02785190951160245</v>
+        <v>0.02785717595014869</v>
       </c>
     </row>
     <row r="183">
@@ -9935,25 +9935,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="C183" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="E183" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="F183" t="n">
         <v>0.2777777777777778</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="H183" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="I183" t="n">
         <v>0.1264367816091954</v>
@@ -9977,10 +9977,10 @@
         <v>0.007885304659498207</v>
       </c>
       <c r="P183" t="n">
-        <v>0.02708710888601955</v>
+        <v>0.02711615095795093</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.02557924807370969</v>
+        <v>0.02560631467465762</v>
       </c>
     </row>
     <row r="184">
@@ -9988,25 +9988,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="C184" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="E184" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="F184" t="n">
         <v>0.1264367816091954</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="H184" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="I184" t="n">
         <v>-0.03763440860215054</v>
@@ -10030,10 +10030,10 @@
         <v>0.02043010752688172</v>
       </c>
       <c r="P184" t="n">
-        <v>0.02522490956550291</v>
+        <v>0.02524355679103784</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.02406073429678326</v>
+        <v>0.02407694841599358</v>
       </c>
     </row>
     <row r="185">
@@ -10041,25 +10041,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="C185" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="E185" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="F185" t="n">
         <v>-0.03763440860215054</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="H185" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="I185" t="n">
         <v>-0.03962962962962963</v>
@@ -10083,10 +10083,10 @@
         <v>0.1274074074074074</v>
       </c>
       <c r="P185" t="n">
-        <v>0.02400224952901779</v>
+        <v>0.02402351947645853</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.02334467320328188</v>
+        <v>0.02336347744809684</v>
       </c>
     </row>
     <row r="186">
@@ -10094,25 +10094,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="C186" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="E186" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="F186" t="n">
         <v>-0.03962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="H186" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="I186" t="n">
         <v>0.07240143369175628</v>
@@ -10136,10 +10136,10 @@
         <v>0.1383512544802867</v>
       </c>
       <c r="P186" t="n">
-        <v>0.02350577859982913</v>
+        <v>0.02349456259823951</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.02396244555836423</v>
+        <v>0.02395002392495204</v>
       </c>
     </row>
     <row r="187">
@@ -10147,25 +10147,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="C187" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="E187" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="F187" t="n">
         <v>0.07240143369175628</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="H187" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="I187" t="n">
         <v>0.1688888888888889</v>
@@ -10189,10 +10189,10 @@
         <v>0.1781481481481481</v>
       </c>
       <c r="P187" t="n">
-        <v>0.02541574060230458</v>
+        <v>0.02548161396572318</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.02484432437924207</v>
+        <v>0.02468389770682742</v>
       </c>
     </row>
     <row r="188">
@@ -10200,25 +10200,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="C188" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="E188" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="F188" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="H188" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="I188" t="n">
         <v>0.2010752688172043</v>
@@ -10242,10 +10242,10 @@
         <v>0.325089605734767</v>
       </c>
       <c r="P188" t="n">
-        <v>0.02474172036425632</v>
+        <v>0.02477702470075945</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.02494582561672539</v>
+        <v>0.02471437783541617</v>
       </c>
     </row>
     <row r="189">
@@ -10253,25 +10253,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="C189" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="E189" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="F189" t="n">
         <v>0.2010752688172043</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="H189" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="I189" t="n">
         <v>0.1136200716845878</v>
@@ -10295,10 +10295,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="P189" t="n">
-        <v>0.0249766472698704</v>
+        <v>0.02473308305164567</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.02365655912386164</v>
+        <v>0.02343775323548792</v>
       </c>
     </row>
     <row r="190">
@@ -10306,25 +10306,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="C190" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="E190" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="F190" t="n">
         <v>0.1136200716845878</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="H190" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="I190" t="n">
         <v>-0.04148148148148148</v>
@@ -10348,10 +10348,10 @@
         <v>0.1264367816091954</v>
       </c>
       <c r="P190" t="n">
-        <v>0.02068490154989906</v>
+        <v>0.02064885531051408</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.01807509420008427</v>
+        <v>0.01804285621161135</v>
       </c>
     </row>
     <row r="191">
@@ -10359,25 +10359,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="C191" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="D191" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="E191" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="F191" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="H191" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="I191" t="n">
         <v>-0.1125448028673835</v>
@@ -10401,10 +10401,10 @@
         <v>-0.03763440860215054</v>
       </c>
       <c r="P191" t="n">
-        <v>0.01716934999106183</v>
+        <v>0.01714378612720205</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01746123972536253</v>
+        <v>0.01743403203379987</v>
       </c>
     </row>
     <row r="192">
@@ -10412,25 +10412,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="C192" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="E192" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="F192" t="n">
         <v>-0.1125448028673835</v>
       </c>
       <c r="G192" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="H192" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="I192" t="n">
         <v>0.002962962962962963</v>
@@ -10454,10 +10454,10 @@
         <v>-0.03962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>0.01985885384936785</v>
+        <v>0.01984417646248487</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.02028971168347547</v>
+        <v>0.02027401972520985</v>
       </c>
     </row>
     <row r="193">
@@ -10465,25 +10465,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="C193" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="E193" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="F193" t="n">
         <v>0.002962962962962963</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="H193" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="I193" t="n">
         <v>0.1684587813620072</v>
@@ -10507,10 +10507,10 @@
         <v>0.07240143369175628</v>
       </c>
       <c r="P193" t="n">
-        <v>0.02242950990000779</v>
+        <v>0.02243628873107965</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.02352386522892111</v>
+        <v>0.02352934607118304</v>
       </c>
     </row>
     <row r="194">
@@ -10518,25 +10518,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="C194" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="E194" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="F194" t="n">
         <v>0.1684587813620072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="H194" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="I194" t="n">
         <v>0.2562724014336917</v>
@@ -10560,10 +10560,10 @@
         <v>0.1688888888888889</v>
       </c>
       <c r="P194" t="n">
-        <v>0.02427021817738452</v>
+        <v>0.02428509233086409</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.02456198615196982</v>
+        <v>0.02466387292426472</v>
       </c>
     </row>
     <row r="195">
@@ -10571,25 +10571,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="C195" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="E195" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="F195" t="n">
         <v>0.2562724014336917</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="H195" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="I195" t="n">
         <v>0.2202380952380953</v>
@@ -10613,10 +10613,10 @@
         <v>0.2010752688172043</v>
       </c>
       <c r="P195" t="n">
-        <v>0.0245274338373177</v>
+        <v>0.02465566073331844</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.02337084306599755</v>
+        <v>0.0234856756859462</v>
       </c>
     </row>
     <row r="196">
@@ -10624,25 +10624,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="C196" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="E196" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="F196" t="n">
         <v>0.2202380952380953</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="H196" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="I196" t="n">
         <v>0.1637992831541218</v>
@@ -10666,10 +10666,10 @@
         <v>0.1136200716845878</v>
       </c>
       <c r="P196" t="n">
-        <v>0.02270776794719219</v>
+        <v>0.02273270945065966</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.0218229196802936</v>
+        <v>0.02184522929505191</v>
       </c>
     </row>
     <row r="197">
@@ -10677,25 +10677,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02113449834018866</v>
+        <v>0.02113664843687157</v>
       </c>
       <c r="C197" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="E197" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="F197" t="n">
         <v>0.1637992831541218</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="H197" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="I197" t="n">
         <v>0.1440740740740741</v>
@@ -10719,10 +10719,10 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P197" t="n">
-        <v>0.02155699788846385</v>
+        <v>0.02157640826170301</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.02110648202136114</v>
+        <v>0.02112419359128312</v>
       </c>
     </row>
     <row r="198">
@@ -10730,25 +10730,25 @@
         <v>45808</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01868735027450175</v>
+        <v>0.01870583309510199</v>
       </c>
       <c r="C198" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="E198" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="F198" t="n">
         <v>0.1440740740740741</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02113449834018866</v>
+        <v>0.02113664843687157</v>
       </c>
       <c r="H198" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="I198" t="n">
         <v>0.1229390681003584</v>
@@ -10772,10 +10772,10 @@
         <v>-0.1125448028673835</v>
       </c>
       <c r="P198" t="n">
-        <v>0.02114955973144682</v>
+        <v>0.02115168559514347</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.02059654828227851</v>
+        <v>0.0205984723439417</v>
       </c>
     </row>
     <row r="199">
@@ -10783,21 +10783,25 @@
         <v>45838</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01967408728367559</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.33645</v>
+      </c>
       <c r="D199" t="n">
-        <v>0.02113449834018866</v>
-      </c>
-      <c r="E199" t="inlineStr"/>
+        <v>0.02113664843687157</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.33645</v>
+      </c>
       <c r="F199" t="n">
         <v>0.1229390681003584</v>
       </c>
       <c r="G199" t="n">
-        <v>0.01868735027450175</v>
+        <v>0.01870583309510199</v>
       </c>
       <c r="H199" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="I199" t="n">
         <v>0.1344444444444444</v>
@@ -10821,30 +10825,40 @@
         <v>0.002962962962962963</v>
       </c>
       <c r="P199" t="n">
-        <v>0.01872208065335829</v>
+        <v>0.01874040023016704</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.01905372331115894</v>
+        <v>0.01907294153523348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.248858</v>
+      </c>
       <c r="D200" t="n">
-        <v>0.01868735027450175</v>
-      </c>
-      <c r="E200" t="inlineStr"/>
+        <v>0.01870583309510199</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.248858</v>
+      </c>
       <c r="F200" t="n">
         <v>0.1344444444444444</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01967408728367559</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="H200" t="n">
+        <v>6.33645</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.2379928315412186</v>
+      </c>
       <c r="J200" t="n">
         <v>0.1229390681003584</v>
       </c>
@@ -10864,10 +10878,155 @@
         <v>0.1684587813620072</v>
       </c>
       <c r="P200" t="n">
-        <v>0.01970065018248565</v>
+        <v>0.01982121444216209</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.01944679424637292</v>
+        <v>0.02015569091331661</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.2379928315412186</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="H201" t="n">
+        <v>6.248858</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.2318996415770609</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.2562724014336917</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0.02037944370888866</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.02069497805894913</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.02225768709807419</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>0.2318996415770609</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="H202" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.2493827160493827</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.2379928315412186</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.2202380952380953</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0.02067842378929053</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.02139368645295533</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>0.2493827160493827</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.02225768709807419</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.2318996415770609</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.2379928315412186</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.1637992831541218</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0.02226280736944072</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.0227723626473604</v>
       </c>
     </row>
   </sheetData>

--- a/HICP_europe_optimized.xlsx
+++ b/HICP_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="C2" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0208471246778954</v>
+        <v>0.02086063436209606</v>
       </c>
       <c r="E2" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554643845067272</v>
+        <v>0.01554455162325041</v>
       </c>
       <c r="H2" t="n">
-        <v>8.366698</v>
+        <v>8.364596000000001</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="C3" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554643845067272</v>
+        <v>0.01554455162325041</v>
       </c>
       <c r="E3" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="H3" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="E4" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="H4" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="C5" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="E5" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="H5" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="C6" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="E6" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="H6" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="C7" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="E7" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="H7" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="C8" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="E8" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="H8" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,23 +785,23 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="C9" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="E9" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="H9" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="C10" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="E10" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="H10" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="I10" t="n">
         <v>0.001388888888888889</v>
@@ -861,25 +861,25 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="C11" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="E11" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="F11" t="n">
         <v>0.001388888888888889</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="H11" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -902,25 +902,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="C12" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="E12" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="H12" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -945,25 +945,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="C13" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="E13" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="H13" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -990,25 +990,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="C14" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="E14" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="H14" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1037,25 +1037,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="C15" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="E15" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="H15" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="C16" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="E16" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="H16" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="C17" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="E17" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="H17" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1190,25 +1190,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="C18" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="E18" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="H18" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="I18" t="n">
         <v>-0.01039426523297491</v>
@@ -1243,25 +1243,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="C19" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="E19" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="F19" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="H19" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="I19" t="n">
         <v>-0.01111111111111111</v>
@@ -1296,25 +1296,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="C20" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="E20" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="F20" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="H20" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="I20" t="n">
         <v>-0.01111111111111111</v>
@@ -1349,25 +1349,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="C21" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="E21" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="F21" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="H21" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1402,25 +1402,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="C22" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="E22" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="H22" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="C23" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="E23" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="H23" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="I23" t="n">
         <v>-0.001792114695340502</v>
@@ -1508,25 +1508,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="C24" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="E24" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="F24" t="n">
         <v>-0.001792114695340502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="H24" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="I24" t="n">
         <v>-0.01111111111111111</v>
@@ -1561,25 +1561,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="C25" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="E25" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="F25" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="H25" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="I25" t="n">
         <v>-0.01111111111111111</v>
@@ -1614,25 +1614,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="C26" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="E26" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="F26" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="H26" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="I26" t="n">
         <v>-0.003942652329749104</v>
@@ -1667,25 +1667,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="C27" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="E27" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="F27" t="n">
         <v>-0.003942652329749104</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="H27" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1720,25 +1720,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="C28" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="E28" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="H28" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="I28" t="n">
         <v>0.02867383512544803</v>
@@ -1773,25 +1773,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="C29" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="E29" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="F29" t="n">
         <v>0.02867383512544803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="H29" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="I29" t="n">
         <v>0.04814814814814815</v>
@@ -1826,25 +1826,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="C30" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="E30" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="F30" t="n">
         <v>0.04814814814814815</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="H30" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="I30" t="n">
         <v>0.05197132616487456</v>
@@ -1879,25 +1879,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="C31" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="E31" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="F31" t="n">
         <v>0.05197132616487456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="H31" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="I31" t="n">
         <v>0.02555555555555556</v>
@@ -1932,25 +1932,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="C32" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="E32" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="F32" t="n">
         <v>0.02555555555555556</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="H32" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="I32" t="n">
         <v>-0.006451612903225806</v>
@@ -1985,25 +1985,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="C33" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="E33" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="F33" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="H33" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01899641577060932</v>
@@ -2038,25 +2038,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="C34" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="E34" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="H34" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01111111111111111</v>
@@ -2091,25 +2091,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="C35" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="E35" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="F35" t="n">
         <v>-0.01111111111111111</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="H35" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="I35" t="n">
         <v>0.001075268817204301</v>
@@ -2144,25 +2144,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="C36" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="E36" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="F36" t="n">
         <v>0.001075268817204301</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="H36" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="I36" t="n">
         <v>0.01111111111111111</v>
@@ -2197,25 +2197,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="C37" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="E37" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="F37" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="H37" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="I37" t="n">
         <v>0.005376344086021506</v>
@@ -2250,25 +2250,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="C38" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="E38" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="F38" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="H38" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="I38" t="n">
         <v>-0.01577060931899642</v>
@@ -2303,25 +2303,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="C39" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="E39" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="F39" t="n">
         <v>-0.01577060931899642</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="H39" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="I39" t="n">
         <v>-0.03333333333333333</v>
@@ -2356,25 +2356,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="C40" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="E40" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="F40" t="n">
         <v>-0.03333333333333333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="H40" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="I40" t="n">
         <v>-0.006810035842293906</v>
@@ -2409,25 +2409,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="C41" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="E41" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="F41" t="n">
         <v>-0.006810035842293906</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="H41" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="I41" t="n">
         <v>0.02888888888888889</v>
@@ -2462,25 +2462,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="C42" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="E42" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="F42" t="n">
         <v>0.02888888888888889</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="H42" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="I42" t="n">
         <v>0.06594982078853046</v>
@@ -2515,25 +2515,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="C43" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="E43" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="F43" t="n">
         <v>0.06594982078853046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="H43" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="I43" t="n">
         <v>0.07222222222222222</v>
@@ -2568,25 +2568,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="C44" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="E44" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="F44" t="n">
         <v>0.07222222222222222</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="H44" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="I44" t="n">
         <v>0.05591397849462365</v>
@@ -2621,25 +2621,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="C45" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="E45" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="F45" t="n">
         <v>0.05591397849462365</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="H45" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="I45" t="n">
         <v>0.04265232974910394</v>
@@ -2674,25 +2674,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="C46" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="E46" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="F46" t="n">
         <v>0.04265232974910394</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="H46" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="I46" t="n">
         <v>0.03037037037037037</v>
@@ -2727,25 +2727,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="C47" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="E47" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="F47" t="n">
         <v>0.03037037037037037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="H47" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="I47" t="n">
         <v>0.04014336917562724</v>
@@ -2780,25 +2780,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="C48" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="E48" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="F48" t="n">
         <v>0.04014336917562724</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="H48" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="I48" t="n">
         <v>0.01851851851851852</v>
@@ -2833,25 +2833,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="C49" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="E49" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="F49" t="n">
         <v>0.01851851851851852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="H49" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="I49" t="n">
         <v>0.04193548387096774</v>
@@ -2886,25 +2886,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="C50" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="E50" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="F50" t="n">
         <v>0.04193548387096774</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="H50" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="I50" t="n">
         <v>0.03835125448028674</v>
@@ -2939,25 +2939,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="C51" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="E51" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="F51" t="n">
         <v>0.03835125448028674</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="H51" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="I51" t="n">
         <v>0.05714285714285714</v>
@@ -2992,25 +2992,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="C52" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="E52" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="F52" t="n">
         <v>0.05714285714285714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="H52" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="I52" t="n">
         <v>0.05519713261648745</v>
@@ -3045,25 +3045,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="C53" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="E53" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="F53" t="n">
         <v>0.05519713261648745</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="H53" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="I53" t="n">
         <v>0.04407407407407407</v>
@@ -3098,25 +3098,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="C54" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="E54" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="F54" t="n">
         <v>0.04407407407407407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="H54" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="I54" t="n">
         <v>0.05483870967741936</v>
@@ -3151,25 +3151,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="C55" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="E55" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="F55" t="n">
         <v>0.05483870967741936</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="H55" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="I55" t="n">
         <v>0.05777777777777778</v>
@@ -3204,25 +3204,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="C56" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="E56" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="F56" t="n">
         <v>0.05777777777777778</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="H56" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="I56" t="n">
         <v>0.08888888888888889</v>
@@ -3257,25 +3257,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="C57" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="E57" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="F57" t="n">
         <v>0.08888888888888889</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="H57" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="I57" t="n">
         <v>0.06451612903225806</v>
@@ -3310,25 +3310,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="C58" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="E58" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="F58" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="H58" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="I58" t="n">
         <v>0.03592592592592592</v>
@@ -3363,25 +3363,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="C59" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="E59" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="F59" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="H59" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="I59" t="n">
         <v>0.02544802867383512</v>
@@ -3416,25 +3416,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="C60" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="E60" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="F60" t="n">
         <v>0.02544802867383512</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="H60" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="I60" t="n">
         <v>-0.005925925925925926</v>
@@ -3469,25 +3469,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="F61" t="n">
         <v>-0.005925925925925926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="H61" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="I61" t="n">
         <v>-0.07240143369175628</v>
@@ -3522,25 +3522,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="C62" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="E62" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="F62" t="n">
         <v>-0.07240143369175628</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="I62" t="n">
         <v>-0.1379928315412186</v>
@@ -3575,25 +3575,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="C63" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="E63" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="F63" t="n">
         <v>-0.1379928315412186</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="H63" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="I63" t="n">
         <v>-0.217063492063492</v>
@@ -3628,25 +3628,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="C64" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="E64" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="F64" t="n">
         <v>-0.217063492063492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="H64" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="I64" t="n">
         <v>-0.1663082437275986</v>
@@ -3681,25 +3681,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="C65" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="E65" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="F65" t="n">
         <v>-0.1663082437275986</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="H65" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="I65" t="n">
         <v>-0.07962962962962963</v>
@@ -3734,25 +3734,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="C66" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="E66" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="F66" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="H66" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="I66" t="n">
         <v>0.01254480286738351</v>
@@ -3787,25 +3787,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="C67" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="E67" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="F67" t="n">
         <v>0.01254480286738351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="H67" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="I67" t="n">
         <v>-0.02888888888888889</v>
@@ -3840,25 +3840,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="C68" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="E68" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="F68" t="n">
         <v>-0.02888888888888889</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="H68" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="I68" t="n">
         <v>-0.1028673835125448</v>
@@ -3893,25 +3893,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="C69" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="E69" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="F69" t="n">
         <v>-0.1028673835125448</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="H69" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="I69" t="n">
         <v>-0.1727598566308244</v>
@@ -3946,25 +3946,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="C70" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="E70" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="F70" t="n">
         <v>-0.1727598566308244</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="H70" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="I70" t="n">
         <v>-0.1137037037037037</v>
@@ -3999,25 +3999,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="C71" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="E71" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="F71" t="n">
         <v>-0.1137037037037037</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="H71" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="I71" t="n">
         <v>-0.07132616487455197</v>
@@ -4052,25 +4052,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="C72" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="E72" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="F72" t="n">
         <v>-0.07132616487455197</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="H72" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="I72" t="n">
         <v>-0.0262962962962963</v>
@@ -4105,25 +4105,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="C73" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="E73" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="F73" t="n">
         <v>-0.0262962962962963</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="H73" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="I73" t="n">
         <v>-0.05412186379928315</v>
@@ -4158,25 +4158,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="C74" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="E74" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="F74" t="n">
         <v>-0.05412186379928315</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="H74" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="I74" t="n">
         <v>-0.1218637992831541</v>
@@ -4211,25 +4211,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="C75" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="E75" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="F75" t="n">
         <v>-0.1218637992831541</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="H75" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="I75" t="n">
         <v>-0.1404761904761905</v>
@@ -4264,25 +4264,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="C76" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="E76" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="F76" t="n">
         <v>-0.1404761904761905</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="H76" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="I76" t="n">
         <v>-0.06415770609318996</v>
@@ -4317,25 +4317,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="C77" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="E77" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="F77" t="n">
         <v>-0.06415770609318996</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="H77" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="I77" t="n">
         <v>0.0737037037037037</v>
@@ -4370,25 +4370,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="C78" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="E78" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="F78" t="n">
         <v>0.0737037037037037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="H78" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="I78" t="n">
         <v>0.1698924731182796</v>
@@ -4423,25 +4423,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="C79" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="E79" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="F79" t="n">
         <v>0.1698924731182796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="H79" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="I79" t="n">
         <v>0.1159259259259259</v>
@@ -4476,25 +4476,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="C80" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="E80" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="F80" t="n">
         <v>0.1159259259259259</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="H80" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="I80" t="n">
         <v>0.08422939068100359</v>
@@ -4529,25 +4529,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="C81" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="E81" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="F81" t="n">
         <v>0.08422939068100359</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="H81" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="I81" t="n">
         <v>0.02795698924731183</v>
@@ -4582,25 +4582,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="C82" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="E82" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="F82" t="n">
         <v>0.02795698924731183</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="H82" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="I82" t="n">
         <v>0.01703703703703703</v>
@@ -4635,25 +4635,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="C83" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="E83" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="F83" t="n">
         <v>0.01703703703703703</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="H83" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="I83" t="n">
         <v>-0.03369175627240144</v>
@@ -4688,25 +4688,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="C84" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="E84" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="F84" t="n">
         <v>-0.03369175627240144</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="H84" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="I84" t="n">
         <v>-0.01</v>
@@ -4741,25 +4741,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="C85" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="E85" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="F85" t="n">
         <v>-0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="H85" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="I85" t="n">
         <v>0.02401433691756272</v>
@@ -4794,25 +4794,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="C86" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="E86" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="F86" t="n">
         <v>0.02401433691756272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="H86" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="I86" t="n">
         <v>-0.007885304659498209</v>
@@ -4847,25 +4847,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="C87" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="E87" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="F87" t="n">
         <v>-0.007885304659498209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="H87" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="I87" t="n">
         <v>-0.08199233716475096</v>
@@ -4900,25 +4900,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="C88" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="E88" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="F88" t="n">
         <v>-0.08199233716475096</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="H88" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="I88" t="n">
         <v>-0.1315412186379928</v>
@@ -4953,25 +4953,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="C89" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="E89" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="F89" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="H89" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="I89" t="n">
         <v>-0.1125925925925926</v>
@@ -5006,25 +5006,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="C90" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="E90" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="F90" t="n">
         <v>-0.1125925925925926</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="H90" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="I90" t="n">
         <v>-0.01899641577060932</v>
@@ -5059,25 +5059,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="C91" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="E91" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="F91" t="n">
         <v>-0.01899641577060932</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="H91" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="I91" t="n">
         <v>0.03592592592592592</v>
@@ -5112,25 +5112,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="C92" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="E92" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="F92" t="n">
         <v>0.03592592592592592</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="H92" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="I92" t="n">
         <v>0.1290322580645161</v>
@@ -5165,25 +5165,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="C93" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="E93" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="F93" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="H93" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="I93" t="n">
         <v>0.1175627240143369</v>
@@ -5218,25 +5218,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="C94" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="E94" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="F94" t="n">
         <v>0.1175627240143369</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="H94" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="I94" t="n">
         <v>0.08111111111111111</v>
@@ -5271,25 +5271,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="C95" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="E95" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="F95" t="n">
         <v>0.08111111111111111</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="H95" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="I95" t="n">
         <v>0.09749103942652329</v>
@@ -5324,25 +5324,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="C96" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="E96" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="F96" t="n">
         <v>0.09749103942652329</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="H96" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="I96" t="n">
         <v>0.1696296296296296</v>
@@ -5377,25 +5377,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="C97" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="E97" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="F97" t="n">
         <v>0.1696296296296296</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="H97" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="I97" t="n">
         <v>0.2150537634408602</v>
@@ -5430,25 +5430,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="C98" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="E98" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="F98" t="n">
         <v>0.2150537634408602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="H98" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="I98" t="n">
         <v>0.2505376344086022</v>
@@ -5483,25 +5483,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="C99" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="E99" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="F99" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="H99" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="I99" t="n">
         <v>0.301984126984127</v>
@@ -5536,25 +5536,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="C100" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="E100" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="F100" t="n">
         <v>0.301984126984127</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="H100" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.2867383512544803</v>
@@ -5589,25 +5589,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="C101" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="E101" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="F101" t="n">
         <v>0.2867383512544803</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="H101" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="I101" t="n">
         <v>0.2062962962962963</v>
@@ -5642,25 +5642,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="C102" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="E102" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="F102" t="n">
         <v>0.2062962962962963</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="H102" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="I102" t="n">
         <v>0.1075268817204301</v>
@@ -5695,25 +5695,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="C103" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="E103" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="F103" t="n">
         <v>0.1075268817204301</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="H103" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="I103" t="n">
         <v>0.09222222222222222</v>
@@ -5748,25 +5748,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="C104" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="E104" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="F104" t="n">
         <v>0.09222222222222222</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="H104" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="I104" t="n">
         <v>0.09247311827956989</v>
@@ -5801,25 +5801,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="C105" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="E105" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="F105" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="H105" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="I105" t="n">
         <v>0.1379928315412186</v>
@@ -5854,25 +5854,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="C106" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="E106" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="F106" t="n">
         <v>0.1379928315412186</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="H106" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="I106" t="n">
         <v>0.1518518518518518</v>
@@ -5907,25 +5907,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="C107" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="E107" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="F107" t="n">
         <v>0.1518518518518518</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="H107" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="I107" t="n">
         <v>0.1935483870967742</v>
@@ -5960,25 +5960,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="C108" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="E108" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="F108" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="H108" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="I108" t="n">
         <v>0.1766666666666667</v>
@@ -6013,25 +6013,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="C109" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="E109" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="F109" t="n">
         <v>0.1766666666666667</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="H109" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="I109" t="n">
         <v>0.2376344086021505</v>
@@ -6066,25 +6066,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="C110" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="E110" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="F110" t="n">
         <v>0.2376344086021505</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="H110" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="I110" t="n">
         <v>0.2261648745519713</v>
@@ -6119,25 +6119,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="C111" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="E111" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="F111" t="n">
         <v>0.2261648745519713</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="H111" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="I111" t="n">
         <v>0.2333333333333333</v>
@@ -6172,25 +6172,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="C112" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="E112" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="F112" t="n">
         <v>0.2333333333333333</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="H112" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="I112" t="n">
         <v>0.2064516129032258</v>
@@ -6225,25 +6225,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="C113" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="E113" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="F113" t="n">
         <v>0.2064516129032258</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="H113" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="I113" t="n">
         <v>0.1688888888888889</v>
@@ -6278,25 +6278,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="C114" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="E114" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="F114" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G114" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="H114" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="I114" t="n">
         <v>0.1523297491039426</v>
@@ -6331,25 +6331,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="C115" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="E115" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="F115" t="n">
         <v>0.1523297491039426</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="H115" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="I115" t="n">
         <v>0.1503703703703704</v>
@@ -6384,25 +6384,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="C116" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="E116" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="F116" t="n">
         <v>0.1503703703703704</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="H116" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="I116" t="n">
         <v>0.2584229390681004</v>
@@ -6437,25 +6437,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="C117" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="E117" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="F117" t="n">
         <v>0.2584229390681004</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="H117" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="I117" t="n">
         <v>0.2853046594982079</v>
@@ -6490,25 +6490,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="C118" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="E118" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="F118" t="n">
         <v>0.2853046594982079</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="H118" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="I118" t="n">
         <v>0.3266666666666667</v>
@@ -6543,25 +6543,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="C119" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="E119" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="F119" t="n">
         <v>0.3266666666666667</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="H119" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="I119" t="n">
         <v>0.2505376344086022</v>
@@ -6596,25 +6596,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="C120" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="E120" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="F120" t="n">
         <v>0.2505376344086022</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="H120" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="I120" t="n">
         <v>0.1974074074074074</v>
@@ -6649,25 +6649,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="C121" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="E121" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="F121" t="n">
         <v>0.1974074074074074</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="H121" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="I121" t="n">
         <v>0.1017921146953405</v>
@@ -6702,25 +6702,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="C122" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="E122" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="F122" t="n">
         <v>0.1017921146953405</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="H122" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="I122" t="n">
         <v>0.07813620071684588</v>
@@ -6755,25 +6755,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="C123" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="E123" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="F123" t="n">
         <v>0.07813620071684588</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="H123" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="I123" t="n">
         <v>0.08293650793650795</v>
@@ -6797,10 +6797,10 @@
         <v>0.2584229390681004</v>
       </c>
       <c r="P123" t="n">
-        <v>0.01247031380130571</v>
+        <v>0.01247736763925157</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.01269940833414403</v>
+        <v>0.01270643637669078</v>
       </c>
     </row>
     <row r="124">
@@ -6808,25 +6808,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="C124" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="E124" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="F124" t="n">
         <v>0.08293650793650795</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="H124" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="I124" t="n">
         <v>0.09247311827956989</v>
@@ -6850,10 +6850,10 @@
         <v>0.2853046594982079</v>
       </c>
       <c r="P124" t="n">
-        <v>0.01370737147973195</v>
+        <v>0.01371255111897425</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01392333605305902</v>
+        <v>0.01392847540792673</v>
       </c>
     </row>
     <row r="125">
@@ -6861,25 +6861,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="F125" t="n">
         <v>0.09247311827956989</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="H125" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="I125" t="n">
         <v>0.122962962962963</v>
@@ -6903,10 +6903,10 @@
         <v>0.3266666666666667</v>
       </c>
       <c r="P125" t="n">
-        <v>0.01424411665681632</v>
+        <v>0.01424546544894301</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.01446145936242897</v>
+        <v>0.01446280035277471</v>
       </c>
     </row>
     <row r="126">
@@ -6914,25 +6914,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="C126" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="E126" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="F126" t="n">
         <v>0.122962962962963</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="I126" t="n">
         <v>0.1344086021505376</v>
@@ -6956,10 +6956,10 @@
         <v>0.2505376344086022</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01595951368475089</v>
+        <v>0.01595883104312532</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.01618751458259053</v>
+        <v>0.0161867900450047</v>
       </c>
     </row>
     <row r="127">
@@ -6967,25 +6967,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="C127" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="E127" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="F127" t="n">
         <v>0.1344086021505376</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="H127" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="I127" t="n">
         <v>0.1455555555555555</v>
@@ -7009,10 +7009,10 @@
         <v>0.1974074074074074</v>
       </c>
       <c r="P127" t="n">
-        <v>0.01267298788079733</v>
+        <v>0.01267113358041604</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.01294410067337919</v>
+        <v>0.01294230272212085</v>
       </c>
     </row>
     <row r="128">
@@ -7020,25 +7020,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="C128" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="E128" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="F128" t="n">
         <v>0.1455555555555555</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="H128" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="I128" t="n">
         <v>0.1290322580645161</v>
@@ -7062,10 +7062,10 @@
         <v>0.1017921146953405</v>
       </c>
       <c r="P128" t="n">
-        <v>0.01206360837507913</v>
+        <v>0.01205843341184222</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.01234532895397861</v>
+        <v>0.01234023989052461</v>
       </c>
     </row>
     <row r="129">
@@ -7073,25 +7073,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="C129" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="E129" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="F129" t="n">
         <v>0.1290322580645161</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="H129" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="I129" t="n">
         <v>0.0989247311827957</v>
@@ -7115,10 +7115,10 @@
         <v>0.07813620071684588</v>
       </c>
       <c r="P129" t="n">
-        <v>0.01107731179705769</v>
+        <v>0.01107329763017504</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.01097224930480482</v>
+        <v>0.01096804606897769</v>
       </c>
     </row>
     <row r="130">
@@ -7126,25 +7126,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="C130" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="E130" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="F130" t="n">
         <v>0.0989247311827957</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="H130" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="I130" t="n">
         <v>0.112962962962963</v>
@@ -7168,10 +7168,10 @@
         <v>0.08293650793650795</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01089935849141978</v>
+        <v>0.01088489809194314</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.01081156275986172</v>
+        <v>0.01079667026190155</v>
       </c>
     </row>
     <row r="131">
@@ -7179,25 +7179,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="C131" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="E131" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="F131" t="n">
         <v>0.112962962962963</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="H131" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="I131" t="n">
         <v>0.0910394265232975</v>
@@ -7221,10 +7221,10 @@
         <v>0.09247311827956989</v>
       </c>
       <c r="P131" t="n">
-        <v>0.009050421097386878</v>
+        <v>0.009054140931046792</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.008909571702148258</v>
+        <v>0.008913353689284427</v>
       </c>
     </row>
     <row r="132">
@@ -7232,25 +7232,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="C132" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="E132" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="F132" t="n">
         <v>0.0910394265232975</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="H132" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="I132" t="n">
         <v>0.1081481481481481</v>
@@ -7274,10 +7274,10 @@
         <v>0.122962962962963</v>
       </c>
       <c r="P132" t="n">
-        <v>0.008015028462207816</v>
+        <v>0.00801729853800907</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.008307086091731275</v>
+        <v>0.008309261312218095</v>
       </c>
     </row>
     <row r="133">
@@ -7285,25 +7285,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="C133" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="E133" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="F133" t="n">
         <v>0.1081481481481481</v>
       </c>
       <c r="G133" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="H133" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="I133" t="n">
         <v>0.1082437275985663</v>
@@ -7327,10 +7327,10 @@
         <v>0.1344086021505376</v>
       </c>
       <c r="P133" t="n">
-        <v>0.009053962462828188</v>
+        <v>0.009061666275178959</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.009651870535891137</v>
+        <v>0.009659600601818643</v>
       </c>
     </row>
     <row r="134">
@@ -7338,25 +7338,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="C134" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="D134" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="E134" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="F134" t="n">
         <v>0.1082437275985663</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="H134" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="I134" t="n">
         <v>0.1275985663082437</v>
@@ -7380,10 +7380,10 @@
         <v>0.1455555555555555</v>
       </c>
       <c r="P134" t="n">
-        <v>0.01330317677611305</v>
+        <v>0.01330539352939427</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01343134390858706</v>
+        <v>0.01346387746977115</v>
       </c>
     </row>
     <row r="135">
@@ -7391,25 +7391,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="C135" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="E135" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="F135" t="n">
         <v>0.1275985663082437</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="H135" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="I135" t="n">
         <v>0.09578544061302682</v>
@@ -7433,10 +7433,10 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="P135" t="n">
-        <v>0.01339190035823359</v>
+        <v>0.01340229061924957</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.01336437377355901</v>
+        <v>0.01337480088083155</v>
       </c>
     </row>
     <row r="136">
@@ -7444,25 +7444,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="C136" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="E136" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="F136" t="n">
         <v>0.09578544061302682</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="H136" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="I136" t="n">
         <v>0.06057347670250896</v>
@@ -7486,10 +7486,10 @@
         <v>0.0989247311827957</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01210562842579614</v>
+        <v>0.0121135043152791</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.01206586286864805</v>
+        <v>0.01207375934935996</v>
       </c>
     </row>
     <row r="137">
@@ -7497,25 +7497,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="C137" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="E137" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="F137" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="H137" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="I137" t="n">
         <v>-0.01222222222222222</v>
@@ -7539,10 +7539,10 @@
         <v>0.112962962962963</v>
       </c>
       <c r="P137" t="n">
-        <v>0.007940058368846849</v>
+        <v>0.00794142980106982</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.007832183793724808</v>
+        <v>0.007833536938169959</v>
       </c>
     </row>
     <row r="138">
@@ -7550,25 +7550,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="C138" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="E138" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="F138" t="n">
         <v>-0.01222222222222222</v>
       </c>
       <c r="G138" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="H138" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="I138" t="n">
         <v>0.01935483870967742</v>
@@ -7592,10 +7592,10 @@
         <v>0.0910394265232975</v>
       </c>
       <c r="P138" t="n">
-        <v>0.003330660774893071</v>
+        <v>0.003335614631028874</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.003159792554154363</v>
+        <v>0.003164950376531159</v>
       </c>
     </row>
     <row r="139">
@@ -7603,25 +7603,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="C139" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="E139" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="F139" t="n">
         <v>0.01935483870967742</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="H139" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="I139" t="n">
         <v>0.07518518518518519</v>
@@ -7645,10 +7645,10 @@
         <v>0.1081481481481481</v>
       </c>
       <c r="P139" t="n">
-        <v>0.000847210946102862</v>
+        <v>0.0008370210635732797</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.001784346535911061</v>
+        <v>0.001774718862869138</v>
       </c>
     </row>
     <row r="140">
@@ -7656,25 +7656,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="C140" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="E140" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="F140" t="n">
         <v>0.07518518518518519</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="H140" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="I140" t="n">
         <v>0.2014336917562724</v>
@@ -7698,10 +7698,10 @@
         <v>0.1082437275985663</v>
       </c>
       <c r="P140" t="n">
-        <v>0.002699114113636714</v>
+        <v>0.002689017787688449</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.003127117575514308</v>
+        <v>0.003117279079209632</v>
       </c>
     </row>
     <row r="141">
@@ -7709,25 +7709,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="C141" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="E141" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="F141" t="n">
         <v>0.2014336917562724</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="H141" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="I141" t="n">
         <v>0.185663082437276</v>
@@ -7751,10 +7751,10 @@
         <v>0.1275985663082437</v>
       </c>
       <c r="P141" t="n">
-        <v>0.003319087897905533</v>
+        <v>0.003308800355124412</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.003131220808316587</v>
+        <v>0.003120745819450466</v>
       </c>
     </row>
     <row r="142">
@@ -7762,25 +7762,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="C142" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="E142" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="F142" t="n">
         <v>0.185663082437276</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="H142" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="I142" t="n">
         <v>0.1507407407407407</v>
@@ -7804,10 +7804,10 @@
         <v>0.09578544061302682</v>
       </c>
       <c r="P142" t="n">
-        <v>-0.001955701451368789</v>
+        <v>-0.001978623628692819</v>
       </c>
       <c r="Q142" t="n">
-        <v>-0.002277656508982219</v>
+        <v>-0.00230110547069623</v>
       </c>
     </row>
     <row r="143">
@@ -7815,25 +7815,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="C143" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="E143" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="F143" t="n">
         <v>0.1507407407407407</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="H143" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="I143" t="n">
         <v>0.1444444444444445</v>
@@ -7857,10 +7857,10 @@
         <v>0.06057347670250896</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.002837244419259582</v>
+        <v>-0.002832985162717007</v>
       </c>
       <c r="Q143" t="n">
-        <v>-0.002634121010389614</v>
+        <v>-0.002629223933047557</v>
       </c>
     </row>
     <row r="144">
@@ -7868,25 +7868,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="C144" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="E144" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="F144" t="n">
         <v>0.1444444444444445</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="H144" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="I144" t="n">
         <v>0.1655555555555556</v>
@@ -7910,10 +7910,10 @@
         <v>-0.01222222222222222</v>
       </c>
       <c r="P144" t="n">
-        <v>-0.002412691484867976</v>
+        <v>-0.002408741452285881</v>
       </c>
       <c r="Q144" t="n">
-        <v>-0.002492727751844713</v>
+        <v>-0.002488589756748582</v>
       </c>
     </row>
     <row r="145">
@@ -7921,25 +7921,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="C145" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="E145" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="F145" t="n">
         <v>0.1655555555555556</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="H145" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="I145" t="n">
         <v>0.1655913978494624</v>
@@ -7963,10 +7963,10 @@
         <v>0.01935483870967742</v>
       </c>
       <c r="P145" t="n">
-        <v>-0.00224961915523338</v>
+        <v>-0.002237466229622156</v>
       </c>
       <c r="Q145" t="n">
-        <v>-0.002554383377531178</v>
+        <v>-0.002570729314380167</v>
       </c>
     </row>
     <row r="146">
@@ -7974,25 +7974,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="C146" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="E146" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="F146" t="n">
         <v>0.1655913978494624</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="H146" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="I146" t="n">
         <v>0.1577060931899641</v>
@@ -8016,10 +8016,10 @@
         <v>0.07518518518518519</v>
       </c>
       <c r="P146" t="n">
-        <v>-0.002355820246769921</v>
+        <v>-0.002348473812087195</v>
       </c>
       <c r="Q146" t="n">
-        <v>-0.001834934277920112</v>
+        <v>-0.001827416564298901</v>
       </c>
     </row>
     <row r="147">
@@ -8027,25 +8027,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="C147" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="E147" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="F147" t="n">
         <v>0.1577060931899641</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="H147" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="I147" t="n">
         <v>0.2051587301587302</v>
@@ -8069,10 +8069,10 @@
         <v>0.2014336917562724</v>
       </c>
       <c r="P147" t="n">
-        <v>0.007386615174105717</v>
+        <v>0.007397986404690039</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.007837448889303688</v>
+        <v>0.007848879660619838</v>
       </c>
     </row>
     <row r="148">
@@ -8080,25 +8080,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="C148" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="E148" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="F148" t="n">
         <v>0.2051587301587302</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="H148" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="I148" t="n">
         <v>0.2275985663082437</v>
@@ -8122,10 +8122,10 @@
         <v>0.185663082437276</v>
       </c>
       <c r="P148" t="n">
-        <v>0.00792577213434913</v>
+        <v>0.007927358982313868</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.008498939850503951</v>
+        <v>0.008500761800491773</v>
       </c>
     </row>
     <row r="149">
@@ -8133,25 +8133,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="C149" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="E149" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="F149" t="n">
         <v>0.2275985663082437</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="H149" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="I149" t="n">
         <v>0.2496296296296296</v>
@@ -8175,10 +8175,10 @@
         <v>0.1507407407407407</v>
       </c>
       <c r="P149" t="n">
-        <v>0.01254917806467526</v>
+        <v>0.01255398167214113</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.013160873165751</v>
+        <v>0.01316592265640905</v>
       </c>
     </row>
     <row r="150">
@@ -8186,25 +8186,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="C150" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="E150" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="F150" t="n">
         <v>0.2496296296296296</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="H150" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="I150" t="n">
         <v>0.2663082437275986</v>
@@ -8228,10 +8228,10 @@
         <v>0.1444444444444445</v>
       </c>
       <c r="P150" t="n">
-        <v>0.01572714063365951</v>
+        <v>0.01573002851961755</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.01649169789082919</v>
+        <v>0.01649494157042247</v>
       </c>
     </row>
     <row r="151">
@@ -8239,25 +8239,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="C151" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="E151" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="F151" t="n">
         <v>0.2663082437275986</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="H151" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="I151" t="n">
         <v>0.3296296296296297</v>
@@ -8281,10 +8281,10 @@
         <v>0.1655555555555556</v>
       </c>
       <c r="P151" t="n">
-        <v>0.01910192003706729</v>
+        <v>0.01908332733383019</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.01997558685358892</v>
+        <v>0.01995706280249816</v>
       </c>
     </row>
     <row r="152">
@@ -8292,25 +8292,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="C152" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="E152" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="F152" t="n">
         <v>0.3296296296296297</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="H152" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="I152" t="n">
         <v>0.3612903225806451</v>
@@ -8334,10 +8334,10 @@
         <v>0.1655913978494624</v>
       </c>
       <c r="P152" t="n">
-        <v>0.0196669347192586</v>
+        <v>0.01964988486355407</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.02066973518971283</v>
+        <v>0.02065303430686225</v>
       </c>
     </row>
     <row r="153">
@@ -8345,25 +8345,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="C153" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="E153" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="F153" t="n">
         <v>0.3612903225806451</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="H153" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="I153" t="n">
         <v>0.5200716845878136</v>
@@ -8387,10 +8387,10 @@
         <v>0.1577060931899641</v>
       </c>
       <c r="P153" t="n">
-        <v>0.02326026257765916</v>
+        <v>0.02324461935268686</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.02457229890778107</v>
+        <v>0.02455678914654856</v>
       </c>
     </row>
     <row r="154">
@@ -8398,25 +8398,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="C154" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="E154" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="F154" t="n">
         <v>0.5200716845878136</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="H154" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="I154" t="n">
         <v>0.7100000000000001</v>
@@ -8440,10 +8440,10 @@
         <v>0.2051587301587302</v>
       </c>
       <c r="P154" t="n">
-        <v>0.03082147333828256</v>
+        <v>0.03078462166109472</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.03394341509726423</v>
+        <v>0.03390597333594138</v>
       </c>
     </row>
     <row r="155">
@@ -8451,25 +8451,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="C155" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="E155" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="F155" t="n">
         <v>0.7100000000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="H155" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="I155" t="n">
         <v>1.146594982078853</v>
@@ -8493,10 +8493,10 @@
         <v>0.2275985663082437</v>
       </c>
       <c r="P155" t="n">
-        <v>0.03384066761034436</v>
+        <v>0.03384654419672258</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.0392504852907564</v>
+        <v>0.03926531549438887</v>
       </c>
     </row>
     <row r="156">
@@ -8504,25 +8504,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="C156" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="E156" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="F156" t="n">
         <v>1.146594982078853</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="H156" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="I156" t="n">
         <v>1.172592592592593</v>
@@ -8546,10 +8546,10 @@
         <v>0.2496296296296296</v>
       </c>
       <c r="P156" t="n">
-        <v>0.04044885102653685</v>
+        <v>0.04045528112438775</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.04683596308979203</v>
+        <v>0.04684946935216078</v>
       </c>
     </row>
     <row r="157">
@@ -8557,25 +8557,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="C157" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="E157" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="F157" t="n">
         <v>1.172592592592593</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="H157" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="I157" t="n">
         <v>1.312186379928315</v>
@@ -8599,10 +8599,10 @@
         <v>0.2663082437275986</v>
       </c>
       <c r="P157" t="n">
-        <v>0.04706316902301096</v>
+        <v>0.04707567669897092</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.04887324714127191</v>
+        <v>0.04888709109643221</v>
       </c>
     </row>
     <row r="158">
@@ -8610,25 +8610,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="C158" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="E158" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="F158" t="n">
         <v>1.312186379928315</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="H158" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="I158" t="n">
         <v>1.216487455197133</v>
@@ -8652,10 +8652,10 @@
         <v>0.3296296296296297</v>
       </c>
       <c r="P158" t="n">
-        <v>0.04935102024641756</v>
+        <v>0.04937220811757568</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05124627711250913</v>
+        <v>0.05126887010045721</v>
       </c>
     </row>
     <row r="159">
@@ -8663,25 +8663,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="C159" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="E159" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="F159" t="n">
         <v>1.216487455197133</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="H159" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="I159" t="n">
         <v>1.365873015873016</v>
@@ -8705,10 +8705,10 @@
         <v>0.3612903225806451</v>
       </c>
       <c r="P159" t="n">
-        <v>0.05016271926201006</v>
+        <v>0.05018451203724236</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05425770310546671</v>
+        <v>0.05428159721086882</v>
       </c>
     </row>
     <row r="160">
@@ -8716,25 +8716,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="C160" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="E160" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="F160" t="n">
         <v>1.365873015873016</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="H160" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="I160" t="n">
         <v>1.363440860215054</v>
@@ -8758,10 +8758,10 @@
         <v>0.5200716845878136</v>
       </c>
       <c r="P160" t="n">
-        <v>0.05782935080564908</v>
+        <v>0.0578445885341483</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.06228804826624024</v>
+        <v>0.06230317994954677</v>
       </c>
     </row>
     <row r="161">
@@ -8769,25 +8769,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="C161" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="E161" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="F161" t="n">
         <v>1.363440860215054</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="H161" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="I161" t="n">
         <v>1.36</v>
@@ -8811,10 +8811,10 @@
         <v>0.7100000000000001</v>
       </c>
       <c r="P161" t="n">
-        <v>0.07553639777583802</v>
+        <v>0.07554520497777084</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.07663200630420829</v>
+        <v>0.07664064884294074</v>
       </c>
     </row>
     <row r="162">
@@ -8822,25 +8822,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="C162" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="E162" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="F162" t="n">
         <v>1.36</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="H162" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="I162" t="n">
         <v>1.419354838709677</v>
@@ -8864,10 +8864,10 @@
         <v>1.146594982078853</v>
       </c>
       <c r="P162" t="n">
-        <v>0.07497321474302363</v>
+        <v>0.07498190387238673</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.07785344984560287</v>
+        <v>0.07786123990478981</v>
       </c>
     </row>
     <row r="163">
@@ -8875,25 +8875,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="C163" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="E163" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="F163" t="n">
         <v>1.419354838709677</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="H163" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="I163" t="n">
         <v>1.414444444444444</v>
@@ -8917,10 +8917,10 @@
         <v>1.172592592592593</v>
       </c>
       <c r="P163" t="n">
-        <v>0.08145522540732465</v>
+        <v>0.08144227355064824</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.08286987696461923</v>
+        <v>0.08285837070894229</v>
       </c>
     </row>
     <row r="164">
@@ -8928,25 +8928,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="C164" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="E164" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="F164" t="n">
         <v>1.414444444444444</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="H164" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="I164" t="n">
         <v>1.525448028673835</v>
@@ -8970,10 +8970,10 @@
         <v>1.312186379928315</v>
       </c>
       <c r="P164" t="n">
-        <v>0.08682979403337074</v>
+        <v>0.08677068254851206</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.08688399896962856</v>
+        <v>0.08682924017485878</v>
       </c>
     </row>
     <row r="165">
@@ -8981,25 +8981,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="C165" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="E165" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="F165" t="n">
         <v>1.525448028673835</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="H165" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="I165" t="n">
         <v>1.572401433691756</v>
@@ -9023,10 +9023,10 @@
         <v>1.216487455197133</v>
       </c>
       <c r="P165" t="n">
-        <v>0.0878318327829348</v>
+        <v>0.08781047439600141</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.08880674489191236</v>
+        <v>0.08878580595109188</v>
       </c>
     </row>
     <row r="166">
@@ -9034,25 +9034,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="C166" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="E166" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="F166" t="n">
         <v>1.572401433691756</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="H166" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="I166" t="n">
         <v>2.065925925925926</v>
@@ -9076,10 +9076,10 @@
         <v>1.365873015873016</v>
       </c>
       <c r="P166" t="n">
-        <v>0.09078248171749555</v>
+        <v>0.09075136031883485</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.09468772104480651</v>
+        <v>0.0946589617703812</v>
       </c>
     </row>
     <row r="167">
@@ -9087,25 +9087,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="C167" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="E167" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="F167" t="n">
         <v>2.065925925925926</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="H167" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="I167" t="n">
         <v>1.940860215053763</v>
@@ -9129,10 +9129,10 @@
         <v>1.363440860215054</v>
       </c>
       <c r="P167" t="n">
-        <v>0.09937793102437104</v>
+        <v>0.09938609752473472</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.1014197826876439</v>
+        <v>0.1014256357263766</v>
       </c>
     </row>
     <row r="168">
@@ -9140,25 +9140,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="C168" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="E168" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="F168" t="n">
         <v>1.940860215053763</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="H168" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="I168" t="n">
         <v>1.679259259259259</v>
@@ -9182,10 +9182,10 @@
         <v>1.36</v>
       </c>
       <c r="P168" t="n">
-        <v>0.1061698149972277</v>
+        <v>0.1062039960942382</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.1000210630695777</v>
+        <v>0.1000457610452139</v>
       </c>
     </row>
     <row r="169">
@@ -9193,25 +9193,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="C169" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="E169" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="F169" t="n">
         <v>1.679259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="H169" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="I169" t="n">
         <v>1.139426523297491</v>
@@ -9235,10 +9235,10 @@
         <v>1.419354838709677</v>
       </c>
       <c r="P169" t="n">
-        <v>0.09968781656482566</v>
+        <v>0.09970841799980375</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.09536932686946352</v>
+        <v>0.09538445358124126</v>
       </c>
     </row>
     <row r="170">
@@ -9246,25 +9246,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="C170" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="D170" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="E170" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="F170" t="n">
         <v>1.139426523297491</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="H170" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="I170" t="n">
         <v>0.7870967741935483</v>
@@ -9288,10 +9288,10 @@
         <v>1.414444444444444</v>
       </c>
       <c r="P170" t="n">
-        <v>0.09059340961901398</v>
+        <v>0.09061518867813417</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.08706237267031676</v>
+        <v>0.08707847289688433</v>
       </c>
     </row>
     <row r="171">
@@ -9299,25 +9299,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="C171" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="D171" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="E171" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="F171" t="n">
         <v>0.7870967741935483</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="H171" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="I171" t="n">
         <v>0.4984126984126984</v>
@@ -9341,10 +9341,10 @@
         <v>1.525448028673835</v>
       </c>
       <c r="P171" t="n">
-        <v>0.08535866524337707</v>
+        <v>0.08537896866344774</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.08160419033036506</v>
+        <v>0.0816201435703696</v>
       </c>
     </row>
     <row r="172">
@@ -9352,25 +9352,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="C172" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="E172" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="F172" t="n">
         <v>0.4984126984126984</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="H172" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="I172" t="n">
         <v>0.1942652329749104</v>
@@ -9394,10 +9394,10 @@
         <v>1.572401433691756</v>
       </c>
       <c r="P172" t="n">
-        <v>0.08326024399995177</v>
+        <v>0.083276085032081</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.07609630526553657</v>
+        <v>0.07610427990187171</v>
       </c>
     </row>
     <row r="173">
@@ -9405,25 +9405,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="C173" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="E173" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="F173" t="n">
         <v>0.1942652329749104</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="H173" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="I173" t="n">
         <v>0.1629629629629629</v>
@@ -9447,10 +9447,10 @@
         <v>2.065925925925926</v>
       </c>
       <c r="P173" t="n">
-        <v>0.06730323389746624</v>
+        <v>0.06731351668081755</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06750808463200508</v>
+        <v>0.06751962550970694</v>
       </c>
     </row>
     <row r="174">
@@ -9458,25 +9458,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="C174" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="E174" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="F174" t="n">
         <v>0.1629629629629629</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="H174" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="I174" t="n">
         <v>0.2247311827956989</v>
@@ -9500,10 +9500,10 @@
         <v>1.940860215053763</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06790308868925556</v>
+        <v>0.06790922201496688</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.0628263566566878</v>
+        <v>0.06282855377468721</v>
       </c>
     </row>
     <row r="175">
@@ -9511,25 +9511,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="C175" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="E175" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="F175" t="n">
         <v>0.2247311827956989</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="H175" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="I175" t="n">
         <v>0.03185185185185185</v>
@@ -9553,10 +9553,10 @@
         <v>1.679259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>0.05952735895928946</v>
+        <v>0.05952580527491833</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.05457095760695104</v>
+        <v>0.05456538395977369</v>
       </c>
     </row>
     <row r="176">
@@ -9564,25 +9564,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="C176" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="E176" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="F176" t="n">
         <v>0.03185185185185185</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="H176" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="I176" t="n">
         <v>0.007885304659498207</v>
@@ -9606,10 +9606,10 @@
         <v>1.139426523297491</v>
       </c>
       <c r="P176" t="n">
-        <v>0.05377593950503872</v>
+        <v>0.05372067618610062</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.04983662087522087</v>
+        <v>0.05040875974276257</v>
       </c>
     </row>
     <row r="177">
@@ -9617,25 +9617,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="C177" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="E177" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="F177" t="n">
         <v>0.007885304659498207</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="H177" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="I177" t="n">
         <v>0.02043010752688172</v>
@@ -9659,10 +9659,10 @@
         <v>0.7870967741935483</v>
       </c>
       <c r="P177" t="n">
-        <v>0.05013043434605789</v>
+        <v>0.05012274931125808</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.0494304383784264</v>
+        <v>0.0494232825311438</v>
       </c>
     </row>
     <row r="178">
@@ -9670,25 +9670,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="C178" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="E178" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="F178" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="H178" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="I178" t="n">
         <v>0.1274074074074074</v>
@@ -9712,10 +9712,10 @@
         <v>0.4984126984126984</v>
       </c>
       <c r="P178" t="n">
-        <v>0.0495049155593987</v>
+        <v>0.04944093261481178</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.04569231810987178</v>
+        <v>0.04562923401970245</v>
       </c>
     </row>
     <row r="179">
@@ -9723,25 +9723,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="C179" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="E179" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="F179" t="n">
         <v>0.1274074074074074</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="H179" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="I179" t="n">
         <v>0.1383512544802867</v>
@@ -9765,10 +9765,10 @@
         <v>0.1942652329749104</v>
       </c>
       <c r="P179" t="n">
-        <v>0.04176836844368395</v>
+        <v>0.04177340022021838</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.03788680201185145</v>
+        <v>0.03788862654549128</v>
       </c>
     </row>
     <row r="180">
@@ -9776,25 +9776,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="C180" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="E180" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="F180" t="n">
         <v>0.1383512544802867</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="H180" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="I180" t="n">
         <v>0.1781481481481481</v>
@@ -9818,10 +9818,10 @@
         <v>0.1629629629629629</v>
       </c>
       <c r="P180" t="n">
-        <v>0.02797734653180713</v>
+        <v>0.02800728667303787</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.02605560748506424</v>
+        <v>0.02608768879076252</v>
       </c>
     </row>
     <row r="181">
@@ -9829,25 +9829,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="C181" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="E181" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="F181" t="n">
         <v>0.1781481481481481</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="H181" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="I181" t="n">
         <v>0.325089605734767</v>
@@ -9871,10 +9871,10 @@
         <v>0.2247311827956989</v>
       </c>
       <c r="P181" t="n">
-        <v>0.02431935344068254</v>
+        <v>0.02433744871682475</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.02569515798808231</v>
+        <v>0.02571231664921723</v>
       </c>
     </row>
     <row r="182">
@@ -9882,25 +9882,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="C182" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="E182" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="F182" t="n">
         <v>0.325089605734767</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="H182" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="I182" t="n">
         <v>0.2777777777777778</v>
@@ -9924,10 +9924,10 @@
         <v>0.03185185185185185</v>
       </c>
       <c r="P182" t="n">
-        <v>0.02890290693537229</v>
+        <v>0.02892635626428219</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.02785717595014869</v>
+        <v>0.02787791042252465</v>
       </c>
     </row>
     <row r="183">
@@ -9935,25 +9935,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="C183" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="E183" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="F183" t="n">
         <v>0.2777777777777778</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="H183" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="I183" t="n">
         <v>0.1264367816091954</v>
@@ -9977,10 +9977,10 @@
         <v>0.007885304659498207</v>
       </c>
       <c r="P183" t="n">
-        <v>0.02711615095795093</v>
+        <v>0.02713343549672274</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.02560631467465762</v>
+        <v>0.02562127531947006</v>
       </c>
     </row>
     <row r="184">
@@ -9988,25 +9988,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="C184" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="E184" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="F184" t="n">
         <v>0.1264367816091954</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="H184" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="I184" t="n">
         <v>-0.03763440860215054</v>
@@ -10030,10 +10030,10 @@
         <v>0.02043010752688172</v>
       </c>
       <c r="P184" t="n">
-        <v>0.02524355679103784</v>
+        <v>0.02526741288918854</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.02407694841599358</v>
+        <v>0.02409764615676652</v>
       </c>
     </row>
     <row r="185">
@@ -10041,25 +10041,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="C185" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="E185" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="F185" t="n">
         <v>-0.03763440860215054</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="H185" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="I185" t="n">
         <v>-0.03962962962962963</v>
@@ -10083,10 +10083,10 @@
         <v>0.1274074074074074</v>
       </c>
       <c r="P185" t="n">
-        <v>0.02402351947645853</v>
+        <v>0.02403182198097364</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.02336347744809684</v>
+        <v>0.02337132650982694</v>
       </c>
     </row>
     <row r="186">
@@ -10094,25 +10094,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="C186" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="E186" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="F186" t="n">
         <v>-0.03962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="H186" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="I186" t="n">
         <v>0.07240143369175628</v>
@@ -10136,10 +10136,10 @@
         <v>0.1383512544802867</v>
       </c>
       <c r="P186" t="n">
-        <v>0.02349456259823951</v>
+        <v>0.02350007778743854</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.02395002392495204</v>
+        <v>0.02395599233419644</v>
       </c>
     </row>
     <row r="187">
@@ -10147,25 +10147,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="C187" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="E187" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="F187" t="n">
         <v>0.07240143369175628</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="H187" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="I187" t="n">
         <v>0.1688888888888889</v>
@@ -10189,10 +10189,10 @@
         <v>0.1781481481481481</v>
       </c>
       <c r="P187" t="n">
-        <v>0.02548161396572318</v>
+        <v>0.02548231786831056</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.02468389770682742</v>
+        <v>0.02468397338961115</v>
       </c>
     </row>
     <row r="188">
@@ -10200,25 +10200,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="C188" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="E188" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="F188" t="n">
         <v>0.1688888888888889</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="H188" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="I188" t="n">
         <v>0.2010752688172043</v>
@@ -10242,10 +10242,10 @@
         <v>0.325089605734767</v>
       </c>
       <c r="P188" t="n">
-        <v>0.02477702470075945</v>
+        <v>0.02472022917632225</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.02471437783541617</v>
+        <v>0.02473290182240907</v>
       </c>
     </row>
     <row r="189">
@@ -10253,25 +10253,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="C189" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="E189" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="F189" t="n">
         <v>0.2010752688172043</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="H189" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="I189" t="n">
         <v>0.1136200716845878</v>
@@ -10295,10 +10295,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="P189" t="n">
-        <v>0.02473308305164567</v>
+        <v>0.02473375222319334</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.02343775323548792</v>
+        <v>0.02343811480284458</v>
       </c>
     </row>
     <row r="190">
@@ -10306,25 +10306,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="C190" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="E190" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="F190" t="n">
         <v>0.1136200716845878</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="H190" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="I190" t="n">
         <v>-0.04148148148148148</v>
@@ -10348,10 +10348,10 @@
         <v>0.1264367816091954</v>
       </c>
       <c r="P190" t="n">
-        <v>0.02064885531051408</v>
+        <v>0.02059222646248068</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.01804285621161135</v>
+        <v>0.01798949840145899</v>
       </c>
     </row>
     <row r="191">
@@ -10359,25 +10359,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="C191" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="E191" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="F191" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="H191" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="I191" t="n">
         <v>-0.1125448028673835</v>
@@ -10401,10 +10401,10 @@
         <v>-0.03763440860215054</v>
       </c>
       <c r="P191" t="n">
-        <v>0.01714378612720205</v>
+        <v>0.01715326769323884</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.01743403203379987</v>
+        <v>0.01744420674978869</v>
       </c>
     </row>
     <row r="192">
@@ -10412,25 +10412,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="C192" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="E192" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="F192" t="n">
         <v>-0.1125448028673835</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="H192" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="I192" t="n">
         <v>0.002962962962962963</v>
@@ -10454,10 +10454,10 @@
         <v>-0.03962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>0.01984417646248487</v>
+        <v>0.01986454458705859</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.02027401972520985</v>
+        <v>0.02029581448886892</v>
       </c>
     </row>
     <row r="193">
@@ -10465,25 +10465,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="C193" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="E193" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="F193" t="n">
         <v>0.002962962962962963</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="H193" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="I193" t="n">
         <v>0.1684587813620072</v>
@@ -10507,10 +10507,10 @@
         <v>0.07240143369175628</v>
       </c>
       <c r="P193" t="n">
-        <v>0.02243628873107965</v>
+        <v>0.02245298797962095</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.02352934607118304</v>
+        <v>0.02354475944604487</v>
       </c>
     </row>
     <row r="194">
@@ -10518,25 +10518,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="C194" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="E194" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="F194" t="n">
         <v>0.1684587813620072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="H194" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="I194" t="n">
         <v>0.2562724014336917</v>
@@ -10560,10 +10560,10 @@
         <v>0.1688888888888889</v>
       </c>
       <c r="P194" t="n">
-        <v>0.02428509233086409</v>
+        <v>0.02430412511385239</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.02466387292426472</v>
+        <v>0.02468119615485519</v>
       </c>
     </row>
     <row r="195">
@@ -10571,25 +10571,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="C195" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="E195" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="F195" t="n">
         <v>0.2562724014336917</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="H195" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="I195" t="n">
         <v>0.2202380952380953</v>
@@ -10613,10 +10613,10 @@
         <v>0.2010752688172043</v>
       </c>
       <c r="P195" t="n">
-        <v>0.02465566073331844</v>
+        <v>0.02466907605562513</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.0234856756859462</v>
+        <v>0.02349744350685544</v>
       </c>
     </row>
     <row r="196">
@@ -10624,25 +10624,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="C196" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="E196" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="F196" t="n">
         <v>0.2202380952380953</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="H196" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="I196" t="n">
         <v>0.1637992831541218</v>
@@ -10666,10 +10666,10 @@
         <v>0.1136200716845878</v>
       </c>
       <c r="P196" t="n">
-        <v>0.02273270945065966</v>
+        <v>0.02274747442553586</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.02184522929505191</v>
+        <v>0.02185832460816188</v>
       </c>
     </row>
     <row r="197">
@@ -10677,25 +10677,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="C197" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="E197" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="F197" t="n">
         <v>0.1637992831541218</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="H197" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="I197" t="n">
         <v>0.1440740740740741</v>
@@ -10719,10 +10719,10 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P197" t="n">
-        <v>0.02157640826170301</v>
+        <v>0.02158739776402277</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.02112419359128312</v>
+        <v>0.02113386569965895</v>
       </c>
     </row>
     <row r="198">
@@ -10730,25 +10730,25 @@
         <v>45808</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="C198" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="E198" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="F198" t="n">
         <v>0.1440740740740741</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="H198" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="I198" t="n">
         <v>0.1229390681003584</v>
@@ -10772,10 +10772,10 @@
         <v>-0.1125448028673835</v>
       </c>
       <c r="P198" t="n">
-        <v>0.02115168559514347</v>
+        <v>0.02115163861998721</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.0205984723439417</v>
+        <v>0.02059877701947722</v>
       </c>
     </row>
     <row r="199">
@@ -10783,25 +10783,25 @@
         <v>45838</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="C199" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="D199" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="E199" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="F199" t="n">
         <v>0.1229390681003584</v>
       </c>
       <c r="G199" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="H199" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="I199" t="n">
         <v>0.1344444444444444</v>
@@ -10825,10 +10825,10 @@
         <v>0.002962962962962963</v>
       </c>
       <c r="P199" t="n">
-        <v>0.01874040023016704</v>
+        <v>0.01874096409536144</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.01907294153523348</v>
+        <v>0.01907359823542022</v>
       </c>
     </row>
     <row r="200">
@@ -10836,25 +10836,25 @@
         <v>45869</v>
       </c>
       <c r="B200" t="n">
-        <v>0.02035859126065098</v>
+        <v>0.02036557217017076</v>
       </c>
       <c r="C200" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="E200" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="F200" t="n">
         <v>0.1344444444444444</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="H200" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="I200" t="n">
         <v>0.2379928315412186</v>
@@ -10878,10 +10878,10 @@
         <v>0.1684587813620072</v>
       </c>
       <c r="P200" t="n">
-        <v>0.01982121444216209</v>
+        <v>0.01980073639696581</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.02015569091331661</v>
+        <v>0.02013401505759695</v>
       </c>
     </row>
     <row r="201">
@@ -10889,25 +10889,25 @@
         <v>45900</v>
       </c>
       <c r="B201" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="C201" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="D201" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="E201" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="F201" t="n">
         <v>0.2379928315412186</v>
       </c>
       <c r="G201" t="n">
-        <v>0.02035859126065098</v>
+        <v>0.02036557217017076</v>
       </c>
       <c r="H201" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="I201" t="n">
         <v>0.2318996415770609</v>
@@ -10931,10 +10931,10 @@
         <v>0.2562724014336917</v>
       </c>
       <c r="P201" t="n">
-        <v>0.02037944370888866</v>
+        <v>0.02038638008654697</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.02069497805894913</v>
+        <v>0.02070131074277443</v>
       </c>
     </row>
     <row r="202">
@@ -10942,24 +10942,28 @@
         <v>45930</v>
       </c>
       <c r="B202" t="n">
-        <v>0.02225768709807419</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.340489</v>
+      </c>
       <c r="D202" t="n">
-        <v>0.02035859126065098</v>
-      </c>
-      <c r="E202" t="inlineStr"/>
+        <v>0.02036557217017076</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.340489</v>
+      </c>
       <c r="F202" t="n">
         <v>0.2318996415770609</v>
       </c>
       <c r="G202" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="H202" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="I202" t="n">
-        <v>0.2493827160493827</v>
+        <v>0.2392592592592593</v>
       </c>
       <c r="J202" t="n">
         <v>0.2379928315412186</v>
@@ -10980,30 +10984,36 @@
         <v>0.2202380952380953</v>
       </c>
       <c r="P202" t="n">
-        <v>0.02067842378929053</v>
+        <v>0.0207018219806662</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.02139368645295533</v>
+        <v>0.02141515844825129</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>0.02089663200417213</v>
+      </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>0.2493827160493827</v>
+        <v>0.2392592592592593</v>
       </c>
       <c r="G203" t="n">
-        <v>0.02225768709807419</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="H203" t="n">
+        <v>6.340489</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.08494623655913978</v>
+      </c>
       <c r="J203" t="n">
         <v>0.2318996415770609</v>
       </c>
@@ -11023,10 +11033,53 @@
         <v>0.1637992831541218</v>
       </c>
       <c r="P203" t="n">
-        <v>0.02226280736944072</v>
+        <v>0.02233742154424629</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.0227723626473604</v>
+        <v>0.02165328908834753</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="n">
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>0.08494623655913978</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.02089663200417213</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.2392592592592593</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.2318996415770609</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.2379928315412186</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.1344444444444444</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.1229390681003584</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.1440740740740741</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0.02091289822066544</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.01987353000201711</v>
       </c>
     </row>
   </sheetData>
